--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.34506920923541</v>
       </c>
       <c r="C2" t="n">
-        <v>3.418078181540346</v>
+        <v>3.4389844624950783</v>
       </c>
       <c r="D2" t="n">
-        <v>3.266400513306067</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6060109270746286</v>
+        <v>3.5929279817777466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5702100030779995</v>
+        <v>3.515429232383298</v>
       </c>
       <c r="G2" t="n">
-        <v>3.749884154298952</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6869438421935885</v>
+        <v>3.575412183852175</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2795948154975587</v>
+        <v>3.263209896047904</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="K2" t="n">
-        <v>3.418078181540346</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="L2" t="n">
-        <v>3.266400513306067</v>
+        <v>3.467642667013836</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1.7012583542329065</v>
+        <v>1.718442782053441</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4908457508862294</v>
+        <v>1.510901382821374</v>
       </c>
       <c r="D10" t="n">
-        <v>1.6205591563597632</v>
+        <v>1.6509145313869762</v>
       </c>
       <c r="E10" t="n">
-        <v>1.7203601353459015</v>
+        <v>1.7461596011774887</v>
       </c>
       <c r="F10" t="n">
-        <v>1.648499903309184</v>
+        <v>1.649850112497437</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5557947162294263</v>
+        <v>1.5655224013984883</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7908263372192972</v>
+        <v>1.7548686267818796</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7699354598549826</v>
+        <v>1.7153012053661347</v>
       </c>
       <c r="J10" t="n">
-        <v>1.7012583542329065</v>
+        <v>1.6956682383075925</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4908457508862294</v>
+        <v>1.5373070874339725</v>
       </c>
       <c r="L10" t="n">
-        <v>1.6205591563597632</v>
+        <v>1.5716411380546218</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.849799099422148</v>
+        <v>3.927572818602394</v>
       </c>
       <c r="C13" t="n">
-        <v>3.6532320062473818</v>
+        <v>3.7288992693128726</v>
       </c>
       <c r="D13" t="n">
-        <v>3.975676181364071</v>
+        <v>4.156843663904017</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5387860384789795</v>
+        <v>3.6596570104848625</v>
       </c>
       <c r="F13" t="n">
-        <v>3.7028077195911577</v>
+        <v>3.820314702150418</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8093335549353924</v>
+        <v>3.9301067352694252</v>
       </c>
       <c r="H13" t="n">
-        <v>3.705429084822197</v>
+        <v>3.714430147271965</v>
       </c>
       <c r="I13" t="n">
-        <v>4.051725059733665</v>
+        <v>4.1516926814314035</v>
       </c>
       <c r="J13" t="n">
-        <v>3.849799099422148</v>
+        <v>4.0908620183077735</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6532320062473818</v>
+        <v>3.596796556127893</v>
       </c>
       <c r="L13" t="n">
-        <v>3.975676181364071</v>
+        <v>4.036645772665396</v>
       </c>
     </row>
     <row r="14">
@@ -752,34 +752,34 @@
         <v>1.4367001726009647</v>
       </c>
       <c r="C18" t="n">
-        <v>1.6212011931067465</v>
+        <v>1.615839845273292</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5713563123347698</v>
+        <v>1.5529101918937462</v>
       </c>
       <c r="E18" t="n">
-        <v>1.442415346172507</v>
+        <v>1.4414945006376394</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5201057810172751</v>
+        <v>1.5201214724817862</v>
       </c>
       <c r="G18" t="n">
-        <v>1.4642565288230651</v>
+        <v>1.4776551380298815</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5701659647791397</v>
+        <v>1.582299823865601</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6353778418087563</v>
+        <v>1.615839845273292</v>
       </c>
       <c r="J18" t="n">
+        <v>1.6058284462232826</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.5871445882755695</v>
+      </c>
+      <c r="L18" t="n">
         <v>1.4367001726009647</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.6212011931067465</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.5713563123347698</v>
       </c>
     </row>
     <row r="19">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.542152435154951</v>
+        <v>2.516982609064308</v>
       </c>
       <c r="C19" t="n">
-        <v>2.350611477935531</v>
+        <v>2.345529859506749</v>
       </c>
       <c r="D19" t="n">
-        <v>2.2844251650823937</v>
+        <v>2.294289446553299</v>
       </c>
       <c r="E19" t="n">
-        <v>2.4562494059321005</v>
+        <v>2.4622495612219173</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3506042268584353</v>
+        <v>2.33769837346352</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3702983426072546</v>
+        <v>2.328627481326842</v>
       </c>
       <c r="H19" t="n">
-        <v>2.408889694668844</v>
+        <v>2.39500796892845</v>
       </c>
       <c r="I19" t="n">
-        <v>2.503870930342217</v>
+        <v>2.463838108523197</v>
       </c>
       <c r="J19" t="n">
-        <v>2.542152435154951</v>
+        <v>2.618980035559142</v>
       </c>
       <c r="K19" t="n">
-        <v>2.350611477935531</v>
+        <v>2.3363982077690095</v>
       </c>
       <c r="L19" t="n">
-        <v>2.2844251650823937</v>
+        <v>2.2548813608710745</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.3892448509869038</v>
+        <v>2.3419330717594398</v>
       </c>
       <c r="C26" t="n">
-        <v>2.476560554759173</v>
+        <v>2.395955218125271</v>
       </c>
       <c r="D26" t="n">
-        <v>2.4652432114796015</v>
+        <v>2.395955218125271</v>
       </c>
       <c r="E26" t="n">
-        <v>2.3971177000254307</v>
+        <v>2.3811103906104827</v>
       </c>
       <c r="F26" t="n">
-        <v>2.104557847742438</v>
+        <v>2.062862140787198</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4280197716120995</v>
+        <v>2.3534061060085865</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3602568462653326</v>
+        <v>2.2713428900872064</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1600027812032643</v>
+        <v>2.130328253443061</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3892448509869038</v>
+        <v>2.3026435995075016</v>
       </c>
       <c r="K26" t="n">
-        <v>2.476560554759173</v>
+        <v>2.1910559693826057</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4652432114796015</v>
+        <v>2.130328253443061</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.660555365423555</v>
+        <v>2.6871609190777908</v>
       </c>
       <c r="C31" t="n">
-        <v>2.363725219833829</v>
+        <v>2.396577705638292</v>
       </c>
       <c r="D31" t="n">
-        <v>2.398865631724199</v>
+        <v>2.450102613533598</v>
       </c>
       <c r="E31" t="n">
-        <v>2.438388671905702</v>
+        <v>2.432446662241538</v>
       </c>
       <c r="F31" t="n">
-        <v>2.6837674475235063</v>
+        <v>2.735744251520711</v>
       </c>
       <c r="G31" t="n">
-        <v>2.6366612885438734</v>
+        <v>2.6434540823395993</v>
       </c>
       <c r="H31" t="n">
-        <v>2.646272448073711</v>
+        <v>2.722167356720756</v>
       </c>
       <c r="I31" t="n">
-        <v>2.4652320906573943</v>
+        <v>2.5017866476188875</v>
       </c>
       <c r="J31" t="n">
-        <v>2.660555365423555</v>
+        <v>2.674060804661144</v>
       </c>
       <c r="K31" t="n">
-        <v>2.363725219833829</v>
+        <v>2.678958350968511</v>
       </c>
       <c r="L31" t="n">
-        <v>2.398865631724199</v>
+        <v>2.735744251520711</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2.007626045316581</v>
+        <v>2.0481841472421682</v>
       </c>
       <c r="C32" t="n">
-        <v>2.2029743522365046</v>
+        <v>2.2463550567811157</v>
       </c>
       <c r="D32" t="n">
-        <v>2.0370772357162923</v>
+        <v>2.033424504384303</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0245557322778542</v>
+        <v>2.0913898557273085</v>
       </c>
       <c r="F32" t="n">
-        <v>2.002037506409567</v>
+        <v>2.033424504384303</v>
       </c>
       <c r="G32" t="n">
-        <v>2.175074921105936</v>
+        <v>2.2727991369809084</v>
       </c>
       <c r="H32" t="n">
-        <v>1.9636453200672135</v>
+        <v>2.0402101262543013</v>
       </c>
       <c r="I32" t="n">
-        <v>2.18648731621232</v>
+        <v>2.239498050109108</v>
       </c>
       <c r="J32" t="n">
-        <v>2.007626045316581</v>
+        <v>2.27561898647765</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2029743522365046</v>
+        <v>2.2869687073197245</v>
       </c>
       <c r="L32" t="n">
-        <v>2.0370772357162923</v>
+        <v>2.2354039045611938</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.6206562777304845</v>
+        <v>1.5882431521758749</v>
       </c>
       <c r="C34" t="n">
-        <v>1.6269864911997793</v>
+        <v>1.5820803458516097</v>
       </c>
       <c r="D34" t="n">
-        <v>1.7262014905410477</v>
+        <v>1.6728638086721022</v>
       </c>
       <c r="E34" t="n">
-        <v>1.77834813058603</v>
+        <v>1.7100496960475542</v>
       </c>
       <c r="F34" t="n">
-        <v>1.6662133563103902</v>
+        <v>1.5820803458516097</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7954900483288838</v>
+        <v>1.7424132747546597</v>
       </c>
       <c r="H34" t="n">
-        <v>1.8127181489538553</v>
+        <v>1.7683227663152148</v>
       </c>
       <c r="I34" t="n">
-        <v>1.805447783217018</v>
+        <v>1.770516714729545</v>
       </c>
       <c r="J34" t="n">
-        <v>1.6206562777304845</v>
+        <v>1.6271795579946835</v>
       </c>
       <c r="K34" t="n">
-        <v>1.6269864911997793</v>
+        <v>1.739227876334189</v>
       </c>
       <c r="L34" t="n">
-        <v>1.7262014905410477</v>
+        <v>1.7793472221993</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.740931769468737</v>
+        <v>4.694452046238652</v>
       </c>
       <c r="C38" t="n">
-        <v>5.400291822060831</v>
+        <v>5.425412012993075</v>
       </c>
       <c r="D38" t="n">
-        <v>4.8090895168574015</v>
+        <v>4.866869318816483</v>
       </c>
       <c r="E38" t="n">
-        <v>5.338086729556359</v>
+        <v>5.268532626663209</v>
       </c>
       <c r="F38" t="n">
-        <v>4.77807346196895</v>
+        <v>4.883173740112742</v>
       </c>
       <c r="G38" t="n">
-        <v>4.85801002080439</v>
+        <v>4.84798456998172</v>
       </c>
       <c r="H38" t="n">
-        <v>5.314444620531076</v>
+        <v>5.3556424792238415</v>
       </c>
       <c r="I38" t="n">
-        <v>5.247185733922512</v>
+        <v>5.240122325063037</v>
       </c>
       <c r="J38" t="n">
-        <v>4.740931769468737</v>
+        <v>4.776495993951182</v>
       </c>
       <c r="K38" t="n">
-        <v>5.400291822060831</v>
+        <v>5.168891351125655</v>
       </c>
       <c r="L38" t="n">
-        <v>4.8090895168574015</v>
+        <v>5.129480446673847</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1291612441023444</v>
       </c>
       <c r="C45" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.238762274962587</v>
       </c>
       <c r="D45" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2219233086467747</v>
       </c>
       <c r="E45" t="n">
-        <v>1.1767389195231281</v>
+        <v>1.1505254525237052</v>
       </c>
       <c r="F45" t="n">
-        <v>1.293316233686468</v>
+        <v>1.2660711811474332</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1312332906345446</v>
+        <v>1.1097660962392526</v>
       </c>
       <c r="H45" t="n">
-        <v>1.1624760200754367</v>
+        <v>1.1460611074230656</v>
       </c>
       <c r="I45" t="n">
-        <v>1.229916744973021</v>
+        <v>1.2118247686736257</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1543798094955458</v>
       </c>
       <c r="K45" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.2126065907099528</v>
       </c>
       <c r="L45" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2809753645942317</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.9605635300008855</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="C51" t="n">
-        <v>3.059393155854773</v>
+        <v>3.0760291598993916</v>
       </c>
       <c r="D51" t="n">
-        <v>2.8331510453816797</v>
+        <v>2.896057511347788</v>
       </c>
       <c r="E51" t="n">
-        <v>2.9260463802422265</v>
+        <v>3.0124819361187796</v>
       </c>
       <c r="F51" t="n">
-        <v>2.8437132227533546</v>
+        <v>2.94667129730048</v>
       </c>
       <c r="G51" t="n">
-        <v>3.225338323507835</v>
+        <v>3.346994507053135</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1846398888265486</v>
+        <v>3.2502139412530724</v>
       </c>
       <c r="I51" t="n">
-        <v>2.9858512699731254</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="J51" t="n">
-        <v>2.9605635300008855</v>
+        <v>3.164431169086908</v>
       </c>
       <c r="K51" t="n">
-        <v>3.059393155854773</v>
+        <v>3.342847054939053</v>
       </c>
       <c r="L51" t="n">
-        <v>2.8331510453816797</v>
+        <v>3.0007536966357597</v>
       </c>
     </row>
     <row r="52">
@@ -2193,37 +2193,37 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2.2871633928343447</v>
+        <v>2.3100350267626877</v>
       </c>
       <c r="C56" t="n">
-        <v>2.333009019833864</v>
+        <v>2.336781320972796</v>
       </c>
       <c r="D56" t="n">
-        <v>2.394496434459176</v>
+        <v>2.390684630195759</v>
       </c>
       <c r="E56" t="n">
-        <v>2.036643803162906</v>
+        <v>2.0583242862324753</v>
       </c>
       <c r="F56" t="n">
-        <v>2.3446783927699784</v>
+        <v>2.3410611394083776</v>
       </c>
       <c r="G56" t="n">
-        <v>2.357996219524872</v>
+        <v>2.390684630195759</v>
       </c>
       <c r="H56" t="n">
-        <v>2.151705724361263</v>
+        <v>2.1339221741259653</v>
       </c>
       <c r="I56" t="n">
-        <v>2.0427742730643974</v>
+        <v>2.09429718540191</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2871633928343447</v>
+        <v>2.2663464225699026</v>
       </c>
       <c r="K56" t="n">
-        <v>2.333009019833864</v>
+        <v>2.12564198790122</v>
       </c>
       <c r="L56" t="n">
-        <v>2.394496434459176</v>
+        <v>2.2975782771384847</v>
       </c>
     </row>
     <row r="57">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7786100506035384</v>
+        <v>0.7866369583417193</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7409316122166291</v>
+        <v>0.7377991869354151</v>
       </c>
       <c r="D59" t="n">
-        <v>0.826800418448688</v>
+        <v>0.8150580121798986</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8253074407933927</v>
+        <v>0.8297940981674811</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8393108746167655</v>
+        <v>0.8297940981674811</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8108390030852218</v>
+        <v>0.7974773712797119</v>
       </c>
       <c r="H59" t="n">
-        <v>0.7864566227517922</v>
+        <v>0.7801358263050715</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7360609900406234</v>
+        <v>0.7431545136153634</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7786100506035384</v>
+        <v>0.7406731961519544</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7409316122166291</v>
+        <v>0.8018010437499145</v>
       </c>
       <c r="L59" t="n">
-        <v>0.826800418448688</v>
+        <v>0.812570044745401</v>
       </c>
     </row>
     <row r="60">
@@ -2421,37 +2421,37 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>3.3556354556568246</v>
+        <v>3.289187228812135</v>
       </c>
       <c r="C62" t="n">
-        <v>3.197912651807542</v>
+        <v>3.118118389614023</v>
       </c>
       <c r="D62" t="n">
-        <v>3.2980263787126383</v>
+        <v>3.178226693796231</v>
       </c>
       <c r="E62" t="n">
-        <v>3.342777217134429</v>
+        <v>3.2150251774702303</v>
       </c>
       <c r="F62" t="n">
-        <v>2.959358314297787</v>
+        <v>2.9342916105019876</v>
       </c>
       <c r="G62" t="n">
-        <v>2.975950107192686</v>
+        <v>2.9457600874914736</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9114511243909225</v>
+        <v>2.8319142849365875</v>
       </c>
       <c r="I62" t="n">
-        <v>3.007105108761684</v>
+        <v>2.9359244936624775</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3556354556568246</v>
+        <v>3.230775454204345</v>
       </c>
       <c r="K62" t="n">
-        <v>3.197912651807542</v>
+        <v>3.0923488155534384</v>
       </c>
       <c r="L62" t="n">
-        <v>3.2980263787126383</v>
+        <v>3.2728637186893907</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.33405480909256</v>
+        <v>3.401409451700491</v>
       </c>
       <c r="C65" t="n">
-        <v>3.263894087672615</v>
+        <v>3.3474188253705512</v>
       </c>
       <c r="D65" t="n">
-        <v>3.0033538747450708</v>
+        <v>3.1260387897678754</v>
       </c>
       <c r="E65" t="n">
-        <v>3.312263017888764</v>
+        <v>3.418374087685598</v>
       </c>
       <c r="F65" t="n">
-        <v>3.178337888600324</v>
+        <v>3.397194570919663</v>
       </c>
       <c r="G65" t="n">
-        <v>3.2790086136387644</v>
+        <v>3.3412992309015013</v>
       </c>
       <c r="H65" t="n">
-        <v>3.094731702993342</v>
+        <v>3.215878025824608</v>
       </c>
       <c r="I65" t="n">
-        <v>3.15360539459059</v>
+        <v>3.3030554416895535</v>
       </c>
       <c r="J65" t="n">
-        <v>3.33405480909256</v>
+        <v>3.0495395090888993</v>
       </c>
       <c r="K65" t="n">
-        <v>3.263894087672615</v>
+        <v>3.0393969155785494</v>
       </c>
       <c r="L65" t="n">
-        <v>3.0033538747450708</v>
+        <v>2.9945778460559875</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.34506920923541</v>
       </c>
       <c r="C69" t="n">
-        <v>3.418078181540346</v>
+        <v>3.4389844624950783</v>
       </c>
       <c r="D69" t="n">
-        <v>3.266400513306067</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="E69" t="n">
-        <v>3.6060109270746286</v>
+        <v>3.5929279817777466</v>
       </c>
       <c r="F69" t="n">
-        <v>3.5702100030779995</v>
+        <v>3.515429232383298</v>
       </c>
       <c r="G69" t="n">
-        <v>3.749884154298952</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6869438421935885</v>
+        <v>3.575412183852175</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2795948154975587</v>
+        <v>3.263209896047904</v>
       </c>
       <c r="J69" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="K69" t="n">
-        <v>3.418078181540346</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="L69" t="n">
-        <v>3.266400513306067</v>
+        <v>3.467642667013836</v>
       </c>
     </row>
     <row r="70">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>2.8875407422160055</v>
+        <v>2.9164161496381658</v>
       </c>
       <c r="C73" t="n">
-        <v>2.980069405394649</v>
+        <v>2.998296656190214</v>
       </c>
       <c r="D73" t="n">
-        <v>2.847828434129657</v>
+        <v>2.835584215643056</v>
       </c>
       <c r="E73" t="n">
-        <v>3.143919556120619</v>
+        <v>3.132513121586076</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1127063326012157</v>
+        <v>3.0649454301055186</v>
       </c>
       <c r="G73" t="n">
-        <v>3.2693561845225423</v>
+        <v>3.1891483328558405</v>
       </c>
       <c r="H73" t="n">
-        <v>3.21448134301536</v>
+        <v>3.117241881217446</v>
       </c>
       <c r="I73" t="n">
-        <v>2.859331955757321</v>
+        <v>2.8450466777243397</v>
       </c>
       <c r="J73" t="n">
-        <v>2.8875407422160055</v>
+        <v>2.835584215643056</v>
       </c>
       <c r="K73" t="n">
-        <v>2.980069405394649</v>
+        <v>3.1891483328558405</v>
       </c>
       <c r="L73" t="n">
-        <v>2.847828434129657</v>
+        <v>3.0232824622379284</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.34506920923541</v>
       </c>
       <c r="C76" t="n">
-        <v>3.418078181540346</v>
+        <v>3.4389844624950783</v>
       </c>
       <c r="D76" t="n">
-        <v>3.266400513306067</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="E76" t="n">
-        <v>3.6060109270746286</v>
+        <v>3.5929279817777466</v>
       </c>
       <c r="F76" t="n">
-        <v>3.5702100030779995</v>
+        <v>3.515429232383298</v>
       </c>
       <c r="G76" t="n">
-        <v>3.749884154298952</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="H76" t="n">
-        <v>3.6869438421935885</v>
+        <v>3.575412183852175</v>
       </c>
       <c r="I76" t="n">
-        <v>3.2795948154975587</v>
+        <v>3.263209896047904</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="K76" t="n">
-        <v>3.418078181540346</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="L76" t="n">
-        <v>3.266400513306067</v>
+        <v>3.467642667013836</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.34506920923541</v>
       </c>
       <c r="C79" t="n">
-        <v>3.418078181540346</v>
+        <v>3.4389844624950783</v>
       </c>
       <c r="D79" t="n">
-        <v>3.266400513306067</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="E79" t="n">
-        <v>3.6060109270746286</v>
+        <v>3.5929279817777466</v>
       </c>
       <c r="F79" t="n">
-        <v>3.5702100030779995</v>
+        <v>3.515429232383298</v>
       </c>
       <c r="G79" t="n">
-        <v>3.749884154298952</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="H79" t="n">
-        <v>3.6869438421935885</v>
+        <v>3.575412183852175</v>
       </c>
       <c r="I79" t="n">
-        <v>3.2795948154975587</v>
+        <v>3.263209896047904</v>
       </c>
       <c r="J79" t="n">
-        <v>3.3119497121142674</v>
+        <v>3.2523566470849308</v>
       </c>
       <c r="K79" t="n">
-        <v>3.418078181540346</v>
+        <v>3.6578874017153082</v>
       </c>
       <c r="L79" t="n">
-        <v>3.266400513306067</v>
+        <v>3.467642667013836</v>
       </c>
     </row>
     <row r="80">
@@ -3488,34 +3488,34 @@
         <v>4.8086021841052515</v>
       </c>
       <c r="C90" t="n">
-        <v>4.213871524003766</v>
+        <v>4.2278531268413</v>
       </c>
       <c r="D90" t="n">
-        <v>4.580506117342182</v>
+        <v>4.619642448561684</v>
       </c>
       <c r="E90" t="n">
-        <v>4.862593317287174</v>
+        <v>4.886160284013055</v>
       </c>
       <c r="F90" t="n">
-        <v>4.6594805637995504</v>
+        <v>4.616663957191186</v>
       </c>
       <c r="G90" t="n">
-        <v>4.397449600683069</v>
+        <v>4.380695428005446</v>
       </c>
       <c r="H90" t="n">
-        <v>5.061765848249878</v>
+        <v>4.910530161194919</v>
       </c>
       <c r="I90" t="n">
-        <v>5.0027178393028695</v>
+        <v>4.799811322589302</v>
       </c>
       <c r="J90" t="n">
-        <v>4.8086021841052515</v>
+        <v>4.744873719042583</v>
       </c>
       <c r="K90" t="n">
-        <v>4.213871524003766</v>
+        <v>4.301742423708811</v>
       </c>
       <c r="L90" t="n">
-        <v>4.580506117342182</v>
+        <v>4.3978170748568415</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8230802655334277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.713921216413333</v>
+        <v>0.7236744361551665</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.790736348662861</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8238287561037424</v>
+        <v>0.8363557537152936</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7894170510451198</v>
+        <v>0.7902265253557423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7450233235998337</v>
+        <v>0.7498361931503199</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8575729020206336</v>
+        <v>0.8405271041855338</v>
       </c>
       <c r="I91" t="n">
-        <v>0.8475688888147018</v>
+        <v>0.8215755487043391</v>
       </c>
       <c r="J91" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8121719724500025</v>
       </c>
       <c r="K91" t="n">
-        <v>0.713921216413333</v>
+        <v>0.736321941554307</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.7527668763503981</v>
       </c>
     </row>
     <row r="92">
@@ -3602,34 +3602,34 @@
         <v>2.126733721111411</v>
       </c>
       <c r="C93" t="n">
-        <v>1.863698081773733</v>
+        <v>1.869881821890156</v>
       </c>
       <c r="D93" t="n">
-        <v>2.0258520972496186</v>
+        <v>2.043161192936557</v>
       </c>
       <c r="E93" t="n">
-        <v>2.150612752726578</v>
+        <v>2.1610358779761394</v>
       </c>
       <c r="F93" t="n">
-        <v>2.0607806714914583</v>
+        <v>2.041843874973217</v>
       </c>
       <c r="G93" t="n">
-        <v>1.9448904264890396</v>
+        <v>1.9374804427476933</v>
       </c>
       <c r="H93" t="n">
-        <v>2.2387021645139886</v>
+        <v>2.171814111982132</v>
       </c>
       <c r="I93" t="n">
-        <v>2.2125865935051845</v>
+        <v>2.122845726033467</v>
       </c>
       <c r="J93" t="n">
-        <v>2.126733721111411</v>
+        <v>2.098548092428828</v>
       </c>
       <c r="K93" t="n">
-        <v>1.863698081773733</v>
+        <v>1.9025613518784719</v>
       </c>
       <c r="L93" t="n">
-        <v>2.0258520972496186</v>
+        <v>1.945052951831557</v>
       </c>
     </row>
     <row r="94">
@@ -3640,34 +3640,34 @@
         <v>2.126733721111411</v>
       </c>
       <c r="C94" t="n">
-        <v>1.863698081773733</v>
+        <v>1.869881821890156</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0258520972496186</v>
+        <v>2.043161192936557</v>
       </c>
       <c r="E94" t="n">
-        <v>2.150612752726578</v>
+        <v>2.1610358779761394</v>
       </c>
       <c r="F94" t="n">
-        <v>2.0607806714914583</v>
+        <v>2.041843874973217</v>
       </c>
       <c r="G94" t="n">
-        <v>1.9448904264890396</v>
+        <v>1.9374804427476933</v>
       </c>
       <c r="H94" t="n">
-        <v>2.2387021645139886</v>
+        <v>2.171814111982132</v>
       </c>
       <c r="I94" t="n">
-        <v>2.2125865935051845</v>
+        <v>2.122845726033467</v>
       </c>
       <c r="J94" t="n">
-        <v>2.126733721111411</v>
+        <v>2.098548092428828</v>
       </c>
       <c r="K94" t="n">
-        <v>1.863698081773733</v>
+        <v>1.9025613518784719</v>
       </c>
       <c r="L94" t="n">
-        <v>2.0258520972496186</v>
+        <v>1.945052951831557</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>1.6951468381964954</v>
+        <v>1.6612439014325655</v>
       </c>
       <c r="C97" t="n">
-        <v>1.485490110638123</v>
+        <v>1.4606105795845932</v>
       </c>
       <c r="D97" t="n">
-        <v>1.6147375401147037</v>
+        <v>1.5959633487335547</v>
       </c>
       <c r="E97" t="n">
-        <v>1.7141799990195117</v>
+        <v>1.688038157964001</v>
       </c>
       <c r="F97" t="n">
-        <v>1.6425779141121706</v>
+        <v>1.5949343593442753</v>
       </c>
       <c r="G97" t="n">
-        <v>1.5502057565432374</v>
+        <v>1.5134135212646407</v>
       </c>
       <c r="H97" t="n">
-        <v>1.7843930616082697</v>
+        <v>1.6964573010532031</v>
       </c>
       <c r="I97" t="n">
-        <v>1.7635772315944702</v>
+        <v>1.6582068930624445</v>
       </c>
       <c r="J97" t="n">
-        <v>1.6951468381964954</v>
+        <v>1.6392274151690598</v>
       </c>
       <c r="K97" t="n">
-        <v>1.485490110638123</v>
+        <v>1.4861373624422054</v>
       </c>
       <c r="L97" t="n">
-        <v>1.6147375401147037</v>
+        <v>1.5193285939459245</v>
       </c>
     </row>
     <row r="98">
@@ -3789,37 +3789,37 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>1.161306628130853</v>
+        <v>1.138080495568236</v>
       </c>
       <c r="C98" t="n">
-        <v>1.2771886072931897</v>
+        <v>1.267824492613013</v>
       </c>
       <c r="D98" t="n">
-        <v>1.2532555017327562</v>
+        <v>1.2492483092276285</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1536734683870555</v>
+        <v>1.1342953051110527</v>
       </c>
       <c r="F98" t="n">
-        <v>1.2772722237532463</v>
+        <v>1.2469644919216858</v>
       </c>
       <c r="G98" t="n">
-        <v>1.2148654000864532</v>
+        <v>1.1993838171635671</v>
       </c>
       <c r="H98" t="n">
-        <v>1.2639292212351412</v>
+        <v>1.2260447750453607</v>
       </c>
       <c r="I98" t="n">
-        <v>1.2669473508941593</v>
+        <v>1.2093786825383943</v>
       </c>
       <c r="J98" t="n">
-        <v>1.161306628130853</v>
+        <v>1.2757286351450352</v>
       </c>
       <c r="K98" t="n">
-        <v>1.2771886072931897</v>
+        <v>1.2693974755481443</v>
       </c>
       <c r="L98" t="n">
-        <v>1.2532555017327562</v>
+        <v>1.2530733199218553</v>
       </c>
     </row>
     <row r="99">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3.445929568950228</v>
+        <v>3.515544307716899</v>
       </c>
       <c r="C100" t="n">
-        <v>3.269983671213592</v>
+        <v>3.3377129351219468</v>
       </c>
       <c r="D100" t="n">
-        <v>3.5586013077903016</v>
+        <v>3.7207631164702346</v>
       </c>
       <c r="E100" t="n">
-        <v>3.167543846642108</v>
+        <v>3.2757346497739763</v>
       </c>
       <c r="F100" t="n">
-        <v>3.314358562500454</v>
+        <v>3.419538281052482</v>
       </c>
       <c r="G100" t="n">
-        <v>3.4097091292157202</v>
+        <v>3.5178123996725255</v>
       </c>
       <c r="H100" t="n">
-        <v>3.3167049290841057</v>
+        <v>3.3247617202169932</v>
       </c>
       <c r="I100" t="n">
-        <v>3.6266721530192436</v>
+        <v>3.7161525063180867</v>
       </c>
       <c r="J100" t="n">
-        <v>3.445929568950228</v>
+        <v>3.66170338433974</v>
       </c>
       <c r="K100" t="n">
-        <v>3.269983671213592</v>
+        <v>3.219468675162771</v>
       </c>
       <c r="L100" t="n">
-        <v>3.5586013077903016</v>
+        <v>3.613174783456494</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3.849799099422148</v>
+        <v>3.927572818602394</v>
       </c>
       <c r="C101" t="n">
-        <v>3.6532320062473818</v>
+        <v>3.7288992693128726</v>
       </c>
       <c r="D101" t="n">
-        <v>3.975676181364071</v>
+        <v>4.156843663904017</v>
       </c>
       <c r="E101" t="n">
-        <v>3.5387860384789795</v>
+        <v>3.6596570104848625</v>
       </c>
       <c r="F101" t="n">
-        <v>3.7028077195911577</v>
+        <v>3.820314702150418</v>
       </c>
       <c r="G101" t="n">
-        <v>3.8093335549353924</v>
+        <v>3.9301067352694252</v>
       </c>
       <c r="H101" t="n">
-        <v>3.705429084822197</v>
+        <v>3.714430147271965</v>
       </c>
       <c r="I101" t="n">
-        <v>4.051725059733665</v>
+        <v>4.1516926814314035</v>
       </c>
       <c r="J101" t="n">
-        <v>3.849799099422148</v>
+        <v>4.0908620183077735</v>
       </c>
       <c r="K101" t="n">
-        <v>3.6532320062473818</v>
+        <v>3.596796556127893</v>
       </c>
       <c r="L101" t="n">
-        <v>3.975676181364071</v>
+        <v>4.036645772665396</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.445929568950228</v>
+        <v>3.515544307716899</v>
       </c>
       <c r="C104" t="n">
-        <v>3.269983671213592</v>
+        <v>3.3377129351219468</v>
       </c>
       <c r="D104" t="n">
-        <v>3.5586013077903016</v>
+        <v>3.7207631164702346</v>
       </c>
       <c r="E104" t="n">
-        <v>3.167543846642108</v>
+        <v>3.2757346497739763</v>
       </c>
       <c r="F104" t="n">
-        <v>3.314358562500454</v>
+        <v>3.419538281052482</v>
       </c>
       <c r="G104" t="n">
-        <v>3.4097091292157202</v>
+        <v>3.5178123996725255</v>
       </c>
       <c r="H104" t="n">
-        <v>3.3167049290841057</v>
+        <v>3.3247617202169932</v>
       </c>
       <c r="I104" t="n">
-        <v>3.6266721530192436</v>
+        <v>3.7161525063180867</v>
       </c>
       <c r="J104" t="n">
-        <v>3.445929568950228</v>
+        <v>3.66170338433974</v>
       </c>
       <c r="K104" t="n">
-        <v>3.269983671213592</v>
+        <v>3.219468675162771</v>
       </c>
       <c r="L104" t="n">
-        <v>3.5586013077903016</v>
+        <v>3.613174783456494</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>2.2779909134420415</v>
+        <v>2.2554365479624177</v>
       </c>
       <c r="C106" t="n">
-        <v>2.1063534639862485</v>
+        <v>2.101799889445924</v>
       </c>
       <c r="D106" t="n">
-        <v>2.047044739147925</v>
+        <v>2.05588399805609</v>
       </c>
       <c r="E106" t="n">
-        <v>2.201014286352065</v>
+        <v>2.2063909502532644</v>
       </c>
       <c r="F106" t="n">
-        <v>2.1063469663870062</v>
+        <v>2.09478219302516</v>
       </c>
       <c r="G106" t="n">
-        <v>2.123994616505734</v>
+        <v>2.0866538803486994</v>
       </c>
       <c r="H106" t="n">
-        <v>2.1585758430750155</v>
+        <v>2.146136602743786</v>
       </c>
       <c r="I106" t="n">
-        <v>2.243687337106353</v>
+        <v>2.2078144275663654</v>
       </c>
       <c r="J106" t="n">
-        <v>2.2779909134420415</v>
+        <v>2.346835162591734</v>
       </c>
       <c r="K106" t="n">
-        <v>2.1063534639862485</v>
+        <v>2.0936171308529996</v>
       </c>
       <c r="L106" t="n">
-        <v>2.047044739147925</v>
+        <v>2.020570906732839</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>2.2915557259031454</v>
+        <v>2.2461783847961527</v>
       </c>
       <c r="C107" t="n">
-        <v>2.1188962224086674</v>
+        <v>2.0931723772523725</v>
       </c>
       <c r="D107" t="n">
-        <v>2.0592343303452285</v>
+        <v>2.0474449623748994</v>
       </c>
       <c r="E107" t="n">
-        <v>2.2141207240654017</v>
+        <v>2.1973341104833897</v>
       </c>
       <c r="F107" t="n">
-        <v>2.118889686118</v>
+        <v>2.0861834872188125</v>
       </c>
       <c r="G107" t="n">
-        <v>2.1366424231634698</v>
+        <v>2.078088539810416</v>
       </c>
       <c r="H107" t="n">
-        <v>2.171429571472965</v>
+        <v>2.1373270962811697</v>
       </c>
       <c r="I107" t="n">
-        <v>2.257047881158398</v>
+        <v>2.1987517446770113</v>
       </c>
       <c r="J107" t="n">
-        <v>2.2915557259031454</v>
+        <v>2.33720182447844</v>
       </c>
       <c r="K107" t="n">
-        <v>2.1188962224086674</v>
+        <v>2.08502320741825</v>
       </c>
       <c r="L107" t="n">
-        <v>2.0592343303452285</v>
+        <v>2.012276824968295</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.0273942041902355</v>
+        <v>1.967174574362803</v>
       </c>
       <c r="C111" t="n">
-        <v>1.874638208459385</v>
+        <v>1.8331738512669822</v>
       </c>
       <c r="D111" t="n">
-        <v>1.8218539044107598</v>
+        <v>1.793126360601423</v>
       </c>
       <c r="E111" t="n">
-        <v>1.9588856044853658</v>
+        <v>1.9243973776888221</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8746324256465705</v>
+        <v>1.8270530699122614</v>
       </c>
       <c r="G111" t="n">
-        <v>1.890338697061949</v>
+        <v>1.8199636175204175</v>
       </c>
       <c r="H111" t="n">
-        <v>1.9211157198791355</v>
+        <v>1.8718439948314998</v>
       </c>
       <c r="I111" t="n">
-        <v>1.9968642879225331</v>
+        <v>1.9256389237567197</v>
       </c>
       <c r="J111" t="n">
-        <v>2.0273942041902355</v>
+        <v>2.046891749733223</v>
       </c>
       <c r="K111" t="n">
-        <v>1.874638208459385</v>
+        <v>1.8260369115615882</v>
       </c>
       <c r="L111" t="n">
-        <v>1.8218539044107598</v>
+        <v>1.7623265513777902</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3014844770514193</v>
+        <v>1.2884696322809053</v>
       </c>
       <c r="C116" t="n">
-        <v>1.273835342248801</v>
+        <v>1.245003186072774</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3029662985547927</v>
+        <v>1.2594182149019648</v>
       </c>
       <c r="E116" t="n">
-        <v>1.2407815404181661</v>
+        <v>1.2121438646288893</v>
       </c>
       <c r="F116" t="n">
-        <v>1.2926387622562592</v>
+        <v>1.2214570273414427</v>
       </c>
       <c r="G116" t="n">
-        <v>1.1898601923208227</v>
+        <v>1.1500864163697795</v>
       </c>
       <c r="H116" t="n">
-        <v>1.1602536691981178</v>
+        <v>1.1539393025336018</v>
       </c>
       <c r="I116" t="n">
-        <v>1.2839739828784587</v>
+        <v>1.2655880531812091</v>
       </c>
       <c r="J116" t="n">
-        <v>1.3014844770514193</v>
+        <v>1.1093426137012687</v>
       </c>
       <c r="K116" t="n">
-        <v>1.273835342248801</v>
+        <v>1.2382895679715031</v>
       </c>
       <c r="L116" t="n">
-        <v>1.3029662985547927</v>
+        <v>1.1782812374040303</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.3182824691662915</v>
+        <v>1.3315984537033247</v>
       </c>
       <c r="C117" t="n">
-        <v>1.290276472674896</v>
+        <v>1.2866770592764611</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3197834162346394</v>
+        <v>1.3015746009942737</v>
       </c>
       <c r="E117" t="n">
-        <v>1.2567960522312025</v>
+        <v>1.2527178408919661</v>
       </c>
       <c r="F117" t="n">
-        <v>1.3093225845519751</v>
+        <v>1.2623427422139863</v>
       </c>
       <c r="G117" t="n">
-        <v>1.2052174727808154</v>
+        <v>1.1885831495711319</v>
       </c>
       <c r="H117" t="n">
-        <v>1.1752288243613949</v>
+        <v>1.1925650030269703</v>
       </c>
       <c r="I117" t="n">
-        <v>1.3005459706511882</v>
+        <v>1.3079509616832699</v>
       </c>
       <c r="J117" t="n">
-        <v>1.3182824691662915</v>
+        <v>1.146475533472071</v>
       </c>
       <c r="K117" t="n">
-        <v>1.290276472674896</v>
+        <v>1.2797387168751884</v>
       </c>
       <c r="L117" t="n">
-        <v>1.3197834162346394</v>
+        <v>1.21772173316754</v>
       </c>
     </row>
     <row r="118">
@@ -4780,34 +4780,34 @@
         <v>1.5843027693723735</v>
       </c>
       <c r="C124" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.530856409926236</v>
       </c>
       <c r="D124" t="n">
-        <v>1.586106597195836</v>
+        <v>1.5485811350749703</v>
       </c>
       <c r="E124" t="n">
-        <v>1.5104088180322999</v>
+        <v>1.4904525752847584</v>
       </c>
       <c r="F124" t="n">
-        <v>1.573534841906346</v>
+        <v>1.501904043838964</v>
       </c>
       <c r="G124" t="n">
-        <v>1.4484220373727497</v>
+        <v>1.414146712365006</v>
       </c>
       <c r="H124" t="n">
-        <v>1.412381886758694</v>
+        <v>1.418884222715649</v>
       </c>
       <c r="I124" t="n">
-        <v>1.5629871679184466</v>
+        <v>1.556167570662965</v>
       </c>
       <c r="J124" t="n">
-        <v>1.5843027693723735</v>
+        <v>1.3640481164918437</v>
       </c>
       <c r="K124" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.522601342454042</v>
       </c>
       <c r="L124" t="n">
-        <v>1.586106597195836</v>
+        <v>1.4488150754582414</v>
       </c>
     </row>
     <row r="125">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>3.94737405090912</v>
+        <v>3.9868477914182114</v>
       </c>
       <c r="C126" t="n">
-        <v>3.742880900329023</v>
+        <v>3.780631528627743</v>
       </c>
       <c r="D126" t="n">
-        <v>4.1130501873457925</v>
+        <v>4.211632892580263</v>
       </c>
       <c r="E126" t="n">
-        <v>4.098145931220005</v>
+        <v>4.149923984588399</v>
       </c>
       <c r="F126" t="n">
-        <v>4.10679734731228</v>
+        <v>4.094924989966059</v>
       </c>
       <c r="G126" t="n">
-        <v>4.059827174533412</v>
+        <v>4.017479602769275</v>
       </c>
       <c r="H126" t="n">
-        <v>3.619867361637673</v>
+        <v>3.712493439087096</v>
       </c>
       <c r="I126" t="n">
-        <v>4.142555072857136</v>
+        <v>4.237889954870404</v>
       </c>
       <c r="J126" t="n">
-        <v>3.94737405090912</v>
+        <v>3.9842772912389335</v>
       </c>
       <c r="K126" t="n">
-        <v>3.742880900329023</v>
+        <v>3.795407866990506</v>
       </c>
       <c r="L126" t="n">
-        <v>4.1130501873457925</v>
+        <v>3.782735385496303</v>
       </c>
     </row>
     <row r="127">
@@ -4894,34 +4894,34 @@
         <v>1.5843027693723735</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.530856409926236</v>
       </c>
       <c r="D127" t="n">
-        <v>1.586106597195836</v>
+        <v>1.5485811350749703</v>
       </c>
       <c r="E127" t="n">
-        <v>1.5104088180322999</v>
+        <v>1.4904525752847584</v>
       </c>
       <c r="F127" t="n">
-        <v>1.573534841906346</v>
+        <v>1.501904043838964</v>
       </c>
       <c r="G127" t="n">
-        <v>1.4484220373727497</v>
+        <v>1.414146712365006</v>
       </c>
       <c r="H127" t="n">
-        <v>1.412381886758694</v>
+        <v>1.418884222715649</v>
       </c>
       <c r="I127" t="n">
-        <v>1.5629871679184466</v>
+        <v>1.556167570662965</v>
       </c>
       <c r="J127" t="n">
-        <v>1.5843027693723735</v>
+        <v>1.3640481164918437</v>
       </c>
       <c r="K127" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.522601342454042</v>
       </c>
       <c r="L127" t="n">
-        <v>1.586106597195836</v>
+        <v>1.4488150754582414</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>2.6485147868276693</v>
+        <v>2.622291868146207</v>
       </c>
       <c r="C128" t="n">
-        <v>2.745305591867009</v>
+        <v>2.6827811437891254</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7327601421986047</v>
+        <v>2.6827811437891254</v>
       </c>
       <c r="E128" t="n">
-        <v>2.65724196147634</v>
+        <v>2.666159204014041</v>
       </c>
       <c r="F128" t="n">
-        <v>2.3329348505983716</v>
+        <v>2.309812642437714</v>
       </c>
       <c r="G128" t="n">
-        <v>2.691497384693886</v>
+        <v>2.6351383686620813</v>
       </c>
       <c r="H128" t="n">
-        <v>2.6163811362669076</v>
+        <v>2.5432511553255823</v>
       </c>
       <c r="I128" t="n">
-        <v>2.3943964149353287</v>
+        <v>2.3853552959517166</v>
       </c>
       <c r="J128" t="n">
-        <v>2.6485147868276693</v>
+        <v>2.5782989527070774</v>
       </c>
       <c r="K128" t="n">
-        <v>2.745305591867009</v>
+        <v>2.4533528820482835</v>
       </c>
       <c r="L128" t="n">
-        <v>2.7327601421986047</v>
+        <v>2.3853552959517166</v>
       </c>
     </row>
     <row r="129">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3184687908234762</v>
+        <v>1.3317866573974508</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3666526470427214</v>
+        <v>1.3625074216248991</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3604073415843931</v>
+        <v>1.3625074216248991</v>
       </c>
       <c r="E130" t="n">
-        <v>1.3228133040063235</v>
+        <v>1.3540656162402949</v>
       </c>
       <c r="F130" t="n">
-        <v>1.1613685552507818</v>
+        <v>1.1730874414300638</v>
       </c>
       <c r="G130" t="n">
-        <v>1.3398661468499466</v>
+        <v>1.338311025714005</v>
       </c>
       <c r="H130" t="n">
-        <v>1.3024721969549793</v>
+        <v>1.2916441515214334</v>
       </c>
       <c r="I130" t="n">
-        <v>1.1919650068229966</v>
+        <v>1.2114533835421712</v>
       </c>
       <c r="J130" t="n">
-        <v>1.3184687908234762</v>
+        <v>1.3094439203003534</v>
       </c>
       <c r="K130" t="n">
-        <v>1.3666526470427214</v>
+        <v>1.2459874028093174</v>
       </c>
       <c r="L130" t="n">
-        <v>1.3604073415843931</v>
+        <v>1.2114533835421712</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>3.46024860023462</v>
+        <v>3.4263245943499667</v>
       </c>
       <c r="C131" t="n">
-        <v>3.5867044725290382</v>
+        <v>3.505360759373146</v>
       </c>
       <c r="D131" t="n">
-        <v>3.570314012913592</v>
+        <v>3.505360759373146</v>
       </c>
       <c r="E131" t="n">
-        <v>3.471650535391734</v>
+        <v>3.4836422917422203</v>
       </c>
       <c r="F131" t="n">
-        <v>3.0479476993559382</v>
+        <v>3.0180347051602756</v>
       </c>
       <c r="G131" t="n">
-        <v>3.516404780611914</v>
+        <v>3.4431100182776193</v>
       </c>
       <c r="H131" t="n">
-        <v>3.4182664221753143</v>
+        <v>3.3230488523999635</v>
       </c>
       <c r="I131" t="n">
-        <v>3.1282463984694595</v>
+        <v>3.1167398320767785</v>
       </c>
       <c r="J131" t="n">
-        <v>3.46024860023462</v>
+        <v>3.3688428128681798</v>
       </c>
       <c r="K131" t="n">
-        <v>3.5867044725290382</v>
+        <v>3.205586464455576</v>
       </c>
       <c r="L131" t="n">
-        <v>3.570314012913592</v>
+        <v>3.1167398320767785</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.6485147868276693</v>
+        <v>2.622291868146207</v>
       </c>
       <c r="C132" t="n">
-        <v>2.745305591867009</v>
+        <v>2.6827811437891254</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7327601421986047</v>
+        <v>2.6827811437891254</v>
       </c>
       <c r="E132" t="n">
-        <v>2.65724196147634</v>
+        <v>2.666159204014041</v>
       </c>
       <c r="F132" t="n">
-        <v>2.3329348505983716</v>
+        <v>2.309812642437714</v>
       </c>
       <c r="G132" t="n">
-        <v>2.691497384693886</v>
+        <v>2.6351383686620813</v>
       </c>
       <c r="H132" t="n">
-        <v>2.6163811362669076</v>
+        <v>2.5432511553255823</v>
       </c>
       <c r="I132" t="n">
-        <v>2.3943964149353287</v>
+        <v>2.3853552959517166</v>
       </c>
       <c r="J132" t="n">
-        <v>2.6485147868276693</v>
+        <v>2.5782989527070774</v>
       </c>
       <c r="K132" t="n">
-        <v>2.745305591867009</v>
+        <v>2.4533528820482835</v>
       </c>
       <c r="L132" t="n">
-        <v>2.7327601421986047</v>
+        <v>2.3853552959517166</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>3.475644131305734</v>
+        <v>3.5458591642614055</v>
       </c>
       <c r="C133" t="n">
-        <v>3.2981810361787045</v>
+        <v>3.366494335655816</v>
       </c>
       <c r="D133" t="n">
-        <v>3.5892874487409228</v>
+        <v>3.7528475933645504</v>
       </c>
       <c r="E133" t="n">
-        <v>3.1948578637343146</v>
+        <v>3.303981605947388</v>
       </c>
       <c r="F133" t="n">
-        <v>3.342938576166818</v>
+        <v>3.4490252689453684</v>
       </c>
       <c r="G133" t="n">
-        <v>3.439111359443276</v>
+        <v>3.548146814179113</v>
       </c>
       <c r="H133" t="n">
-        <v>3.345305175681748</v>
+        <v>3.353431441253307</v>
       </c>
       <c r="I133" t="n">
-        <v>3.6579452750252446</v>
+        <v>3.7481972255040334</v>
       </c>
       <c r="J133" t="n">
-        <v>3.475644131305734</v>
+        <v>3.6932785838219737</v>
       </c>
       <c r="K133" t="n">
-        <v>3.2981810361787045</v>
+        <v>3.247230444747884</v>
       </c>
       <c r="L133" t="n">
-        <v>3.5892874487409228</v>
+        <v>3.644331516423926</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8233622512682586</v>
+        <v>1.7692029764781123</v>
       </c>
       <c r="C138" t="n">
-        <v>1.8899975976353398</v>
+        <v>1.810013767913053</v>
       </c>
       <c r="D138" t="n">
-        <v>1.88136071953886</v>
+        <v>1.810013767913053</v>
       </c>
       <c r="E138" t="n">
-        <v>1.8293704491056857</v>
+        <v>1.7987993086523804</v>
       </c>
       <c r="F138" t="n">
-        <v>1.6061021680548413</v>
+        <v>1.5583800765078417</v>
       </c>
       <c r="G138" t="n">
-        <v>1.852953494934516</v>
+        <v>1.7778702294357625</v>
       </c>
       <c r="H138" t="n">
-        <v>1.8012399336133451</v>
+        <v>1.715875936081172</v>
       </c>
       <c r="I138" t="n">
-        <v>1.6484152020893366</v>
+        <v>1.6093470527897422</v>
       </c>
       <c r="J138" t="n">
-        <v>1.8233622512682586</v>
+        <v>1.7395219185133937</v>
       </c>
       <c r="K138" t="n">
-        <v>1.8899975976353398</v>
+        <v>1.6552235370883486</v>
       </c>
       <c r="L138" t="n">
-        <v>1.88136071953886</v>
+        <v>1.6093470527897422</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.0248370109637324</v>
+        <v>2.0450853810733696</v>
       </c>
       <c r="C153" t="n">
-        <v>2.22185999878724</v>
+        <v>2.242956471227939</v>
       </c>
       <c r="D153" t="n">
-        <v>2.054540680368396</v>
+        <v>2.0303480685718904</v>
       </c>
       <c r="E153" t="n">
-        <v>2.0419118326533523</v>
+        <v>2.088225722199851</v>
       </c>
       <c r="F153" t="n">
-        <v>2.0192005626607576</v>
+        <v>2.0303480685718904</v>
       </c>
       <c r="G153" t="n">
-        <v>2.1937213915651457</v>
+        <v>2.2693605432960418</v>
       </c>
       <c r="H153" t="n">
-        <v>1.9804792479920417</v>
+        <v>2.037123424248044</v>
       </c>
       <c r="I153" t="n">
-        <v>2.205231622790256</v>
+        <v>2.236109838750226</v>
       </c>
       <c r="J153" t="n">
-        <v>2.0248370109637324</v>
+        <v>2.2721761265483478</v>
       </c>
       <c r="K153" t="n">
-        <v>2.22185999878724</v>
+        <v>2.283508676018884</v>
       </c>
       <c r="L153" t="n">
-        <v>2.054540680368396</v>
+        <v>2.232021887371782</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.4991778048267443</v>
+        <v>2.5241695828750115</v>
       </c>
       <c r="C154" t="n">
-        <v>2.7423556386686894</v>
+        <v>2.768394196537029</v>
       </c>
       <c r="D154" t="n">
-        <v>2.535839892143448</v>
+        <v>2.5059798895283047</v>
       </c>
       <c r="E154" t="n">
-        <v>2.5202525951219696</v>
+        <v>2.577416033059484</v>
       </c>
       <c r="F154" t="n">
-        <v>2.4922209552528893</v>
+        <v>2.5059798895283047</v>
       </c>
       <c r="G154" t="n">
-        <v>2.707625246914972</v>
+        <v>2.800983718810844</v>
       </c>
       <c r="H154" t="n">
-        <v>2.444428738067118</v>
+        <v>2.5143424483090686</v>
       </c>
       <c r="I154" t="n">
-        <v>2.721831878979905</v>
+        <v>2.7599436635640258</v>
       </c>
       <c r="J154" t="n">
-        <v>2.4991778048267443</v>
+        <v>2.804458884038319</v>
       </c>
       <c r="K154" t="n">
-        <v>2.7423556386686894</v>
+        <v>2.818446210403607</v>
       </c>
       <c r="L154" t="n">
-        <v>2.535839892143448</v>
+        <v>2.7548980636975178</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>3.7618598322959143</v>
+        <v>3.724978853547915</v>
       </c>
       <c r="C156" t="n">
-        <v>4.127900585165901</v>
+        <v>4.085387095362931</v>
       </c>
       <c r="D156" t="n">
-        <v>3.817045034956753</v>
+        <v>3.6981358777317537</v>
       </c>
       <c r="E156" t="n">
-        <v>3.793582427996209</v>
+        <v>3.8035559437360242</v>
       </c>
       <c r="F156" t="n">
-        <v>3.7513881111880103</v>
+        <v>3.6981358777317537</v>
       </c>
       <c r="G156" t="n">
-        <v>4.0756230459504525</v>
+        <v>4.133480251282717</v>
       </c>
       <c r="H156" t="n">
-        <v>3.6794494032736367</v>
+        <v>3.710476710467887</v>
       </c>
       <c r="I156" t="n">
-        <v>4.0970074222097415</v>
+        <v>4.072916436957407</v>
       </c>
       <c r="J156" t="n">
-        <v>3.7618598322959143</v>
+        <v>4.138608637692549</v>
       </c>
       <c r="K156" t="n">
-        <v>4.127900585165901</v>
+        <v>4.159250077666257</v>
       </c>
       <c r="L156" t="n">
-        <v>3.817045034956753</v>
+        <v>4.06547052170127</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.769789947891904</v>
+        <v>1.8055432801725484</v>
       </c>
       <c r="C157" t="n">
-        <v>1.9419960570580495</v>
+        <v>1.9802376085733937</v>
       </c>
       <c r="D157" t="n">
-        <v>1.7957521637360607</v>
+        <v>1.7925321580936828</v>
       </c>
       <c r="E157" t="n">
-        <v>1.7847140369048526</v>
+        <v>1.8436305667700341</v>
       </c>
       <c r="F157" t="n">
-        <v>1.7648634627010442</v>
+        <v>1.7925321580936828</v>
       </c>
       <c r="G157" t="n">
-        <v>1.9174017692513292</v>
+        <v>2.00354895553864</v>
       </c>
       <c r="H157" t="n">
-        <v>1.731019457924958</v>
+        <v>1.7985139122175315</v>
       </c>
       <c r="I157" t="n">
-        <v>1.9274621797484766</v>
+        <v>1.974192926343326</v>
       </c>
       <c r="J157" t="n">
-        <v>1.769789947891904</v>
+        <v>2.0060347478033616</v>
       </c>
       <c r="K157" t="n">
-        <v>1.9419960570580495</v>
+        <v>2.0160399088265217</v>
       </c>
       <c r="L157" t="n">
-        <v>1.7957521637360607</v>
+        <v>1.9705837992089135</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>2.8839795947473825</v>
+        <v>2.8551397987999088</v>
       </c>
       <c r="C159" t="n">
-        <v>2.895244294564797</v>
+        <v>2.8440610961562998</v>
       </c>
       <c r="D159" t="n">
-        <v>3.0717987173161685</v>
+        <v>3.0072599598923464</v>
       </c>
       <c r="E159" t="n">
-        <v>3.1645943630622035</v>
+        <v>3.074107978002099</v>
       </c>
       <c r="F159" t="n">
-        <v>2.965049027437169</v>
+        <v>2.8440610961562998</v>
       </c>
       <c r="G159" t="n">
-        <v>3.195098635722942</v>
+        <v>3.1322870681947186</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2257562719789474</v>
+        <v>3.178863828446992</v>
       </c>
       <c r="I159" t="n">
-        <v>3.2128185585849933</v>
+        <v>3.182807827466089</v>
       </c>
       <c r="J159" t="n">
-        <v>2.8839795947473825</v>
+        <v>2.9251346744102364</v>
       </c>
       <c r="K159" t="n">
-        <v>2.895244294564797</v>
+        <v>3.1265607675380087</v>
       </c>
       <c r="L159" t="n">
-        <v>3.0717987173161685</v>
+        <v>3.1986821810157684</v>
       </c>
     </row>
     <row r="160">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7615104104053827</v>
+        <v>0.769361033193067</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7644848371997596</v>
+        <v>0.7663757075302368</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8111037630663482</v>
+        <v>0.810352134349223</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8356063116990078</v>
+        <v>0.8283653539826173</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7829166703773222</v>
+        <v>0.7663757075302368</v>
       </c>
       <c r="G163" t="n">
-        <v>0.8436609183388413</v>
+        <v>0.8440425985643504</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8517560204019384</v>
+        <v>0.8565934181093469</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8483398369260632</v>
+        <v>0.857656188892592</v>
       </c>
       <c r="J163" t="n">
-        <v>0.7615104104053827</v>
+        <v>0.788222221650605</v>
       </c>
       <c r="K163" t="n">
-        <v>0.7644848371997596</v>
+        <v>0.8424995593788533</v>
       </c>
       <c r="L163" t="n">
-        <v>0.8111037630663482</v>
+        <v>0.8619337759492351</v>
       </c>
     </row>
     <row r="164">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>3.6789812475588066</v>
+        <v>3.6425556906522836</v>
       </c>
       <c r="C165" t="n">
-        <v>3.693351189517871</v>
+        <v>3.6284216046868663</v>
       </c>
       <c r="D165" t="n">
-        <v>3.9185748393865736</v>
+        <v>3.8366289050998237</v>
       </c>
       <c r="E165" t="n">
-        <v>4.036950656322503</v>
+        <v>3.9219128652326534</v>
       </c>
       <c r="F165" t="n">
-        <v>3.782398387943283</v>
+        <v>3.6284216046868663</v>
       </c>
       <c r="G165" t="n">
-        <v>4.0758637773770605</v>
+        <v>3.9961371032707254</v>
       </c>
       <c r="H165" t="n">
-        <v>4.114972538439637</v>
+        <v>4.055559217445443</v>
       </c>
       <c r="I165" t="n">
-        <v>4.098468397755238</v>
+        <v>4.06059092765346</v>
       </c>
       <c r="J165" t="n">
-        <v>3.6789812475588066</v>
+        <v>3.7318543766844225</v>
       </c>
       <c r="K165" t="n">
-        <v>3.693351189517871</v>
+        <v>3.9888315523998883</v>
       </c>
       <c r="L165" t="n">
-        <v>3.9185748393865736</v>
+        <v>4.0808432518591315</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>2.699933407800088</v>
+        <v>2.726932741878089</v>
       </c>
       <c r="C167" t="n">
-        <v>2.398709972672558</v>
+        <v>2.432048697776903</v>
       </c>
       <c r="D167" t="n">
-        <v>2.4343704867365306</v>
+        <v>2.486365810983436</v>
       </c>
       <c r="E167" t="n">
-        <v>2.474478494993249</v>
+        <v>2.4684485395146893</v>
       </c>
       <c r="F167" t="n">
-        <v>2.723489044619651</v>
+        <v>2.7762351409296553</v>
       </c>
       <c r="G167" t="n">
-        <v>2.675685682210763</v>
+        <v>2.6825790140089754</v>
       </c>
       <c r="H167" t="n">
-        <v>2.6854390934870493</v>
+        <v>2.7624572987839984</v>
       </c>
       <c r="I167" t="n">
-        <v>2.5017192147351306</v>
+        <v>2.5388148041862277</v>
       </c>
       <c r="J167" t="n">
-        <v>2.699933407800088</v>
+        <v>2.7136387367920953</v>
       </c>
       <c r="K167" t="n">
-        <v>2.398709972672558</v>
+        <v>2.7186087701405284</v>
       </c>
       <c r="L167" t="n">
-        <v>2.4343704867365306</v>
+        <v>2.7762351409296553</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9483885542794698</v>
+        <v>0.9294207831938803</v>
       </c>
       <c r="C168" t="n">
-        <v>1.0355339691704968</v>
+        <v>1.0196341840460887</v>
       </c>
       <c r="D168" t="n">
-        <v>1.0470706025771734</v>
+        <v>1.0057739091356976</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9784658047688671</v>
+        <v>0.9470058175961934</v>
       </c>
       <c r="F168" t="n">
-        <v>1.075400573924672</v>
+        <v>1.0421123421542036</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9406275884464008</v>
+        <v>0.913456496772231</v>
       </c>
       <c r="H168" t="n">
-        <v>0.9666061142675295</v>
+        <v>0.9433311828692614</v>
       </c>
       <c r="I168" t="n">
-        <v>1.0226835007347437</v>
+        <v>0.9974617278772804</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9483885542794698</v>
+        <v>0.9501783666844547</v>
       </c>
       <c r="K168" t="n">
-        <v>1.0355339691704968</v>
+        <v>0.9981052512474958</v>
       </c>
       <c r="L168" t="n">
-        <v>1.0470706025771734</v>
+        <v>1.0543800832977643</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9458875457775777</v>
+        <v>0.9554419654318966</v>
       </c>
       <c r="C171" t="n">
-        <v>1.0673584140964218</v>
+        <v>1.0745743802592826</v>
       </c>
       <c r="D171" t="n">
-        <v>1.034541788302032</v>
+        <v>1.0327245685480113</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9496502734547745</v>
+        <v>0.9586303148799189</v>
       </c>
       <c r="F171" t="n">
-        <v>1.0007997172616006</v>
+        <v>1.0109192405356653</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9640299631410472</v>
+        <v>0.9826780536636949</v>
       </c>
       <c r="H171" t="n">
-        <v>1.0337580931723942</v>
+        <v>1.052269417410717</v>
       </c>
       <c r="I171" t="n">
-        <v>1.0766919658727947</v>
+        <v>1.0745743802592826</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9458875457775777</v>
+        <v>1.0679165465877327</v>
       </c>
       <c r="K171" t="n">
-        <v>1.0673584140964218</v>
+        <v>1.0554913083230948</v>
       </c>
       <c r="L171" t="n">
-        <v>1.034541788302032</v>
+        <v>0.9554419654318966</v>
       </c>
     </row>
     <row r="172">
@@ -6718,34 +6718,34 @@
         <v>0.9517996773158164</v>
       </c>
       <c r="C175" t="n">
-        <v>1.0740297815023605</v>
+        <v>1.0704779415045818</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0410080401958746</v>
+        <v>1.0287876675542327</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9555859233711432</v>
+        <v>0.9549758722973983</v>
       </c>
       <c r="F175" t="n">
-        <v>1.0070550692834084</v>
+        <v>1.0070654647236978</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9700554912012648</v>
+        <v>0.978931937493076</v>
       </c>
       <c r="H175" t="n">
-        <v>1.0402194466946353</v>
+        <v>1.0482580085207827</v>
       </c>
       <c r="I175" t="n">
-        <v>1.0834216712768043</v>
+        <v>1.0704779415045818</v>
       </c>
       <c r="J175" t="n">
+        <v>1.0638454884938549</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.051467617101626</v>
+      </c>
+      <c r="L175" t="n">
         <v>0.9517996773158164</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1.0740297815023605</v>
-      </c>
-      <c r="L175" t="n">
-        <v>1.0410080401958746</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.1996082934695502</v>
+        <v>1.1876122105348548</v>
       </c>
       <c r="C176" t="n">
-        <v>1.3536619774415117</v>
+        <v>1.3356935337741487</v>
       </c>
       <c r="D176" t="n">
-        <v>1.3120427631465665</v>
+        <v>1.2836743120996819</v>
       </c>
       <c r="E176" t="n">
-        <v>1.2043803187993922</v>
+        <v>1.1915753217157745</v>
       </c>
       <c r="F176" t="n">
-        <v>1.2692498662111644</v>
+        <v>1.2565703385051434</v>
       </c>
       <c r="G176" t="n">
-        <v>1.2226171536981865</v>
+        <v>1.221466606847316</v>
       </c>
       <c r="H176" t="n">
-        <v>1.31104885305518</v>
+        <v>1.3079685152038074</v>
       </c>
       <c r="I176" t="n">
-        <v>1.365499120417382</v>
+        <v>1.3356935337741487</v>
       </c>
       <c r="J176" t="n">
-        <v>1.1996082934695502</v>
+        <v>1.327417861519719</v>
       </c>
       <c r="K176" t="n">
-        <v>1.3536619774415117</v>
+        <v>1.3119733183493565</v>
       </c>
       <c r="L176" t="n">
-        <v>1.3120427631465665</v>
+        <v>1.1876122105348548</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>2.7836522041237584</v>
+        <v>2.8680053012184175</v>
       </c>
       <c r="C177" t="n">
-        <v>2.839449827086103</v>
+        <v>2.901211946439741</v>
       </c>
       <c r="D177" t="n">
-        <v>2.914284697993823</v>
+        <v>2.9681351639726468</v>
       </c>
       <c r="E177" t="n">
-        <v>2.4787507658837544</v>
+        <v>2.555495867443314</v>
       </c>
       <c r="F177" t="n">
-        <v>2.8536523435290158</v>
+        <v>2.906525520398271</v>
       </c>
       <c r="G177" t="n">
-        <v>2.869861153934317</v>
+        <v>2.9681351639726468</v>
       </c>
       <c r="H177" t="n">
-        <v>2.618789895382763</v>
+        <v>2.649353813633547</v>
       </c>
       <c r="I177" t="n">
-        <v>2.486212015091863</v>
+        <v>2.600157729416342</v>
       </c>
       <c r="J177" t="n">
-        <v>2.7836522041237584</v>
+        <v>2.813764068087275</v>
       </c>
       <c r="K177" t="n">
-        <v>2.839449827086103</v>
+        <v>2.6390736154060224</v>
       </c>
       <c r="L177" t="n">
-        <v>2.914284697993823</v>
+        <v>2.8525397244872144</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>4.740931769468737</v>
+        <v>4.694452046238652</v>
       </c>
       <c r="C178" t="n">
-        <v>5.400291822060831</v>
+        <v>5.425412012993075</v>
       </c>
       <c r="D178" t="n">
-        <v>4.8090895168574015</v>
+        <v>4.866869318816483</v>
       </c>
       <c r="E178" t="n">
-        <v>5.338086729556359</v>
+        <v>5.268532626663209</v>
       </c>
       <c r="F178" t="n">
-        <v>4.77807346196895</v>
+        <v>4.883173740112742</v>
       </c>
       <c r="G178" t="n">
-        <v>4.85801002080439</v>
+        <v>4.84798456998172</v>
       </c>
       <c r="H178" t="n">
-        <v>5.314444620531076</v>
+        <v>5.3556424792238415</v>
       </c>
       <c r="I178" t="n">
-        <v>5.247185733922512</v>
+        <v>5.240122325063037</v>
       </c>
       <c r="J178" t="n">
-        <v>4.740931769468737</v>
+        <v>4.776495993951182</v>
       </c>
       <c r="K178" t="n">
-        <v>5.400291822060831</v>
+        <v>5.168891351125655</v>
       </c>
       <c r="L178" t="n">
-        <v>4.8090895168574015</v>
+        <v>5.129480446673847</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>4.740931769468737</v>
+        <v>4.694452046238652</v>
       </c>
       <c r="C179" t="n">
-        <v>5.400291822060831</v>
+        <v>5.425412012993075</v>
       </c>
       <c r="D179" t="n">
-        <v>4.8090895168574015</v>
+        <v>4.866869318816483</v>
       </c>
       <c r="E179" t="n">
-        <v>5.338086729556359</v>
+        <v>5.268532626663209</v>
       </c>
       <c r="F179" t="n">
-        <v>4.77807346196895</v>
+        <v>4.883173740112742</v>
       </c>
       <c r="G179" t="n">
-        <v>4.85801002080439</v>
+        <v>4.84798456998172</v>
       </c>
       <c r="H179" t="n">
-        <v>5.314444620531076</v>
+        <v>5.3556424792238415</v>
       </c>
       <c r="I179" t="n">
-        <v>5.247185733922512</v>
+        <v>5.240122325063037</v>
       </c>
       <c r="J179" t="n">
-        <v>4.740931769468737</v>
+        <v>4.776495993951182</v>
       </c>
       <c r="K179" t="n">
-        <v>5.400291822060831</v>
+        <v>5.168891351125655</v>
       </c>
       <c r="L179" t="n">
-        <v>4.8090895168574015</v>
+        <v>5.129480446673847</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>4.740931769468737</v>
+        <v>4.694452046238652</v>
       </c>
       <c r="C184" t="n">
-        <v>5.400291822060831</v>
+        <v>5.425412012993075</v>
       </c>
       <c r="D184" t="n">
-        <v>4.8090895168574015</v>
+        <v>4.866869318816483</v>
       </c>
       <c r="E184" t="n">
-        <v>5.338086729556359</v>
+        <v>5.268532626663209</v>
       </c>
       <c r="F184" t="n">
-        <v>4.77807346196895</v>
+        <v>4.883173740112742</v>
       </c>
       <c r="G184" t="n">
-        <v>4.85801002080439</v>
+        <v>4.84798456998172</v>
       </c>
       <c r="H184" t="n">
-        <v>5.314444620531076</v>
+        <v>5.3556424792238415</v>
       </c>
       <c r="I184" t="n">
-        <v>5.247185733922512</v>
+        <v>5.240122325063037</v>
       </c>
       <c r="J184" t="n">
-        <v>4.740931769468737</v>
+        <v>4.776495993951182</v>
       </c>
       <c r="K184" t="n">
-        <v>5.400291822060831</v>
+        <v>5.168891351125655</v>
       </c>
       <c r="L184" t="n">
-        <v>4.8090895168574015</v>
+        <v>5.129480446673847</v>
       </c>
     </row>
     <row r="185">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7514221922197182</v>
+        <v>0.7591688127580658</v>
       </c>
       <c r="C185" t="n">
-        <v>0.8559286057841514</v>
+        <v>0.8773768601869989</v>
       </c>
       <c r="D185" t="n">
-        <v>0.762224972443085</v>
+        <v>0.7870514740000253</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8460693019068085</v>
+        <v>0.8520069264240833</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7573090291029219</v>
+        <v>0.7896881625924896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.7699787124477547</v>
+        <v>0.7839975047165157</v>
       </c>
       <c r="H185" t="n">
-        <v>0.8423221048880954</v>
+        <v>0.8660939982903242</v>
       </c>
       <c r="I185" t="n">
-        <v>0.8316617911609211</v>
+        <v>0.8474125212148146</v>
       </c>
       <c r="J185" t="n">
-        <v>0.7514221922197182</v>
+        <v>0.7724366458864949</v>
       </c>
       <c r="K185" t="n">
-        <v>0.8559286057841514</v>
+        <v>0.8358933208090994</v>
       </c>
       <c r="L185" t="n">
-        <v>0.762224972443085</v>
+        <v>0.8295199402211832</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>4.740931769468737</v>
+        <v>4.694452046238652</v>
       </c>
       <c r="C187" t="n">
-        <v>5.400291822060831</v>
+        <v>5.425412012993075</v>
       </c>
       <c r="D187" t="n">
-        <v>4.8090895168574015</v>
+        <v>4.866869318816483</v>
       </c>
       <c r="E187" t="n">
-        <v>5.338086729556359</v>
+        <v>5.268532626663209</v>
       </c>
       <c r="F187" t="n">
-        <v>4.77807346196895</v>
+        <v>4.883173740112742</v>
       </c>
       <c r="G187" t="n">
-        <v>4.85801002080439</v>
+        <v>4.84798456998172</v>
       </c>
       <c r="H187" t="n">
-        <v>5.314444620531076</v>
+        <v>5.3556424792238415</v>
       </c>
       <c r="I187" t="n">
-        <v>5.247185733922512</v>
+        <v>5.240122325063037</v>
       </c>
       <c r="J187" t="n">
-        <v>4.740931769468737</v>
+        <v>4.776495993951182</v>
       </c>
       <c r="K187" t="n">
-        <v>5.400291822060831</v>
+        <v>5.168891351125655</v>
       </c>
       <c r="L187" t="n">
-        <v>4.8090895168574015</v>
+        <v>5.129480446673847</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1291612441023444</v>
       </c>
       <c r="C200" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.238762274962587</v>
       </c>
       <c r="D200" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2219233086467747</v>
       </c>
       <c r="E200" t="n">
-        <v>1.1767389195231281</v>
+        <v>1.1505254525237052</v>
       </c>
       <c r="F200" t="n">
-        <v>1.293316233686468</v>
+        <v>1.2660711811474332</v>
       </c>
       <c r="G200" t="n">
-        <v>1.1312332906345446</v>
+        <v>1.1097660962392526</v>
       </c>
       <c r="H200" t="n">
-        <v>1.1624760200754367</v>
+        <v>1.1460611074230656</v>
       </c>
       <c r="I200" t="n">
-        <v>1.229916744973021</v>
+        <v>1.2118247686736257</v>
       </c>
       <c r="J200" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1543798094955458</v>
       </c>
       <c r="K200" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.2126065907099528</v>
       </c>
       <c r="L200" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2809753645942317</v>
       </c>
     </row>
     <row r="201">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1291612441023444</v>
       </c>
       <c r="C205" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.238762274962587</v>
       </c>
       <c r="D205" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2219233086467747</v>
       </c>
       <c r="E205" t="n">
-        <v>1.1767389195231281</v>
+        <v>1.1505254525237052</v>
       </c>
       <c r="F205" t="n">
-        <v>1.293316233686468</v>
+        <v>1.2660711811474332</v>
       </c>
       <c r="G205" t="n">
-        <v>1.1312332906345446</v>
+        <v>1.1097660962392526</v>
       </c>
       <c r="H205" t="n">
-        <v>1.1624760200754367</v>
+        <v>1.1460611074230656</v>
       </c>
       <c r="I205" t="n">
-        <v>1.229916744973021</v>
+        <v>1.2118247686736257</v>
       </c>
       <c r="J205" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1543798094955458</v>
       </c>
       <c r="K205" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.2126065907099528</v>
       </c>
       <c r="L205" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2809753645942317</v>
       </c>
     </row>
     <row r="206">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.142945992793261</v>
+        <v>1.1546087070054372</v>
       </c>
       <c r="C213" t="n">
-        <v>1.2569958401912051</v>
+        <v>1.2862369611165767</v>
       </c>
       <c r="D213" t="n">
-        <v>1.2334411248104598</v>
+        <v>1.2673909979679105</v>
       </c>
       <c r="E213" t="n">
-        <v>1.1354335157865931</v>
+        <v>1.150768544664938</v>
       </c>
       <c r="F213" t="n">
-        <v>1.2570781346478441</v>
+        <v>1.2650740130473186</v>
       </c>
       <c r="G213" t="n">
-        <v>1.1956579831520069</v>
+        <v>1.2168023296515955</v>
       </c>
       <c r="H213" t="n">
-        <v>1.2439460893374301</v>
+        <v>1.2438504815418132</v>
       </c>
       <c r="I213" t="n">
-        <v>1.2469165013853294</v>
+        <v>1.2269423493005227</v>
       </c>
       <c r="J213" t="n">
-        <v>1.142945992793261</v>
+        <v>1.2942558945966096</v>
       </c>
       <c r="K213" t="n">
-        <v>1.2569958401912051</v>
+        <v>1.2878327883009855</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2334411248104598</v>
+        <v>1.271271558850151</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7458018237005086</v>
+        <v>0.7308857872264984</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8202222991372138</v>
+        <v>0.8142085783535332</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8048522380857953</v>
+        <v>0.8022787821131437</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7408997381361782</v>
+        <v>0.7284549030158703</v>
       </c>
       <c r="F214" t="n">
-        <v>0.8202759983987964</v>
+        <v>0.8008120935827318</v>
       </c>
       <c r="G214" t="n">
-        <v>0.7801977608561738</v>
+        <v>0.7702553455646647</v>
       </c>
       <c r="H214" t="n">
-        <v>0.8117069991607054</v>
+        <v>0.7873772585273483</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8136452698545387</v>
+        <v>0.7766741402598994</v>
       </c>
       <c r="J214" t="n">
-        <v>0.7458018237005086</v>
+        <v>0.8192846915628919</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8202222991372138</v>
+        <v>0.815218762497198</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8048522380857953</v>
+        <v>0.8047352392471393</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>2.195497872809998</v>
+        <v>2.217900912328467</v>
       </c>
       <c r="C221" t="n">
-        <v>2.268788052579507</v>
+        <v>2.2811249982730883</v>
       </c>
       <c r="D221" t="n">
-        <v>2.1010111860301945</v>
+        <v>2.1476614304228705</v>
       </c>
       <c r="E221" t="n">
-        <v>2.1699006079303023</v>
+        <v>2.233999580014196</v>
       </c>
       <c r="F221" t="n">
-        <v>2.1088438968356766</v>
+        <v>2.185195656007944</v>
       </c>
       <c r="G221" t="n">
-        <v>2.3918498477051426</v>
+        <v>2.482067770570594</v>
       </c>
       <c r="H221" t="n">
-        <v>2.3616686589334783</v>
+        <v>2.410297134949975</v>
       </c>
       <c r="I221" t="n">
-        <v>2.214250782097241</v>
+        <v>2.217900912328467</v>
       </c>
       <c r="J221" t="n">
-        <v>2.195497872809998</v>
+        <v>2.346682254909045</v>
       </c>
       <c r="K221" t="n">
-        <v>2.268788052579507</v>
+        <v>2.4789920985906564</v>
       </c>
       <c r="L221" t="n">
-        <v>2.1010111860301945</v>
+        <v>2.2253021396195396</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>2.9605635300008855</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="C222" t="n">
-        <v>3.059393155854773</v>
+        <v>3.0760291598993916</v>
       </c>
       <c r="D222" t="n">
-        <v>2.8331510453816797</v>
+        <v>2.896057511347788</v>
       </c>
       <c r="E222" t="n">
-        <v>2.9260463802422265</v>
+        <v>3.0124819361187796</v>
       </c>
       <c r="F222" t="n">
-        <v>2.8437132227533546</v>
+        <v>2.94667129730048</v>
       </c>
       <c r="G222" t="n">
-        <v>3.225338323507835</v>
+        <v>3.346994507053135</v>
       </c>
       <c r="H222" t="n">
-        <v>3.1846398888265486</v>
+        <v>3.2502139412530724</v>
       </c>
       <c r="I222" t="n">
-        <v>2.9858512699731254</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="J222" t="n">
-        <v>2.9605635300008855</v>
+        <v>3.164431169086908</v>
       </c>
       <c r="K222" t="n">
-        <v>3.059393155854773</v>
+        <v>3.342847054939053</v>
       </c>
       <c r="L222" t="n">
-        <v>2.8331510453816797</v>
+        <v>3.0007536966357597</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>2.9605635300008855</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="C224" t="n">
-        <v>3.059393155854773</v>
+        <v>3.0760291598993916</v>
       </c>
       <c r="D224" t="n">
-        <v>2.8331510453816797</v>
+        <v>2.896057511347788</v>
       </c>
       <c r="E224" t="n">
-        <v>2.9260463802422265</v>
+        <v>3.0124819361187796</v>
       </c>
       <c r="F224" t="n">
-        <v>2.8437132227533546</v>
+        <v>2.94667129730048</v>
       </c>
       <c r="G224" t="n">
-        <v>3.225338323507835</v>
+        <v>3.346994507053135</v>
       </c>
       <c r="H224" t="n">
-        <v>3.1846398888265486</v>
+        <v>3.2502139412530724</v>
       </c>
       <c r="I224" t="n">
-        <v>2.9858512699731254</v>
+        <v>2.99077336193967</v>
       </c>
       <c r="J224" t="n">
-        <v>2.9605635300008855</v>
+        <v>3.164431169086908</v>
       </c>
       <c r="K224" t="n">
-        <v>3.059393155854773</v>
+        <v>3.342847054939053</v>
       </c>
       <c r="L224" t="n">
-        <v>2.8331510453816797</v>
+        <v>3.0007536966357597</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>2.5449777544208945</v>
+        <v>2.5704275319651035</v>
       </c>
       <c r="C230" t="n">
-        <v>2.5959912068120965</v>
+        <v>2.6001887304833993</v>
       </c>
       <c r="D230" t="n">
-        <v>2.6644096254036738</v>
+        <v>2.6601681457240867</v>
       </c>
       <c r="E230" t="n">
-        <v>2.266219015645191</v>
+        <v>2.2903433730435383</v>
       </c>
       <c r="F230" t="n">
-        <v>2.608975978526919</v>
+        <v>2.604950979977965</v>
       </c>
       <c r="G230" t="n">
-        <v>2.623795021597748</v>
+        <v>2.6601681457240867</v>
       </c>
       <c r="H230" t="n">
-        <v>2.3942509834303443</v>
+        <v>2.3744628301723587</v>
       </c>
       <c r="I230" t="n">
-        <v>2.2730405263305764</v>
+        <v>2.3303712208287304</v>
       </c>
       <c r="J230" t="n">
-        <v>2.5449777544208945</v>
+        <v>2.5218142469935603</v>
       </c>
       <c r="K230" t="n">
-        <v>2.5959912068120965</v>
+        <v>2.3652492821545565</v>
       </c>
       <c r="L230" t="n">
-        <v>2.6644096254036738</v>
+        <v>2.5565666286359794</v>
       </c>
     </row>
     <row r="231">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>3.9867326045250806</v>
+        <v>3.947646990755227</v>
       </c>
       <c r="C235" t="n">
-        <v>4.066645677857099</v>
+        <v>3.993354058669412</v>
       </c>
       <c r="D235" t="n">
-        <v>4.173823801388931</v>
+        <v>4.085470080279692</v>
       </c>
       <c r="E235" t="n">
-        <v>3.550054307143943</v>
+        <v>3.5174954407212007</v>
       </c>
       <c r="F235" t="n">
-        <v>4.0869864500575135</v>
+        <v>4.000667892517152</v>
       </c>
       <c r="G235" t="n">
-        <v>4.110200626321219</v>
+        <v>4.085470080279692</v>
       </c>
       <c r="H235" t="n">
-        <v>3.7506176399683286</v>
+        <v>3.646685592036099</v>
       </c>
       <c r="I235" t="n">
-        <v>3.5607402705140747</v>
+        <v>3.578969966219618</v>
       </c>
       <c r="J235" t="n">
-        <v>3.9867326045250806</v>
+        <v>3.8729870029741575</v>
       </c>
       <c r="K235" t="n">
-        <v>4.066645677857099</v>
+        <v>3.632535480953664</v>
       </c>
       <c r="L235" t="n">
-        <v>4.173823801388931</v>
+        <v>3.9263594996138083</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>2.0046923485422883</v>
+        <v>2.045191183866375</v>
       </c>
       <c r="C238" t="n">
-        <v>2.044875913016957</v>
+        <v>2.0688710348148986</v>
       </c>
       <c r="D238" t="n">
-        <v>2.0987694608138447</v>
+        <v>2.1165943686721005</v>
       </c>
       <c r="E238" t="n">
-        <v>1.7851126254023857</v>
+        <v>1.8223388974496144</v>
       </c>
       <c r="F238" t="n">
-        <v>2.0551040859190794</v>
+        <v>2.072660175166275</v>
       </c>
       <c r="G238" t="n">
-        <v>2.066777124005642</v>
+        <v>2.1165943686721005</v>
       </c>
       <c r="H238" t="n">
-        <v>1.8859640791103232</v>
+        <v>1.8892695422439314</v>
       </c>
       <c r="I238" t="n">
-        <v>1.7904859652096734</v>
+        <v>1.854187529780764</v>
       </c>
       <c r="J238" t="n">
-        <v>2.0046923485422883</v>
+        <v>2.0065114465051064</v>
       </c>
       <c r="K238" t="n">
-        <v>2.044875913016957</v>
+        <v>1.8819386733733616</v>
       </c>
       <c r="L238" t="n">
-        <v>2.0987694608138447</v>
+        <v>2.0341625915654373</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5179153934613878</v>
+        <v>0.5232002444150754</v>
       </c>
       <c r="C242" t="n">
-        <v>0.49285247110758523</v>
+        <v>0.4907177457662311</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5499706351118431</v>
+        <v>0.5421033764850663</v>
       </c>
       <c r="E242" t="n">
-        <v>0.548977537078788</v>
+        <v>0.551904497203673</v>
       </c>
       <c r="F242" t="n">
-        <v>0.5582923332759611</v>
+        <v>0.551904497203673</v>
       </c>
       <c r="G242" t="n">
-        <v>0.5393534298603025</v>
+        <v>0.5304103133529428</v>
       </c>
       <c r="H242" t="n">
-        <v>0.5231347718887995</v>
+        <v>0.518876275353516</v>
       </c>
       <c r="I242" t="n">
-        <v>0.4896126334009792</v>
+        <v>0.4942796280273673</v>
       </c>
       <c r="J242" t="n">
-        <v>0.5179153934613878</v>
+        <v>0.4926292785369699</v>
       </c>
       <c r="K242" t="n">
-        <v>0.49285247110758523</v>
+        <v>0.5332860319028943</v>
       </c>
       <c r="L242" t="n">
-        <v>0.5499706351118431</v>
+        <v>0.5404486040312396</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7789521328690574</v>
+        <v>0.7869006240207825</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7412571404631566</v>
+        <v>0.7380464831265905</v>
       </c>
       <c r="D250" t="n">
-        <v>0.827163673148593</v>
+        <v>0.8153312040531998</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8256700395536803</v>
+        <v>0.8300722292952598</v>
       </c>
       <c r="F250" t="n">
-        <v>0.8396796257846203</v>
+        <v>0.8300722292952598</v>
       </c>
       <c r="G250" t="n">
-        <v>0.8111952451385213</v>
+        <v>0.7977446704580765</v>
       </c>
       <c r="H250" t="n">
-        <v>0.7868021524081777</v>
+        <v>0.7803973129288858</v>
       </c>
       <c r="I250" t="n">
-        <v>0.7363843783796746</v>
+        <v>0.7434036048097238</v>
       </c>
       <c r="J250" t="n">
-        <v>0.7789521328690574</v>
+        <v>0.7409214556561087</v>
       </c>
       <c r="K250" t="n">
-        <v>0.7412571404631566</v>
+        <v>0.8020697921406836</v>
       </c>
       <c r="L250" t="n">
-        <v>0.827163673148593</v>
+        <v>0.8128424026995529</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>3.09609241094537</v>
+        <v>3.03478365033259</v>
       </c>
       <c r="C253" t="n">
-        <v>2.9505687441216724</v>
+        <v>2.8769462029133095</v>
       </c>
       <c r="D253" t="n">
-        <v>3.0429391324425503</v>
+        <v>2.932405404865538</v>
       </c>
       <c r="E253" t="n">
-        <v>3.084228698324202</v>
+        <v>2.966357694243487</v>
       </c>
       <c r="F253" t="n">
-        <v>2.730465492823333</v>
+        <v>2.707337583843006</v>
       </c>
       <c r="G253" t="n">
-        <v>2.745773986473701</v>
+        <v>2.7179190266252937</v>
       </c>
       <c r="H253" t="n">
-        <v>2.68626370479826</v>
+        <v>2.612878675858355</v>
       </c>
       <c r="I253" t="n">
-        <v>2.774519291258868</v>
+        <v>2.7088441709642708</v>
       </c>
       <c r="J253" t="n">
-        <v>3.09609241094537</v>
+        <v>2.980889759156729</v>
       </c>
       <c r="K253" t="n">
-        <v>2.9505687441216724</v>
+        <v>2.8531697874663418</v>
       </c>
       <c r="L253" t="n">
-        <v>3.0429391324425503</v>
+        <v>3.0197226890098037</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.8281752091925236</v>
+        <v>2.772171739703563</v>
       </c>
       <c r="C254" t="n">
-        <v>2.6952442845836213</v>
+        <v>2.627992594954736</v>
       </c>
       <c r="D254" t="n">
-        <v>2.779621495479864</v>
+        <v>2.678652691380928</v>
       </c>
       <c r="E254" t="n">
-        <v>2.8173381108534836</v>
+        <v>2.709666953996147</v>
       </c>
       <c r="F254" t="n">
-        <v>2.49418744384334</v>
+        <v>2.473060884898464</v>
       </c>
       <c r="G254" t="n">
-        <v>2.508171232595574</v>
+        <v>2.4827266733124533</v>
       </c>
       <c r="H254" t="n">
-        <v>2.453810612501823</v>
+        <v>2.3867758822592773</v>
       </c>
       <c r="I254" t="n">
-        <v>2.534429091723644</v>
+        <v>2.4744371010384563</v>
       </c>
       <c r="J254" t="n">
-        <v>2.8281752091925236</v>
+        <v>2.7229415014808125</v>
       </c>
       <c r="K254" t="n">
-        <v>2.6952442845836213</v>
+        <v>2.6062736473894583</v>
       </c>
       <c r="L254" t="n">
-        <v>2.779621495479864</v>
+        <v>2.7584140633211884</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5.061418639761502</v>
+        <v>5.0122786529677015</v>
       </c>
       <c r="C260" t="n">
-        <v>4.823519991392993</v>
+        <v>4.75159276577048</v>
       </c>
       <c r="D260" t="n">
-        <v>4.974524917330117</v>
+        <v>4.8431897315131005</v>
       </c>
       <c r="E260" t="n">
-        <v>5.042024122987626</v>
+        <v>4.899265668013492</v>
       </c>
       <c r="F260" t="n">
-        <v>4.463700402399083</v>
+        <v>4.47146549520467</v>
       </c>
       <c r="G260" t="n">
-        <v>4.4887263657181125</v>
+        <v>4.488941910622108</v>
       </c>
       <c r="H260" t="n">
-        <v>4.391440364865972</v>
+        <v>4.315456229759268</v>
       </c>
       <c r="I260" t="n">
-        <v>4.5357185100517</v>
+        <v>4.473953789375467</v>
       </c>
       <c r="J260" t="n">
-        <v>5.061418639761502</v>
+        <v>4.923266969964688</v>
       </c>
       <c r="K260" t="n">
-        <v>4.823519991392993</v>
+        <v>4.712323403166702</v>
       </c>
       <c r="L260" t="n">
-        <v>4.974524917330117</v>
+        <v>4.987403820482328</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>2.9312509652103107</v>
+        <v>2.990468156426681</v>
       </c>
       <c r="C265" t="n">
-        <v>2.8695667116038015</v>
+        <v>2.9430004078130887</v>
       </c>
       <c r="D265" t="n">
-        <v>2.640503665448353</v>
+        <v>2.7483664020166287</v>
       </c>
       <c r="E265" t="n">
-        <v>2.9120919493400304</v>
+        <v>3.0053832098535684</v>
       </c>
       <c r="F265" t="n">
-        <v>2.794346985033489</v>
+        <v>2.9867624964827133</v>
       </c>
       <c r="G265" t="n">
-        <v>2.8828551760603984</v>
+        <v>2.937620152172066</v>
       </c>
       <c r="H265" t="n">
-        <v>2.7208416810445843</v>
+        <v>2.827351710442535</v>
       </c>
       <c r="I265" t="n">
-        <v>2.772602547377462</v>
+        <v>2.903996786492804</v>
       </c>
       <c r="J265" t="n">
-        <v>2.9312509652103107</v>
+        <v>2.6811093822110137</v>
       </c>
       <c r="K265" t="n">
-        <v>2.8695667116038015</v>
+        <v>2.6721921661724926</v>
       </c>
       <c r="L265" t="n">
-        <v>2.640503665448353</v>
+        <v>2.6327879126972493</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5.567544635375377</v>
+        <v>5.7362581091746305</v>
       </c>
       <c r="C266" t="n">
-        <v>5.450383109688881</v>
+        <v>5.64520639296631</v>
       </c>
       <c r="D266" t="n">
-        <v>5.015306499421903</v>
+        <v>5.271863212009266</v>
       </c>
       <c r="E266" t="n">
-        <v>5.531154480696145</v>
+        <v>5.764867875837717</v>
       </c>
       <c r="F266" t="n">
-        <v>5.3075126458113875</v>
+        <v>5.7291499840278215</v>
       </c>
       <c r="G266" t="n">
-        <v>5.475622886110547</v>
+        <v>5.634886090780873</v>
       </c>
       <c r="H266" t="n">
-        <v>5.167898513226974</v>
+        <v>5.423371301132392</v>
       </c>
       <c r="I266" t="n">
-        <v>5.26621180577486</v>
+        <v>5.570390401829658</v>
       </c>
       <c r="J266" t="n">
-        <v>5.567544635375377</v>
+        <v>5.142852099006854</v>
       </c>
       <c r="K266" t="n">
-        <v>5.450383109688881</v>
+        <v>5.1257472678778875</v>
       </c>
       <c r="L266" t="n">
-        <v>5.015306499421903</v>
+        <v>5.050162791899576</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.6972463806421493</v>
+        <v>0.6833014530293063</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7613148732954483</v>
+        <v>0.7496255002205023</v>
       </c>
       <c r="D268" t="n">
-        <v>0.7697964981013401</v>
+        <v>0.7394355559488557</v>
       </c>
       <c r="E268" t="n">
-        <v>0.7193588934395357</v>
+        <v>0.6962298055860237</v>
       </c>
       <c r="F268" t="n">
-        <v>0.79062442764204</v>
+        <v>0.7661512314871479</v>
       </c>
       <c r="G268" t="n">
-        <v>0.6915405912660788</v>
+        <v>0.6715646592048738</v>
       </c>
       <c r="H268" t="n">
-        <v>0.7106397600840345</v>
+        <v>0.693528248558607</v>
       </c>
       <c r="I268" t="n">
-        <v>0.7518673292841308</v>
+        <v>0.7333245181558319</v>
       </c>
       <c r="J268" t="n">
-        <v>0.6972463806421493</v>
+        <v>0.6985622339554068</v>
       </c>
       <c r="K268" t="n">
-        <v>0.7613148732954483</v>
+        <v>0.7337976305091144</v>
       </c>
       <c r="L268" t="n">
-        <v>0.7697964981013401</v>
+        <v>0.7751703598522104</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4.318305424421779</v>
+        <v>4.361488478665996</v>
       </c>
       <c r="C269" t="n">
-        <v>4.227432466046041</v>
+        <v>4.292258502669938</v>
       </c>
       <c r="D269" t="n">
-        <v>3.8899778412160315</v>
+        <v>4.008391920772534</v>
       </c>
       <c r="E269" t="n">
-        <v>4.290080450463168</v>
+        <v>4.383241538814875</v>
       </c>
       <c r="F269" t="n">
-        <v>4.116619111226796</v>
+        <v>4.356083909111649</v>
       </c>
       <c r="G269" t="n">
-        <v>4.247008970694131</v>
+        <v>4.2844115965123954</v>
       </c>
       <c r="H269" t="n">
-        <v>4.008331435860083</v>
+        <v>4.123589105515377</v>
       </c>
       <c r="I269" t="n">
-        <v>4.084585305798511</v>
+        <v>4.235373146894091</v>
       </c>
       <c r="J269" t="n">
-        <v>4.318305424421779</v>
+        <v>3.9103000162119748</v>
       </c>
       <c r="K269" t="n">
-        <v>4.227432466046041</v>
+        <v>3.8972945826211824</v>
       </c>
       <c r="L269" t="n">
-        <v>3.8899778412160315</v>
+        <v>3.8398249194938994</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>2.9312509652103107</v>
+        <v>2.990468156426681</v>
       </c>
       <c r="C272" t="n">
-        <v>2.8695667116038015</v>
+        <v>2.9430004078130887</v>
       </c>
       <c r="D272" t="n">
-        <v>2.640503665448353</v>
+        <v>2.7483664020166287</v>
       </c>
       <c r="E272" t="n">
-        <v>2.9120919493400304</v>
+        <v>3.0053832098535684</v>
       </c>
       <c r="F272" t="n">
-        <v>2.794346985033489</v>
+        <v>2.9867624964827133</v>
       </c>
       <c r="G272" t="n">
-        <v>2.8828551760603984</v>
+        <v>2.937620152172066</v>
       </c>
       <c r="H272" t="n">
-        <v>2.7208416810445843</v>
+        <v>2.827351710442535</v>
       </c>
       <c r="I272" t="n">
-        <v>2.772602547377462</v>
+        <v>2.903996786492804</v>
       </c>
       <c r="J272" t="n">
-        <v>2.9312509652103107</v>
+        <v>2.6811093822110137</v>
       </c>
       <c r="K272" t="n">
-        <v>2.8695667116038015</v>
+        <v>2.6721921661724926</v>
       </c>
       <c r="L272" t="n">
-        <v>2.640503665448353</v>
+        <v>2.6327879126972493</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7147077981844021</v>
+        <v>0.700413642220714</v>
       </c>
       <c r="C274" t="n">
-        <v>0.8064905658371259</v>
+        <v>0.7877470142043063</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7816944910076715</v>
+        <v>0.7570678310540327</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7175508959980287</v>
+        <v>0.7027509515815732</v>
       </c>
       <c r="F274" t="n">
-        <v>0.7561991544772979</v>
+        <v>0.7410828212203472</v>
       </c>
       <c r="G274" t="n">
-        <v>0.7284161160763861</v>
+        <v>0.7203798237874356</v>
       </c>
       <c r="H274" t="n">
-        <v>0.7811023349706757</v>
+        <v>0.7713957329820089</v>
       </c>
       <c r="I274" t="n">
-        <v>0.8135429498854303</v>
+        <v>0.7877470142043063</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7147077981844021</v>
+        <v>0.7828663017174082</v>
       </c>
       <c r="K274" t="n">
-        <v>0.8064905658371259</v>
+        <v>0.7737576308579895</v>
       </c>
       <c r="L274" t="n">
-        <v>0.7816944910076715</v>
+        <v>0.700413642220714</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>6.976223958752402</v>
+        <v>6.907152434408319</v>
       </c>
       <c r="C275" t="n">
-        <v>7.199770822525068</v>
+        <v>7.101075767411304</v>
       </c>
       <c r="D275" t="n">
-        <v>6.880280046661752</v>
+        <v>6.71571250916256</v>
       </c>
       <c r="E275" t="n">
-        <v>7.595628560713197</v>
+        <v>7.41895001379131</v>
       </c>
       <c r="F275" t="n">
-        <v>7.5202182177308705</v>
+        <v>7.258924722217202</v>
       </c>
       <c r="G275" t="n">
-        <v>7.8986802197145725</v>
+        <v>7.55308314751563</v>
       </c>
       <c r="H275" t="n">
-        <v>7.76610401794595</v>
+        <v>7.382782066668365</v>
       </c>
       <c r="I275" t="n">
-        <v>6.90807225821938</v>
+        <v>6.738123120216248</v>
       </c>
       <c r="J275" t="n">
-        <v>6.976223958752402</v>
+        <v>6.71571250916256</v>
       </c>
       <c r="K275" t="n">
-        <v>7.199770822525068</v>
+        <v>7.55308314751563</v>
       </c>
       <c r="L275" t="n">
-        <v>6.880280046661752</v>
+        <v>7.1602514001787805</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7514221922197182</v>
+        <v>0.7591688127580658</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8559286057841514</v>
+        <v>0.8773768601869989</v>
       </c>
       <c r="D280" t="n">
-        <v>0.762224972443085</v>
+        <v>0.7870514740000253</v>
       </c>
       <c r="E280" t="n">
-        <v>0.8460693019068085</v>
+        <v>0.8520069264240833</v>
       </c>
       <c r="F280" t="n">
-        <v>0.7573090291029219</v>
+        <v>0.7896881625924896</v>
       </c>
       <c r="G280" t="n">
-        <v>0.7699787124477547</v>
+        <v>0.7839975047165157</v>
       </c>
       <c r="H280" t="n">
-        <v>0.8423221048880954</v>
+        <v>0.8660939982903242</v>
       </c>
       <c r="I280" t="n">
-        <v>0.8316617911609211</v>
+        <v>0.8474125212148146</v>
       </c>
       <c r="J280" t="n">
-        <v>0.7514221922197182</v>
+        <v>0.7724366458864949</v>
       </c>
       <c r="K280" t="n">
-        <v>0.8559286057841514</v>
+        <v>0.8358933208090994</v>
       </c>
       <c r="L280" t="n">
-        <v>0.762224972443085</v>
+        <v>0.8295199402211832</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>3.1346810403790433</v>
+        <v>3.041571702546002</v>
       </c>
       <c r="C282" t="n">
-        <v>3.2351290936020494</v>
+        <v>3.1269660423591805</v>
       </c>
       <c r="D282" t="n">
-        <v>3.091569815173461</v>
+        <v>2.9572709339015497</v>
       </c>
       <c r="E282" t="n">
-        <v>3.4130029339378143</v>
+        <v>3.266942294792993</v>
       </c>
       <c r="F282" t="n">
-        <v>3.379118217249697</v>
+        <v>3.1964749925051765</v>
       </c>
       <c r="G282" t="n">
-        <v>3.549175495963319</v>
+        <v>3.3260079586514246</v>
       </c>
       <c r="H282" t="n">
-        <v>3.48960399875412</v>
+        <v>3.2510157019527477</v>
       </c>
       <c r="I282" t="n">
-        <v>3.104057906031066</v>
+        <v>2.96713946960638</v>
       </c>
       <c r="J282" t="n">
-        <v>3.1346810403790433</v>
+        <v>2.9572709339015497</v>
       </c>
       <c r="K282" t="n">
-        <v>3.2351290936020494</v>
+        <v>3.3260079586514246</v>
       </c>
       <c r="L282" t="n">
-        <v>3.091569815173461</v>
+        <v>3.1530240933165037</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8230802655334277</v>
       </c>
       <c r="C284" t="n">
-        <v>0.713921216413333</v>
+        <v>0.7236744361551665</v>
       </c>
       <c r="D284" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.790736348662861</v>
       </c>
       <c r="E284" t="n">
-        <v>0.8238287561037424</v>
+        <v>0.8363557537152936</v>
       </c>
       <c r="F284" t="n">
-        <v>0.7894170510451198</v>
+        <v>0.7902265253557423</v>
       </c>
       <c r="G284" t="n">
-        <v>0.7450233235998337</v>
+        <v>0.7498361931503199</v>
       </c>
       <c r="H284" t="n">
-        <v>0.8575729020206336</v>
+        <v>0.8405271041855338</v>
       </c>
       <c r="I284" t="n">
-        <v>0.8475688888147018</v>
+        <v>0.8215755487043391</v>
       </c>
       <c r="J284" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8121719724500025</v>
       </c>
       <c r="K284" t="n">
-        <v>0.713921216413333</v>
+        <v>0.736321941554307</v>
       </c>
       <c r="L284" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.7527668763503981</v>
       </c>
     </row>
     <row r="285">
@@ -10898,34 +10898,34 @@
         <v>2.038722802419482</v>
       </c>
       <c r="C285" t="n">
-        <v>2.1040518531032557</v>
+        <v>2.0959614292876085</v>
       </c>
       <c r="D285" t="n">
-        <v>2.0106842757768364</v>
+        <v>1.9822171809498084</v>
       </c>
       <c r="E285" t="n">
-        <v>2.2197368142125993</v>
+        <v>2.1897855457452815</v>
       </c>
       <c r="F285" t="n">
-        <v>2.1976989916476484</v>
+        <v>2.1425523025247117</v>
       </c>
       <c r="G285" t="n">
-        <v>2.308300244969723</v>
+        <v>2.2293764308286192</v>
       </c>
       <c r="H285" t="n">
-        <v>2.2695563446589033</v>
+        <v>2.1791101742059293</v>
       </c>
       <c r="I285" t="n">
-        <v>2.0188062362768453</v>
+        <v>1.9888319218586243</v>
       </c>
       <c r="J285" t="n">
-        <v>2.038722802419482</v>
+        <v>1.9822171809498084</v>
       </c>
       <c r="K285" t="n">
-        <v>2.1040518531032557</v>
+        <v>2.2293764308286192</v>
       </c>
       <c r="L285" t="n">
-        <v>2.0106842757768364</v>
+        <v>2.113427774936746</v>
       </c>
     </row>
     <row r="286">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>2.528862206373276</v>
+        <v>2.4787857270391513</v>
       </c>
       <c r="C299" t="n">
-        <v>2.216091086675852</v>
+        <v>2.179415469525286</v>
       </c>
       <c r="D299" t="n">
-        <v>2.408905615959912</v>
+        <v>2.3813788970462806</v>
       </c>
       <c r="E299" t="n">
-        <v>2.5572563489859355</v>
+        <v>2.518766142076024</v>
       </c>
       <c r="F299" t="n">
-        <v>2.450438578194851</v>
+        <v>2.3798435149093042</v>
       </c>
       <c r="G299" t="n">
-        <v>2.312635496518599</v>
+        <v>2.2582041278729927</v>
       </c>
       <c r="H299" t="n">
-        <v>2.6620019417413934</v>
+        <v>2.5313285669586185</v>
       </c>
       <c r="I299" t="n">
-        <v>2.6309483689003565</v>
+        <v>2.4742541269566694</v>
       </c>
       <c r="J299" t="n">
-        <v>2.528862206373276</v>
+        <v>2.445934348706042</v>
       </c>
       <c r="K299" t="n">
-        <v>2.216091086675852</v>
+        <v>2.2175046537504985</v>
       </c>
       <c r="L299" t="n">
-        <v>2.408905615959912</v>
+        <v>2.267030163426304</v>
       </c>
     </row>
     <row r="300">
@@ -11506,34 +11506,34 @@
         <v>2.0880465830037407</v>
       </c>
       <c r="C301" t="n">
-        <v>1.8297957909674816</v>
+        <v>1.8358670434670812</v>
       </c>
       <c r="D301" t="n">
-        <v>1.9890000837163722</v>
+        <v>2.0059943118819508</v>
       </c>
       <c r="E301" t="n">
-        <v>2.111491234242652</v>
+        <v>2.1217247537686377</v>
       </c>
       <c r="F301" t="n">
-        <v>2.0232932767808767</v>
+        <v>2.0047009570793364</v>
       </c>
       <c r="G301" t="n">
-        <v>1.90951117623925</v>
+        <v>1.9022359865539396</v>
       </c>
       <c r="H301" t="n">
-        <v>2.197978222931292</v>
+        <v>2.1323069223135867</v>
       </c>
       <c r="I301" t="n">
-        <v>2.1723377168976414</v>
+        <v>2.084229313941494</v>
       </c>
       <c r="J301" t="n">
-        <v>2.0880465830037407</v>
+        <v>2.060373675447771</v>
       </c>
       <c r="K301" t="n">
-        <v>1.8297957909674816</v>
+        <v>1.8679521043512484</v>
       </c>
       <c r="L301" t="n">
-        <v>1.9890000837163722</v>
+        <v>1.9096707451042783</v>
       </c>
     </row>
     <row r="302">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8230802655334277</v>
       </c>
       <c r="C302" t="n">
-        <v>0.713921216413333</v>
+        <v>0.7236744361551665</v>
       </c>
       <c r="D302" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.790736348662861</v>
       </c>
       <c r="E302" t="n">
-        <v>0.8238287561037424</v>
+        <v>0.8363557537152936</v>
       </c>
       <c r="F302" t="n">
-        <v>0.7894170510451198</v>
+        <v>0.7902265253557423</v>
       </c>
       <c r="G302" t="n">
-        <v>0.7450233235998337</v>
+        <v>0.7498361931503199</v>
       </c>
       <c r="H302" t="n">
-        <v>0.8575729020206336</v>
+        <v>0.8405271041855338</v>
       </c>
       <c r="I302" t="n">
-        <v>0.8475688888147018</v>
+        <v>0.8215755487043391</v>
       </c>
       <c r="J302" t="n">
-        <v>0.8146814873136989</v>
+        <v>0.8121719724500025</v>
       </c>
       <c r="K302" t="n">
-        <v>0.713921216413333</v>
+        <v>0.736321941554307</v>
       </c>
       <c r="L302" t="n">
-        <v>0.7760370672085829</v>
+        <v>0.7527668763503981</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>2.1437666506268904</v>
+        <v>2.1654208592190813</v>
       </c>
       <c r="C305" t="n">
-        <v>1.878624368854185</v>
+        <v>1.9038966003132314</v>
       </c>
       <c r="D305" t="n">
-        <v>2.0420770696750368</v>
+        <v>2.080328073991164</v>
       </c>
       <c r="E305" t="n">
-        <v>2.1678369284984003</v>
+        <v>2.2003470021836415</v>
       </c>
       <c r="F305" t="n">
-        <v>2.0772853855400197</v>
+        <v>2.0789867928670986</v>
       </c>
       <c r="G305" t="n">
-        <v>1.9604669799714414</v>
+        <v>1.9727248989414472</v>
       </c>
       <c r="H305" t="n">
-        <v>2.2566318450357192</v>
+        <v>2.2113213016506776</v>
       </c>
       <c r="I305" t="n">
-        <v>2.230307115411601</v>
+        <v>2.1614621381254406</v>
       </c>
       <c r="J305" t="n">
-        <v>2.1437666506268904</v>
+        <v>2.136722509409885</v>
       </c>
       <c r="K305" t="n">
-        <v>1.878624368854185</v>
+        <v>1.9371705994056958</v>
       </c>
       <c r="L305" t="n">
-        <v>2.0420770696750368</v>
+        <v>1.9804351585588362</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.5737117982770505</v>
       </c>
       <c r="C310" t="n">
-        <v>2.255393655478738</v>
+        <v>2.2628770393820132</v>
       </c>
       <c r="D310" t="n">
-        <v>2.4516277672650455</v>
+        <v>2.472574735540745</v>
       </c>
       <c r="E310" t="n">
-        <v>2.6026095134866774</v>
+        <v>2.615223278982292</v>
       </c>
       <c r="F310" t="n">
-        <v>2.493897320209473</v>
+        <v>2.4709805553428787</v>
       </c>
       <c r="G310" t="n">
-        <v>2.3536502888547113</v>
+        <v>2.344682940290652</v>
       </c>
       <c r="H310" t="n">
-        <v>2.70921277846997</v>
+        <v>2.6282667868509297</v>
       </c>
       <c r="I310" t="n">
-        <v>2.6776084678047987</v>
+        <v>2.5690066587927727</v>
       </c>
       <c r="J310" t="n">
-        <v>2.5737117982770505</v>
+        <v>2.5396023635311202</v>
       </c>
       <c r="K310" t="n">
-        <v>2.255393655478738</v>
+        <v>2.302424863850195</v>
       </c>
       <c r="L310" t="n">
-        <v>2.4516277672650455</v>
+        <v>2.353846972335771</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>2.9474701619604184</v>
+        <v>2.9772425878388065</v>
       </c>
       <c r="C312" t="n">
-        <v>2.7969751291045792</v>
+        <v>2.8266408347101817</v>
       </c>
       <c r="D312" t="n">
-        <v>3.0438437475727573</v>
+        <v>3.151038200627647</v>
       </c>
       <c r="E312" t="n">
-        <v>2.7093533944523265</v>
+        <v>2.7741526921900723</v>
       </c>
       <c r="F312" t="n">
-        <v>2.83493111903159</v>
+        <v>2.895937047002054</v>
       </c>
       <c r="G312" t="n">
-        <v>2.9164890686924356</v>
+        <v>2.9791633885377493</v>
       </c>
       <c r="H312" t="n">
-        <v>2.8369380798112442</v>
+        <v>2.815672715635522</v>
       </c>
       <c r="I312" t="n">
-        <v>3.102068032543519</v>
+        <v>3.147133569168227</v>
       </c>
       <c r="J312" t="n">
-        <v>2.9474701619604184</v>
+        <v>3.101021721148413</v>
       </c>
       <c r="K312" t="n">
-        <v>2.7969751291045792</v>
+        <v>2.7265021888267604</v>
       </c>
       <c r="L312" t="n">
-        <v>3.0438437475727573</v>
+        <v>3.0599238413803542</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.738991165629735</v>
       </c>
       <c r="C314" t="n">
-        <v>2.830424255773965</v>
+        <v>2.817069591899703</v>
       </c>
       <c r="D314" t="n">
-        <v>2.621114394458797</v>
+        <v>2.652249093723618</v>
       </c>
       <c r="E314" t="n">
-        <v>2.7070573235440505</v>
+        <v>2.758872174886965</v>
       </c>
       <c r="F314" t="n">
-        <v>2.6308860849554447</v>
+        <v>2.6986018914139076</v>
       </c>
       <c r="G314" t="n">
-        <v>2.9839498746552278</v>
+        <v>3.0652233642619664</v>
       </c>
       <c r="H314" t="n">
-        <v>2.946297362923122</v>
+        <v>2.976590397918071</v>
       </c>
       <c r="I314" t="n">
-        <v>2.762386338771886</v>
+        <v>2.738991165629735</v>
       </c>
       <c r="J314" t="n">
-        <v>2.738991165629735</v>
+        <v>2.898029361459604</v>
       </c>
       <c r="K314" t="n">
-        <v>2.830424255773965</v>
+        <v>3.0614250708690576</v>
       </c>
       <c r="L314" t="n">
-        <v>2.621114394458797</v>
+        <v>2.7481312926987047</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2.1712610598558735</v>
+        <v>2.1931929897534075</v>
       </c>
       <c r="C315" t="n">
-        <v>2.0603985280620734</v>
+        <v>2.082251842211232</v>
       </c>
       <c r="D315" t="n">
-        <v>2.2422548959731423</v>
+        <v>2.321219950396569</v>
       </c>
       <c r="E315" t="n">
-        <v>1.9958517642295528</v>
+        <v>2.043586324429611</v>
       </c>
       <c r="F315" t="n">
-        <v>2.0883589003095695</v>
+        <v>2.1332990654492017</v>
       </c>
       <c r="G315" t="n">
-        <v>2.1484387621876273</v>
+        <v>2.194607952257586</v>
       </c>
       <c r="H315" t="n">
-        <v>2.0898373328466513</v>
+        <v>2.0741721506323256</v>
       </c>
       <c r="I315" t="n">
-        <v>2.285145957035108</v>
+        <v>2.3183435941401624</v>
       </c>
       <c r="J315" t="n">
-        <v>2.1712610598558735</v>
+        <v>2.2843751892024096</v>
       </c>
       <c r="K315" t="n">
-        <v>2.0603985280620734</v>
+        <v>2.008484465292731</v>
       </c>
       <c r="L315" t="n">
-        <v>2.2422548959731423</v>
+        <v>2.2541003361658407</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.2432971300225448</v>
+        <v>1.256114626208344</v>
       </c>
       <c r="C316" t="n">
-        <v>1.1798155569613054</v>
+        <v>1.192574938307129</v>
       </c>
       <c r="D316" t="n">
-        <v>1.2839492811276496</v>
+        <v>1.3294399279780513</v>
       </c>
       <c r="E316" t="n">
-        <v>1.1428550975725376</v>
+        <v>1.1704299092821757</v>
       </c>
       <c r="F316" t="n">
-        <v>1.1958260916742436</v>
+        <v>1.2218113821750922</v>
       </c>
       <c r="G316" t="n">
-        <v>1.230228735016495</v>
+        <v>1.2569250223318675</v>
       </c>
       <c r="H316" t="n">
-        <v>1.1966726646470984</v>
+        <v>1.1879474300053363</v>
       </c>
       <c r="I316" t="n">
-        <v>1.3085093555046587</v>
+        <v>1.3277925430097706</v>
       </c>
       <c r="J316" t="n">
-        <v>1.2432971300225448</v>
+        <v>1.3083377068550754</v>
       </c>
       <c r="K316" t="n">
-        <v>1.1798155569613054</v>
+        <v>1.1503259061803341</v>
       </c>
       <c r="L316" t="n">
-        <v>1.2839492811276496</v>
+        <v>1.2909982908149857</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>3.00329670111061</v>
       </c>
       <c r="C319" t="n">
-        <v>2.8499512180781865</v>
+        <v>2.851377018717177</v>
       </c>
       <c r="D319" t="n">
-        <v>3.1014956499852024</v>
+        <v>3.17861321468202</v>
       </c>
       <c r="E319" t="n">
-        <v>2.76066988453903</v>
+        <v>2.7984295478184427</v>
       </c>
       <c r="F319" t="n">
-        <v>2.888626113181912</v>
+        <v>2.921279648293195</v>
       </c>
       <c r="G319" t="n">
-        <v>2.971728810650051</v>
+        <v>3.0052343109063955</v>
       </c>
       <c r="H319" t="n">
-        <v>2.890671086788968</v>
+        <v>2.8403129166621865</v>
       </c>
       <c r="I319" t="n">
-        <v>3.1608227316411903</v>
+        <v>3.17467441344727</v>
       </c>
       <c r="J319" t="n">
-        <v>3.00329670111061</v>
+        <v>3.1281590365660903</v>
       </c>
       <c r="K319" t="n">
-        <v>2.8499512180781865</v>
+        <v>2.7503620506847346</v>
       </c>
       <c r="L319" t="n">
-        <v>3.1014956499852024</v>
+        <v>3.086701505616404</v>
       </c>
     </row>
     <row r="320">
@@ -12263,37 +12263,37 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="n">
-        <v>0.8475865799641983</v>
+        <v>0.8563245859432107</v>
       </c>
       <c r="C321" t="n">
-        <v>0.8043096125342585</v>
+        <v>0.8130080001812803</v>
       </c>
       <c r="D321" t="n">
-        <v>0.875300162575572</v>
+        <v>0.9063122680918069</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7791127479949964</v>
+        <v>0.7979111830478508</v>
       </c>
       <c r="F321" t="n">
-        <v>0.815224392302544</v>
+        <v>0.8329392112087785</v>
       </c>
       <c r="G321" t="n">
-        <v>0.8386775300184319</v>
+        <v>0.8568770531388367</v>
       </c>
       <c r="H321" t="n">
-        <v>0.8158015221562412</v>
+        <v>0.8098533126648688</v>
       </c>
       <c r="I321" t="n">
-        <v>0.8920433761986083</v>
+        <v>0.9051892047810084</v>
       </c>
       <c r="J321" t="n">
-        <v>0.8475865799641983</v>
+        <v>0.8919263590445086</v>
       </c>
       <c r="K321" t="n">
-        <v>0.8043096125342585</v>
+        <v>0.7842057840557606</v>
       </c>
       <c r="L321" t="n">
-        <v>0.875300162575572</v>
+        <v>0.8801056478202097</v>
       </c>
     </row>
     <row r="322">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.1574278191241187</v>
+        <v>1.1693600646820994</v>
       </c>
       <c r="C323" t="n">
-        <v>1.272922747998784</v>
+        <v>1.3026700101272528</v>
       </c>
       <c r="D323" t="n">
-        <v>1.2490695799356126</v>
+        <v>1.2835832696992535</v>
       </c>
       <c r="E323" t="n">
-        <v>1.1498201544287838</v>
+        <v>1.1654708401719862</v>
       </c>
       <c r="F323" t="n">
-        <v>1.2730060851766334</v>
+        <v>1.2812366828251274</v>
       </c>
       <c r="G323" t="n">
-        <v>1.2108077027120658</v>
+        <v>1.2323482771899956</v>
       </c>
       <c r="H323" t="n">
-        <v>1.259707648802465</v>
+        <v>1.2597419980687414</v>
       </c>
       <c r="I323" t="n">
-        <v>1.2627156977918121</v>
+        <v>1.2426178464047475</v>
       </c>
       <c r="J323" t="n">
-        <v>1.1574278191241187</v>
+        <v>1.3107913940350642</v>
       </c>
       <c r="K323" t="n">
-        <v>1.272922747998784</v>
+        <v>1.3042862257059675</v>
       </c>
       <c r="L323" t="n">
-        <v>1.2490695799356126</v>
+        <v>1.2875134088855662</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>3.661342538576535</v>
+        <v>3.734569389348066</v>
       </c>
       <c r="C327" t="n">
-        <v>3.7951474520307187</v>
+        <v>3.8207159392207073</v>
       </c>
       <c r="D327" t="n">
-        <v>3.7778044533187813</v>
+        <v>3.8207159392207073</v>
       </c>
       <c r="E327" t="n">
-        <v>3.6734071024376407</v>
+        <v>3.7970435981553705</v>
       </c>
       <c r="F327" t="n">
-        <v>3.225080581277227</v>
+        <v>3.2895482361676227</v>
       </c>
       <c r="G327" t="n">
-        <v>3.7207622611957194</v>
+        <v>3.7528648919081005</v>
       </c>
       <c r="H327" t="n">
-        <v>3.616920546936915</v>
+        <v>3.6220025808254004</v>
       </c>
       <c r="I327" t="n">
-        <v>3.310045876209146</v>
+        <v>3.39713324027434</v>
       </c>
       <c r="J327" t="n">
-        <v>3.661342538576535</v>
+        <v>3.671916334841476</v>
       </c>
       <c r="K327" t="n">
-        <v>3.7951474520307187</v>
+        <v>3.493972843321776</v>
       </c>
       <c r="L327" t="n">
-        <v>3.7778044533187813</v>
+        <v>3.39713324027434</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2.465992828279208</v>
+        <v>2.441577057702186</v>
       </c>
       <c r="C329" t="n">
-        <v>2.7059416598879626</v>
+        <v>2.6778104778689036</v>
       </c>
       <c r="D329" t="n">
-        <v>2.5021681032909053</v>
+        <v>2.4239825433465483</v>
       </c>
       <c r="E329" t="n">
-        <v>2.486787779972978</v>
+        <v>2.4930812482512277</v>
       </c>
       <c r="F329" t="n">
-        <v>2.4591283542416225</v>
+        <v>2.4239825433465483</v>
       </c>
       <c r="G329" t="n">
-        <v>2.671672430694832</v>
+        <v>2.709333649071447</v>
       </c>
       <c r="H329" t="n">
-        <v>2.4119707392051666</v>
+        <v>2.4320714735837723</v>
       </c>
       <c r="I329" t="n">
-        <v>2.685690422019204</v>
+        <v>2.669636452014135</v>
       </c>
       <c r="J329" t="n">
-        <v>2.465992828279208</v>
+        <v>2.712695104557121</v>
       </c>
       <c r="K329" t="n">
-        <v>2.7059416598879626</v>
+        <v>2.726224756203261</v>
       </c>
       <c r="L329" t="n">
-        <v>2.5021681032909053</v>
+        <v>2.664755947566261</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>4.380736847255776</v>
+        <v>4.293989582953681</v>
       </c>
       <c r="C331" t="n">
-        <v>4.0506659524321105</v>
+        <v>4.001490017037883</v>
       </c>
       <c r="D331" t="n">
-        <v>3.936611100531751</v>
+        <v>3.914073521327507</v>
       </c>
       <c r="E331" t="n">
-        <v>4.232705375891829</v>
+        <v>4.200614628183573</v>
       </c>
       <c r="F331" t="n">
-        <v>4.050653457091479</v>
+        <v>3.9881294481696004</v>
       </c>
       <c r="G331" t="n">
-        <v>4.084591130278144</v>
+        <v>3.9726544440107627</v>
       </c>
       <c r="H331" t="n">
-        <v>4.151093262732416</v>
+        <v>4.085900010843922</v>
       </c>
       <c r="I331" t="n">
-        <v>4.314768655741203</v>
+        <v>4.2033247007677685</v>
       </c>
       <c r="J331" t="n">
-        <v>4.380736847255776</v>
+        <v>4.467997891664133</v>
       </c>
       <c r="K331" t="n">
-        <v>4.0506659524321105</v>
+        <v>3.9859113565831756</v>
       </c>
       <c r="L331" t="n">
-        <v>3.936611100531751</v>
+        <v>3.846843057042923</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.5066068582468133</v>
       </c>
       <c r="C333" t="n">
-        <v>1.393090093559039</v>
+        <v>1.40397925668197</v>
       </c>
       <c r="D333" t="n">
-        <v>1.3538647695825372</v>
+        <v>1.3733079452088384</v>
       </c>
       <c r="E333" t="n">
-        <v>1.4556964206264846</v>
+        <v>1.4738449373042004</v>
       </c>
       <c r="F333" t="n">
-        <v>1.3930857962075776</v>
+        <v>1.3992915124995104</v>
       </c>
       <c r="G333" t="n">
-        <v>1.4047575155914978</v>
+        <v>1.393861888848429</v>
       </c>
       <c r="H333" t="n">
-        <v>1.427628683693368</v>
+        <v>1.4335956945228072</v>
       </c>
       <c r="I333" t="n">
-        <v>1.4839193211434936</v>
+        <v>1.474795804525189</v>
       </c>
       <c r="J333" t="n">
-        <v>1.5066068582468133</v>
+        <v>1.5676601296231178</v>
       </c>
       <c r="K333" t="n">
-        <v>1.393090093559039</v>
+        <v>1.398513263756292</v>
       </c>
       <c r="L333" t="n">
-        <v>1.3538647695825372</v>
+        <v>1.3497191878032841</v>
       </c>
     </row>
     <row r="334">
@@ -12836,34 +12836,34 @@
         <v>1.7562167548186813</v>
       </c>
       <c r="C336" t="n">
-        <v>1.6238928887707944</v>
+        <v>1.6365861342699548</v>
       </c>
       <c r="D336" t="n">
-        <v>1.5781688362061552</v>
+        <v>1.6008332961579221</v>
       </c>
       <c r="E336" t="n">
-        <v>1.6968716356493612</v>
+        <v>1.7180269416205551</v>
       </c>
       <c r="F336" t="n">
-        <v>1.623887879447628</v>
+        <v>1.6311217393413937</v>
       </c>
       <c r="G336" t="n">
-        <v>1.637493332673452</v>
+        <v>1.6247925526818525</v>
       </c>
       <c r="H336" t="n">
-        <v>1.664153724137168</v>
+        <v>1.6711093305964668</v>
       </c>
       <c r="I336" t="n">
-        <v>1.7297704177611255</v>
+        <v>1.7191353455389145</v>
       </c>
       <c r="J336" t="n">
-        <v>1.7562167548186813</v>
+        <v>1.8273851406126564</v>
       </c>
       <c r="K336" t="n">
-        <v>1.6238928887707944</v>
+        <v>1.6302145527885281</v>
       </c>
       <c r="L336" t="n">
-        <v>1.5781688362061552</v>
+        <v>1.573336427446469</v>
       </c>
     </row>
     <row r="337">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>0.7683868431456011</v>
+        <v>0.7763083569924629</v>
       </c>
       <c r="C339" t="n">
-        <v>0.7520629977357631</v>
+        <v>0.7501196408638556</v>
       </c>
       <c r="D339" t="n">
-        <v>0.7692616996399804</v>
+        <v>0.7588047561867354</v>
       </c>
       <c r="E339" t="n">
-        <v>0.7325482767456655</v>
+        <v>0.7303217618895316</v>
       </c>
       <c r="F339" t="n">
-        <v>0.7631643983245778</v>
+        <v>0.7359329814810923</v>
       </c>
       <c r="G339" t="n">
-        <v>0.7024846881257836</v>
+        <v>0.6929318890588528</v>
       </c>
       <c r="H339" t="n">
-        <v>0.6850052150779665</v>
+        <v>0.695253269130668</v>
       </c>
       <c r="I339" t="n">
-        <v>0.7580487764404467</v>
+        <v>0.7625221096248528</v>
       </c>
       <c r="J339" t="n">
-        <v>0.7683868431456011</v>
+        <v>0.6683835770810033</v>
       </c>
       <c r="K339" t="n">
-        <v>0.7520629977357631</v>
+        <v>0.7460746578024806</v>
       </c>
       <c r="L339" t="n">
-        <v>0.7692616996399804</v>
+        <v>0.7099193869745383</v>
       </c>
     </row>
     <row r="340">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.3182824691662915</v>
+        <v>1.3315984537033247</v>
       </c>
       <c r="C341" t="n">
-        <v>1.290276472674896</v>
+        <v>1.2866770592764611</v>
       </c>
       <c r="D341" t="n">
-        <v>1.3197834162346394</v>
+        <v>1.3015746009942737</v>
       </c>
       <c r="E341" t="n">
-        <v>1.2567960522312025</v>
+        <v>1.2527178408919661</v>
       </c>
       <c r="F341" t="n">
-        <v>1.3093225845519751</v>
+        <v>1.2623427422139863</v>
       </c>
       <c r="G341" t="n">
-        <v>1.2052174727808154</v>
+        <v>1.1885831495711319</v>
       </c>
       <c r="H341" t="n">
-        <v>1.1752288243613949</v>
+        <v>1.1925650030269703</v>
       </c>
       <c r="I341" t="n">
-        <v>1.3005459706511882</v>
+        <v>1.3079509616832699</v>
       </c>
       <c r="J341" t="n">
-        <v>1.3182824691662915</v>
+        <v>1.146475533472071</v>
       </c>
       <c r="K341" t="n">
-        <v>1.290276472674896</v>
+        <v>1.2797387168751884</v>
       </c>
       <c r="L341" t="n">
-        <v>1.3197834162346394</v>
+        <v>1.21772173316754</v>
       </c>
     </row>
     <row r="342">
@@ -13292,34 +13292,34 @@
         <v>1.5843027693723735</v>
       </c>
       <c r="C348" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.530856409926236</v>
       </c>
       <c r="D348" t="n">
-        <v>1.586106597195836</v>
+        <v>1.5485811350749703</v>
       </c>
       <c r="E348" t="n">
-        <v>1.5104088180322999</v>
+        <v>1.4904525752847584</v>
       </c>
       <c r="F348" t="n">
-        <v>1.573534841906346</v>
+        <v>1.501904043838964</v>
       </c>
       <c r="G348" t="n">
-        <v>1.4484220373727497</v>
+        <v>1.414146712365006</v>
       </c>
       <c r="H348" t="n">
-        <v>1.412381886758694</v>
+        <v>1.418884222715649</v>
       </c>
       <c r="I348" t="n">
-        <v>1.5629871679184466</v>
+        <v>1.556167570662965</v>
       </c>
       <c r="J348" t="n">
-        <v>1.5843027693723735</v>
+        <v>1.3640481164918437</v>
       </c>
       <c r="K348" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.522601342454042</v>
       </c>
       <c r="L348" t="n">
-        <v>1.586106597195836</v>
+        <v>1.4488150754582414</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1.3014844770514193</v>
+        <v>1.2884696322809053</v>
       </c>
       <c r="C351" t="n">
-        <v>1.273835342248801</v>
+        <v>1.245003186072774</v>
       </c>
       <c r="D351" t="n">
-        <v>1.3029662985547927</v>
+        <v>1.2594182149019648</v>
       </c>
       <c r="E351" t="n">
-        <v>1.2407815404181661</v>
+        <v>1.2121438646288893</v>
       </c>
       <c r="F351" t="n">
-        <v>1.2926387622562592</v>
+        <v>1.2214570273414427</v>
       </c>
       <c r="G351" t="n">
-        <v>1.1898601923208227</v>
+        <v>1.1500864163697795</v>
       </c>
       <c r="H351" t="n">
-        <v>1.1602536691981178</v>
+        <v>1.1539393025336018</v>
       </c>
       <c r="I351" t="n">
-        <v>1.2839739828784587</v>
+        <v>1.2655880531812091</v>
       </c>
       <c r="J351" t="n">
-        <v>1.3014844770514193</v>
+        <v>1.1093426137012687</v>
       </c>
       <c r="K351" t="n">
-        <v>1.273835342248801</v>
+        <v>1.2382895679715031</v>
       </c>
       <c r="L351" t="n">
-        <v>1.3029662985547927</v>
+        <v>1.1782812374040303</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7683868431456011</v>
+        <v>0.7763083569924629</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7520629977357631</v>
+        <v>0.7501196408638556</v>
       </c>
       <c r="D353" t="n">
-        <v>0.7692616996399804</v>
+        <v>0.7588047561867354</v>
       </c>
       <c r="E353" t="n">
-        <v>0.7325482767456655</v>
+        <v>0.7303217618895316</v>
       </c>
       <c r="F353" t="n">
-        <v>0.7631643983245778</v>
+        <v>0.7359329814810923</v>
       </c>
       <c r="G353" t="n">
-        <v>0.7024846881257836</v>
+        <v>0.6929318890588528</v>
       </c>
       <c r="H353" t="n">
-        <v>0.6850052150779665</v>
+        <v>0.695253269130668</v>
       </c>
       <c r="I353" t="n">
-        <v>0.7580487764404467</v>
+        <v>0.7625221096248528</v>
       </c>
       <c r="J353" t="n">
-        <v>0.7683868431456011</v>
+        <v>0.6683835770810033</v>
       </c>
       <c r="K353" t="n">
-        <v>0.7520629977357631</v>
+        <v>0.7460746578024806</v>
       </c>
       <c r="L353" t="n">
-        <v>0.7692616996399804</v>
+        <v>0.7099193869745383</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1.334430551611141</v>
+        <v>1.3077419405789181</v>
       </c>
       <c r="C356" t="n">
-        <v>1.3520104619632518</v>
+        <v>1.3077419405789181</v>
       </c>
       <c r="D356" t="n">
-        <v>1.3458320681072218</v>
+        <v>1.3077419405789181</v>
       </c>
       <c r="E356" t="n">
-        <v>1.3086408094337214</v>
+        <v>1.299639450434324</v>
       </c>
       <c r="F356" t="n">
-        <v>1.1489257641961161</v>
+        <v>1.1259356263138574</v>
       </c>
       <c r="G356" t="n">
-        <v>1.3255109497584654</v>
+        <v>1.284518109837657</v>
       </c>
       <c r="H356" t="n">
-        <v>1.2885176350478658</v>
+        <v>1.239726993364644</v>
       </c>
       <c r="I356" t="n">
-        <v>1.1791944083275268</v>
+        <v>1.1627594635961458</v>
       </c>
       <c r="J356" t="n">
-        <v>1.334430551611141</v>
+        <v>1.2568113070317508</v>
       </c>
       <c r="K356" t="n">
-        <v>1.3520104619632518</v>
+        <v>1.1959054007526193</v>
       </c>
       <c r="L356" t="n">
-        <v>1.3458320681072218</v>
+        <v>1.1627594635961458</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>3.131503275562131</v>
+        <v>3.1628183083177523</v>
       </c>
       <c r="C362" t="n">
-        <v>3.2459450466756823</v>
+        <v>3.2357760865057115</v>
       </c>
       <c r="D362" t="n">
-        <v>3.231111783548213</v>
+        <v>3.2357760865057115</v>
       </c>
       <c r="E362" t="n">
-        <v>3.141821955350002</v>
+        <v>3.215727908010022</v>
       </c>
       <c r="F362" t="n">
-        <v>2.758373546810484</v>
+        <v>2.7859285242150955</v>
       </c>
       <c r="G362" t="n">
-        <v>3.182324266511345</v>
+        <v>3.1783128257370294</v>
       </c>
       <c r="H362" t="n">
-        <v>3.093509667790992</v>
+        <v>3.0674851317753995</v>
       </c>
       <c r="I362" t="n">
-        <v>2.8310433657594234</v>
+        <v>2.877042595266957</v>
       </c>
       <c r="J362" t="n">
-        <v>3.131503275562131</v>
+        <v>3.109757243652392</v>
       </c>
       <c r="K362" t="n">
-        <v>3.2459450466756823</v>
+        <v>2.959056353094635</v>
       </c>
       <c r="L362" t="n">
-        <v>3.231111783548213</v>
+        <v>2.877042595266957</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1.5747287015884364</v>
+        <v>1.5906350521095318</v>
       </c>
       <c r="C364" t="n">
-        <v>1.6272963451543614</v>
+        <v>1.6359781270332532</v>
       </c>
       <c r="D364" t="n">
-        <v>1.506957787558938</v>
+        <v>1.5402606727402748</v>
       </c>
       <c r="E364" t="n">
-        <v>1.5563689718034888</v>
+        <v>1.6021807009574327</v>
       </c>
       <c r="F364" t="n">
-        <v>1.5125758273982786</v>
+        <v>1.5671794834669115</v>
       </c>
       <c r="G364" t="n">
-        <v>1.7155628578453097</v>
+        <v>1.7800903438179587</v>
       </c>
       <c r="H364" t="n">
-        <v>1.6939152922541991</v>
+        <v>1.72861785102274</v>
       </c>
       <c r="I364" t="n">
-        <v>1.5881792928454934</v>
+        <v>1.5906350521095318</v>
       </c>
       <c r="J364" t="n">
-        <v>1.5747287015884364</v>
+        <v>1.6829945062347105</v>
       </c>
       <c r="K364" t="n">
-        <v>1.6272963451543614</v>
+        <v>1.7778845321728645</v>
       </c>
       <c r="L364" t="n">
-        <v>1.506957787558938</v>
+        <v>1.5959430672207435</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>6.209704744331015</v>
+        <v>6.148222519139619</v>
       </c>
       <c r="C366" t="n">
-        <v>6.408689184732738</v>
+        <v>6.3208383422704575</v>
       </c>
       <c r="D366" t="n">
-        <v>6.124302760446665</v>
+        <v>5.977817236986728</v>
       </c>
       <c r="E366" t="n">
-        <v>6.761051679033535</v>
+        <v>6.603785854781161</v>
       </c>
       <c r="F366" t="n">
-        <v>6.6939271189050595</v>
+        <v>6.461343493673477</v>
       </c>
       <c r="G366" t="n">
-        <v>7.030805249991822</v>
+        <v>6.723180983404419</v>
       </c>
       <c r="H366" t="n">
-        <v>6.912795983951111</v>
+        <v>6.571591895101829</v>
       </c>
       <c r="I366" t="n">
-        <v>6.149041276438304</v>
+        <v>5.997765460926535</v>
       </c>
       <c r="J366" t="n">
-        <v>6.209704744331015</v>
+        <v>5.977817236986728</v>
       </c>
       <c r="K366" t="n">
-        <v>6.408689184732738</v>
+        <v>6.723180983404419</v>
       </c>
       <c r="L366" t="n">
-        <v>6.124302760446665</v>
+        <v>6.373511996344301</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.486759299344878</v>
       </c>
       <c r="C381" t="n">
-        <v>1.6314256392750695</v>
+        <v>1.6306098623000587</v>
       </c>
       <c r="D381" t="n">
-        <v>1.5085695519592501</v>
+        <v>1.476045401230059</v>
       </c>
       <c r="E381" t="n">
-        <v>1.4992966787952937</v>
+        <v>1.5181219524352063</v>
       </c>
       <c r="F381" t="n">
-        <v>1.4826206739225107</v>
+        <v>1.476045401230059</v>
       </c>
       <c r="G381" t="n">
-        <v>1.6107645511323996</v>
+        <v>1.6498053932305181</v>
       </c>
       <c r="H381" t="n">
-        <v>1.4541891140710972</v>
+        <v>1.4809710259257884</v>
       </c>
       <c r="I381" t="n">
-        <v>1.619216067584777</v>
+        <v>1.6256324199890226</v>
       </c>
       <c r="J381" t="n">
-        <v>1.486759299344878</v>
+        <v>1.6518522977862822</v>
       </c>
       <c r="K381" t="n">
-        <v>1.6314256392750695</v>
+        <v>1.6600909627665004</v>
       </c>
       <c r="L381" t="n">
-        <v>1.5085695519592501</v>
+        <v>1.6226605148629971</v>
       </c>
     </row>
     <row r="382">
@@ -14774,34 +14774,34 @@
         <v>2.9312582781434084</v>
       </c>
       <c r="C387" t="n">
-        <v>3.216478896353724</v>
+        <v>3.2148705304183824</v>
       </c>
       <c r="D387" t="n">
-        <v>2.974258838861238</v>
+        <v>2.910135018612369</v>
       </c>
       <c r="E387" t="n">
-        <v>2.9559766688852385</v>
+        <v>2.9930921180501597</v>
       </c>
       <c r="F387" t="n">
-        <v>2.9230986654644804</v>
+        <v>2.910135018612369</v>
       </c>
       <c r="G387" t="n">
-        <v>3.175744000207228</v>
+        <v>3.2527159698032646</v>
       </c>
       <c r="H387" t="n">
-        <v>2.8670436973121314</v>
+        <v>2.919846259813784</v>
       </c>
       <c r="I387" t="n">
-        <v>3.192406803375712</v>
+        <v>3.20505712687375</v>
       </c>
       <c r="J387" t="n">
-        <v>2.9312582781434084</v>
+        <v>3.256751596771461</v>
       </c>
       <c r="K387" t="n">
-        <v>3.216478896353724</v>
+        <v>3.272994747182396</v>
       </c>
       <c r="L387" t="n">
-        <v>2.974258838861238</v>
+        <v>3.1991977914007133</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9565421296570703</v>
+        <v>0.9663027636331628</v>
       </c>
       <c r="C389" t="n">
-        <v>1.0496166770619488</v>
+        <v>1.059796846094949</v>
       </c>
       <c r="D389" t="n">
-        <v>0.970574276954419</v>
+        <v>0.9593393840449567</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9646083523772535</v>
+        <v>0.9866865731505516</v>
       </c>
       <c r="F389" t="n">
-        <v>0.9538794460760034</v>
+        <v>0.9593393840449567</v>
       </c>
       <c r="G389" t="n">
-        <v>1.0363238721931782</v>
+        <v>1.0722727691281406</v>
       </c>
       <c r="H389" t="n">
-        <v>0.9355873225145587</v>
+        <v>0.9625407393404645</v>
       </c>
       <c r="I389" t="n">
-        <v>1.0417613572990396</v>
+        <v>1.056561812513455</v>
       </c>
       <c r="J389" t="n">
-        <v>0.9565421296570703</v>
+        <v>1.073603132106196</v>
       </c>
       <c r="K389" t="n">
-        <v>1.0496166770619488</v>
+        <v>1.0789577612936783</v>
       </c>
       <c r="L389" t="n">
-        <v>0.970574276954419</v>
+        <v>1.0546302556449025</v>
       </c>
     </row>
     <row r="390">
@@ -15040,34 +15040,34 @@
         <v>4.62759395460371</v>
       </c>
       <c r="C394" t="n">
-        <v>4.775881068303255</v>
+        <v>4.757517023767608</v>
       </c>
       <c r="D394" t="n">
-        <v>4.56395071863582</v>
+        <v>4.499334697384501</v>
       </c>
       <c r="E394" t="n">
-        <v>5.038468520620381</v>
+        <v>4.9704836485585275</v>
       </c>
       <c r="F394" t="n">
-        <v>4.988445979864391</v>
+        <v>4.863271294566883</v>
       </c>
       <c r="G394" t="n">
-        <v>5.239494180550339</v>
+        <v>5.0603489996752336</v>
       </c>
       <c r="H394" t="n">
-        <v>5.15155135740472</v>
+        <v>4.946252161698211</v>
       </c>
       <c r="I394" t="n">
-        <v>4.582386346699021</v>
+        <v>4.514349163796796</v>
       </c>
       <c r="J394" t="n">
-        <v>4.62759395460371</v>
+        <v>4.499334697384501</v>
       </c>
       <c r="K394" t="n">
-        <v>4.775881068303255</v>
+        <v>5.0603489996752336</v>
       </c>
       <c r="L394" t="n">
-        <v>4.56395071863582</v>
+        <v>4.797162999885128</v>
       </c>
     </row>
     <row r="395">
@@ -15078,34 +15078,34 @@
         <v>6.623417825604465</v>
       </c>
       <c r="C395" t="n">
-        <v>6.649288609748234</v>
+        <v>6.59771720085569</v>
       </c>
       <c r="D395" t="n">
-        <v>7.05476780002079</v>
+        <v>6.976309612912735</v>
       </c>
       <c r="E395" t="n">
-        <v>7.267884541655227</v>
+        <v>7.131385155952894</v>
       </c>
       <c r="F395" t="n">
-        <v>6.809603860542832</v>
+        <v>6.59771720085569</v>
       </c>
       <c r="G395" t="n">
-        <v>7.337941397697557</v>
+        <v>7.26635032411076</v>
       </c>
       <c r="H395" t="n">
-        <v>7.408350472310551</v>
+        <v>7.374400145083969</v>
       </c>
       <c r="I395" t="n">
-        <v>7.378637404412239</v>
+        <v>7.383549523134821</v>
       </c>
       <c r="J395" t="n">
-        <v>6.623417825604465</v>
+        <v>6.785793519787032</v>
       </c>
       <c r="K395" t="n">
-        <v>6.649288609748234</v>
+        <v>7.2530663224445835</v>
       </c>
       <c r="L395" t="n">
-        <v>7.05476780002079</v>
+        <v>7.4203752072274485</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>1.5947322669774404</v>
+        <v>1.611005045211904</v>
       </c>
       <c r="C397" t="n">
-        <v>1.6009612223796783</v>
+        <v>1.6047539166819602</v>
       </c>
       <c r="D397" t="n">
-        <v>1.6985891790240286</v>
+        <v>1.6968384419168125</v>
       </c>
       <c r="E397" t="n">
-        <v>1.7499016816421937</v>
+        <v>1.734557258516439</v>
       </c>
       <c r="F397" t="n">
-        <v>1.639560614726996</v>
+        <v>1.6047539166819602</v>
       </c>
       <c r="G397" t="n">
-        <v>1.7667693973435659</v>
+        <v>1.7673846555726336</v>
       </c>
       <c r="H397" t="n">
-        <v>1.7837219173460492</v>
+        <v>1.7936654687880067</v>
       </c>
       <c r="I397" t="n">
-        <v>1.776567848347842</v>
+        <v>1.7958908597551133</v>
       </c>
       <c r="J397" t="n">
-        <v>1.5947322669774404</v>
+        <v>1.6504994677948595</v>
       </c>
       <c r="K397" t="n">
-        <v>1.6009612223796783</v>
+        <v>1.7641536056421756</v>
       </c>
       <c r="L397" t="n">
-        <v>1.6985891790240286</v>
+        <v>1.8048479215665034</v>
       </c>
     </row>
     <row r="398">
@@ -15192,34 +15192,34 @@
         <v>5.360094508587565</v>
       </c>
       <c r="C398" t="n">
-        <v>5.381030806383215</v>
+        <v>5.3392959146878045</v>
       </c>
       <c r="D398" t="n">
-        <v>5.709170573245667</v>
+        <v>5.645677176189255</v>
       </c>
       <c r="E398" t="n">
-        <v>5.881638309179052</v>
+        <v>5.771174251649678</v>
       </c>
       <c r="F398" t="n">
-        <v>5.510768189416051</v>
+        <v>5.3392959146878045</v>
       </c>
       <c r="G398" t="n">
-        <v>5.938332810303496</v>
+        <v>5.8803967219424305</v>
       </c>
       <c r="H398" t="n">
-        <v>5.995312349285458</v>
+        <v>5.9678375670320305</v>
       </c>
       <c r="I398" t="n">
-        <v>5.971266629044262</v>
+        <v>5.97524183056162</v>
       </c>
       <c r="J398" t="n">
-        <v>5.360094508587565</v>
+        <v>5.491499334559969</v>
       </c>
       <c r="K398" t="n">
-        <v>5.381030806383215</v>
+        <v>5.869646455802239</v>
       </c>
       <c r="L398" t="n">
-        <v>5.709170573245667</v>
+        <v>6.005043536006929</v>
       </c>
     </row>
     <row r="399">
@@ -15382,34 +15382,34 @@
         <v>3.6756634192317015</v>
       </c>
       <c r="C403" t="n">
-        <v>3.6900204018965264</v>
+        <v>3.6614008664639615</v>
       </c>
       <c r="D403" t="n">
-        <v>3.915040937545507</v>
+        <v>3.8715005938912856</v>
       </c>
       <c r="E403" t="n">
-        <v>4.033309999210821</v>
+        <v>3.957559712578726</v>
       </c>
       <c r="F403" t="n">
-        <v>3.7789872945803467</v>
+        <v>3.6614008664639615</v>
       </c>
       <c r="G403" t="n">
-        <v>4.0721880271114195</v>
+        <v>4.032458585717995</v>
       </c>
       <c r="H403" t="n">
-        <v>4.111261518585335</v>
+        <v>4.092420796296114</v>
       </c>
       <c r="I403" t="n">
-        <v>4.094772261886962</v>
+        <v>4.097498240464022</v>
       </c>
       <c r="J403" t="n">
-        <v>3.6756634192317015</v>
+        <v>3.7657737542572214</v>
       </c>
       <c r="K403" t="n">
-        <v>3.6900204018965264</v>
+        <v>4.025086633612449</v>
       </c>
       <c r="L403" t="n">
-        <v>3.915040937545507</v>
+        <v>4.11793464104624</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>2.174655291692251</v>
+        <v>2.153124051180446</v>
       </c>
       <c r="C406" t="n">
-        <v>2.453924500548229</v>
+        <v>2.421593384662255</v>
       </c>
       <c r="D406" t="n">
-        <v>2.3784770023146122</v>
+        <v>2.3272832754216806</v>
       </c>
       <c r="E406" t="n">
-        <v>2.1833060406009768</v>
+        <v>2.1603091154004392</v>
       </c>
       <c r="F406" t="n">
-        <v>2.3009018469292966</v>
+        <v>2.278144156683016</v>
       </c>
       <c r="G406" t="n">
-        <v>2.2163658566528297</v>
+        <v>2.2145015903232332</v>
       </c>
       <c r="H406" t="n">
-        <v>2.376675237645706</v>
+        <v>2.3713283202130255</v>
       </c>
       <c r="I406" t="n">
-        <v>2.475382926395339</v>
+        <v>2.421593384662255</v>
       </c>
       <c r="J406" t="n">
-        <v>2.174655291692251</v>
+        <v>2.4065897085357904</v>
       </c>
       <c r="K406" t="n">
-        <v>2.453924500548229</v>
+        <v>2.378588971372078</v>
       </c>
       <c r="L406" t="n">
-        <v>2.3784770023146122</v>
+        <v>2.153124051180446</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>2.653580887537708</v>
+        <v>2.627307809443275</v>
       </c>
       <c r="C407" t="n">
-        <v>2.9943537161920033</v>
+        <v>2.9549022999075283</v>
       </c>
       <c r="D407" t="n">
-        <v>2.9022903716747823</v>
+        <v>2.8398222206239576</v>
       </c>
       <c r="E407" t="n">
-        <v>2.6641367958946685</v>
+        <v>2.636075244522638</v>
       </c>
       <c r="F407" t="n">
-        <v>2.80763079483764</v>
+        <v>2.779861165272561</v>
       </c>
       <c r="G407" t="n">
-        <v>2.704477394405085</v>
+        <v>2.702202559620742</v>
       </c>
       <c r="H407" t="n">
-        <v>2.9000918033281047</v>
+        <v>2.893567331168859</v>
       </c>
       <c r="I407" t="n">
-        <v>3.0205379436059148</v>
+        <v>2.9549022999075283</v>
       </c>
       <c r="J407" t="n">
-        <v>2.653580887537708</v>
+        <v>2.9365943554879737</v>
       </c>
       <c r="K407" t="n">
-        <v>2.9943537161920033</v>
+        <v>2.9024269997426986</v>
       </c>
       <c r="L407" t="n">
-        <v>2.9022903716747823</v>
+        <v>2.627307809443275</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>2.4158513308140095</v>
+        <v>2.3919320107069404</v>
       </c>
       <c r="C410" t="n">
-        <v>2.726094932385034</v>
+        <v>2.6901778977919095</v>
       </c>
       <c r="D410" t="n">
-        <v>2.6422793779334435</v>
+        <v>2.585407636597659</v>
       </c>
       <c r="E410" t="n">
-        <v>2.4254615542565583</v>
+        <v>2.3999139869880395</v>
       </c>
       <c r="F410" t="n">
-        <v>2.5561001829632466</v>
+        <v>2.530818384750093</v>
       </c>
       <c r="G410" t="n">
-        <v>2.462188110833341</v>
+        <v>2.4601170744210172</v>
       </c>
       <c r="H410" t="n">
-        <v>2.6402777753852975</v>
+        <v>2.6343378189955007</v>
       </c>
       <c r="I410" t="n">
-        <v>2.7499333617848376</v>
+        <v>2.6901778977919095</v>
       </c>
       <c r="J410" t="n">
-        <v>2.4158513308140095</v>
+        <v>2.6735101293066266</v>
       </c>
       <c r="K410" t="n">
-        <v>2.726094932385034</v>
+        <v>2.6424037657375807</v>
       </c>
       <c r="L410" t="n">
-        <v>2.6422793779334435</v>
+        <v>2.3919320107069404</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.6417232966069277</v>
+        <v>3.6060201270323495</v>
       </c>
       <c r="C414" t="n">
-        <v>4.109393362663414</v>
+        <v>4.055648572497719</v>
       </c>
       <c r="D414" t="n">
-        <v>3.9830474019781854</v>
+        <v>3.89769940467449</v>
       </c>
       <c r="E414" t="n">
-        <v>3.6562100219074187</v>
+        <v>3.6180535656895927</v>
       </c>
       <c r="F414" t="n">
-        <v>3.8531384220658946</v>
+        <v>3.8154019396960512</v>
       </c>
       <c r="G414" t="n">
-        <v>3.7115726822598485</v>
+        <v>3.7088143164220706</v>
       </c>
       <c r="H414" t="n">
-        <v>3.9800301291281728</v>
+        <v>3.9714653903948918</v>
       </c>
       <c r="I414" t="n">
-        <v>4.145328092003953</v>
+        <v>4.055648572497719</v>
       </c>
       <c r="J414" t="n">
-        <v>3.6417232966069277</v>
+        <v>4.030520638943754</v>
       </c>
       <c r="K414" t="n">
-        <v>4.109393362663414</v>
+        <v>3.9836254209331</v>
       </c>
       <c r="L414" t="n">
-        <v>3.9830474019781854</v>
+        <v>3.6060201270323495</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>4.34195316139002</v>
+        <v>4.298963526128732</v>
       </c>
       <c r="C416" t="n">
-        <v>4.899546739049638</v>
+        <v>4.834993891815109</v>
       </c>
       <c r="D416" t="n">
-        <v>4.748907001006603</v>
+        <v>4.646692748855805</v>
       </c>
       <c r="E416" t="n">
-        <v>4.359225391483739</v>
+        <v>4.313309345635838</v>
       </c>
       <c r="F416" t="n">
-        <v>4.594019147075287</v>
+        <v>4.548580761742098</v>
       </c>
       <c r="G416" t="n">
-        <v>4.425233173668664</v>
+        <v>4.4215109483052295</v>
       </c>
       <c r="H416" t="n">
-        <v>4.745309567505246</v>
+        <v>4.734633822646183</v>
       </c>
       <c r="I416" t="n">
-        <v>4.942390991332403</v>
+        <v>4.834993891815109</v>
       </c>
       <c r="J416" t="n">
-        <v>4.34195316139002</v>
+        <v>4.805037300883826</v>
       </c>
       <c r="K416" t="n">
-        <v>4.899546739049638</v>
+        <v>4.749130560301219</v>
       </c>
       <c r="L416" t="n">
-        <v>4.748907001006603</v>
+        <v>4.298963526128732</v>
       </c>
     </row>
     <row r="417">
@@ -16028,34 +16028,34 @@
         <v>1.9444446844444159</v>
       </c>
       <c r="C420" t="n">
-        <v>2.21487446739431</v>
+        <v>2.2472087148142874</v>
       </c>
       <c r="D420" t="n">
-        <v>1.97239888755425</v>
+        <v>2.0158600159608993</v>
       </c>
       <c r="E420" t="n">
-        <v>2.189361684813335</v>
+        <v>2.1822291845425017</v>
       </c>
       <c r="F420" t="n">
-        <v>1.9596779698121571</v>
+        <v>2.0226133164547995</v>
       </c>
       <c r="G420" t="n">
-        <v>1.9924631319866737</v>
+        <v>2.0080379423456742</v>
       </c>
       <c r="H420" t="n">
-        <v>2.179665115560996</v>
+        <v>2.2183101345886254</v>
       </c>
       <c r="I420" t="n">
-        <v>2.152079571008363</v>
+        <v>2.170461621601013</v>
       </c>
       <c r="J420" t="n">
-        <v>1.9444446844444159</v>
+        <v>1.9784273338461253</v>
       </c>
       <c r="K420" t="n">
-        <v>2.21487446739431</v>
+        <v>2.1409577120336936</v>
       </c>
       <c r="L420" t="n">
-        <v>1.97239888755425</v>
+        <v>2.124633693188541</v>
       </c>
     </row>
     <row r="421">
@@ -16142,34 +16142,34 @@
         <v>2.323986161504283</v>
       </c>
       <c r="C423" t="n">
-        <v>2.647201873559231</v>
+        <v>2.6858475311846903</v>
       </c>
       <c r="D423" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.4093412469388524</v>
       </c>
       <c r="E423" t="n">
-        <v>2.616709181155078</v>
+        <v>2.6081844686451525</v>
       </c>
       <c r="F423" t="n">
-        <v>2.342192873514191</v>
+        <v>2.4174127426300704</v>
       </c>
       <c r="G423" t="n">
-        <v>2.381377461178623</v>
+        <v>2.399992361377089</v>
       </c>
       <c r="H423" t="n">
-        <v>2.6051199120250375</v>
+        <v>2.6513081580316045</v>
       </c>
       <c r="I423" t="n">
-        <v>2.572149869569859</v>
+        <v>2.5941199629024934</v>
       </c>
       <c r="J423" t="n">
-        <v>2.323986161504283</v>
+        <v>2.3646019772035554</v>
       </c>
       <c r="K423" t="n">
-        <v>2.647201873559231</v>
+        <v>2.5588571045176507</v>
       </c>
       <c r="L423" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.5393467557791323</v>
       </c>
     </row>
     <row r="424">
@@ -16180,34 +16180,34 @@
         <v>2.323986161504283</v>
       </c>
       <c r="C424" t="n">
-        <v>2.647201873559231</v>
+        <v>2.6858475311846903</v>
       </c>
       <c r="D424" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.4093412469388524</v>
       </c>
       <c r="E424" t="n">
-        <v>2.616709181155078</v>
+        <v>2.6081844686451525</v>
       </c>
       <c r="F424" t="n">
-        <v>2.342192873514191</v>
+        <v>2.4174127426300704</v>
       </c>
       <c r="G424" t="n">
-        <v>2.381377461178623</v>
+        <v>2.399992361377089</v>
       </c>
       <c r="H424" t="n">
-        <v>2.6051199120250375</v>
+        <v>2.6513081580316045</v>
       </c>
       <c r="I424" t="n">
-        <v>2.572149869569859</v>
+        <v>2.5941199629024934</v>
       </c>
       <c r="J424" t="n">
-        <v>2.323986161504283</v>
+        <v>2.3646019772035554</v>
       </c>
       <c r="K424" t="n">
-        <v>2.647201873559231</v>
+        <v>2.5588571045176507</v>
       </c>
       <c r="L424" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.5393467557791323</v>
       </c>
     </row>
     <row r="425">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.2637077435496757</v>
+        <v>2.2412947955937383</v>
       </c>
       <c r="C425" t="n">
-        <v>2.093146473474583</v>
+        <v>2.08862145018018</v>
       </c>
       <c r="D425" t="n">
-        <v>2.0342096186854186</v>
+        <v>2.042993454792745</v>
       </c>
       <c r="E425" t="n">
-        <v>2.187213765550167</v>
+        <v>2.1925567173748597</v>
       </c>
       <c r="F425" t="n">
-        <v>2.093140016615764</v>
+        <v>2.0816477552300277</v>
       </c>
       <c r="G425" t="n">
-        <v>2.1106770146755394</v>
+        <v>2.073570407669455</v>
       </c>
       <c r="H425" t="n">
-        <v>2.1450414144211223</v>
+        <v>2.1326801690379567</v>
       </c>
       <c r="I425" t="n">
-        <v>2.2296192531503825</v>
+        <v>2.193971269380937</v>
       </c>
       <c r="J425" t="n">
-        <v>2.2637077435496757</v>
+        <v>2.3321203342142898</v>
       </c>
       <c r="K425" t="n">
-        <v>2.093146473474583</v>
+        <v>2.0804899980830287</v>
       </c>
       <c r="L425" t="n">
-        <v>2.0342096186854186</v>
+        <v>2.007901779138809</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>2.323986161504283</v>
       </c>
       <c r="C428" t="n">
-        <v>2.647201873559231</v>
+        <v>2.6858475311846903</v>
       </c>
       <c r="D428" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.4093412469388524</v>
       </c>
       <c r="E428" t="n">
-        <v>2.616709181155078</v>
+        <v>2.6081844686451525</v>
       </c>
       <c r="F428" t="n">
-        <v>2.342192873514191</v>
+        <v>2.4174127426300704</v>
       </c>
       <c r="G428" t="n">
-        <v>2.381377461178623</v>
+        <v>2.399992361377089</v>
       </c>
       <c r="H428" t="n">
-        <v>2.6051199120250375</v>
+        <v>2.6513081580316045</v>
       </c>
       <c r="I428" t="n">
-        <v>2.572149869569859</v>
+        <v>2.5941199629024934</v>
       </c>
       <c r="J428" t="n">
-        <v>2.323986161504283</v>
+        <v>2.3646019772035554</v>
       </c>
       <c r="K428" t="n">
-        <v>2.647201873559231</v>
+        <v>2.5588571045176507</v>
       </c>
       <c r="L428" t="n">
-        <v>2.3573968219889223</v>
+        <v>2.5393467557791323</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>5.919088614469899</v>
+        <v>5.86048377670287</v>
       </c>
       <c r="C429" t="n">
-        <v>6.108760520644465</v>
+        <v>6.025021125165993</v>
       </c>
       <c r="D429" t="n">
-        <v>5.837683470219767</v>
+        <v>5.698053515206537</v>
       </c>
       <c r="E429" t="n">
-        <v>6.444632339684833</v>
+        <v>6.294726605337758</v>
       </c>
       <c r="F429" t="n">
-        <v>6.380649230025637</v>
+        <v>6.158950591410458</v>
       </c>
       <c r="G429" t="n">
-        <v>6.701761358907438</v>
+        <v>6.408534004490233</v>
       </c>
       <c r="H429" t="n">
-        <v>6.589274963533937</v>
+        <v>6.264039333069845</v>
       </c>
       <c r="I429" t="n">
-        <v>5.861264215903154</v>
+        <v>5.717068156008711</v>
       </c>
       <c r="J429" t="n">
-        <v>5.919088614469899</v>
+        <v>5.698053515206537</v>
       </c>
       <c r="K429" t="n">
-        <v>6.108760520644465</v>
+        <v>6.408534004490233</v>
       </c>
       <c r="L429" t="n">
-        <v>5.837683470219767</v>
+        <v>6.075229635706796</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>1.149076088361059</v>
+        <v>1.160682917536423</v>
       </c>
       <c r="C446" t="n">
-        <v>1.2546622555598617</v>
+        <v>1.2733435715646229</v>
       </c>
       <c r="D446" t="n">
-        <v>1.2686401441878734</v>
+        <v>1.2560345285436925</v>
       </c>
       <c r="E446" t="n">
-        <v>1.1855179551308133</v>
+        <v>1.182643529354157</v>
       </c>
       <c r="F446" t="n">
-        <v>1.3029649918597186</v>
+        <v>1.3014148333714821</v>
       </c>
       <c r="G446" t="n">
-        <v>1.1396728324686025</v>
+        <v>1.1407463345857038</v>
       </c>
       <c r="H446" t="n">
-        <v>1.1711486476260393</v>
+        <v>1.1780545575634904</v>
       </c>
       <c r="I446" t="n">
-        <v>1.239092512613121</v>
+        <v>1.2456540776558207</v>
       </c>
       <c r="J446" t="n">
-        <v>1.149076088361059</v>
+        <v>1.1866054845830218</v>
       </c>
       <c r="K446" t="n">
-        <v>1.2546622555598617</v>
+        <v>1.2464577250417526</v>
       </c>
       <c r="L446" t="n">
-        <v>1.2686401441878734</v>
+        <v>1.316735082110873</v>
       </c>
     </row>
     <row r="447">
@@ -17054,34 +17054,34 @@
         <v>0.9430725103906871</v>
       </c>
       <c r="C447" t="n">
-        <v>1.0297294452719372</v>
+        <v>1.0346110039890448</v>
       </c>
       <c r="D447" t="n">
-        <v>1.0412014118822444</v>
+        <v>1.0205471434741882</v>
       </c>
       <c r="E447" t="n">
-        <v>0.9729811675509746</v>
+        <v>0.9609158412468215</v>
       </c>
       <c r="F447" t="n">
-        <v>1.0693725840009123</v>
+        <v>1.0574193308301247</v>
       </c>
       <c r="G447" t="n">
-        <v>0.9353550474392185</v>
+        <v>0.9268737337499023</v>
       </c>
       <c r="H447" t="n">
-        <v>0.9611879546920844</v>
+        <v>0.9571872319243704</v>
       </c>
       <c r="I447" t="n">
-        <v>1.0169510081295685</v>
+        <v>1.01211286936719</v>
       </c>
       <c r="J447" t="n">
-        <v>0.9430725103906871</v>
+        <v>0.9641349900835009</v>
       </c>
       <c r="K447" t="n">
-        <v>1.0297294452719372</v>
+        <v>1.0127658450819772</v>
       </c>
       <c r="L447" t="n">
-        <v>1.0412014118822444</v>
+        <v>1.0698672657658208</v>
       </c>
     </row>
     <row r="448">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1291612441023444</v>
       </c>
       <c r="C449" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.238762274962587</v>
       </c>
       <c r="D449" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2219233086467747</v>
       </c>
       <c r="E449" t="n">
-        <v>1.1767389195231281</v>
+        <v>1.1505254525237052</v>
       </c>
       <c r="F449" t="n">
-        <v>1.293316233686468</v>
+        <v>1.2660711811474332</v>
       </c>
       <c r="G449" t="n">
-        <v>1.1312332906345446</v>
+        <v>1.1097660962392526</v>
       </c>
       <c r="H449" t="n">
-        <v>1.1624760200754367</v>
+        <v>1.1460611074230656</v>
       </c>
       <c r="I449" t="n">
-        <v>1.229916744973021</v>
+        <v>1.2118247686736257</v>
       </c>
       <c r="J449" t="n">
-        <v>1.1405669132346912</v>
+        <v>1.1543798094955458</v>
       </c>
       <c r="K449" t="n">
-        <v>1.2453711903596192</v>
+        <v>1.2126065907099528</v>
       </c>
       <c r="L449" t="n">
-        <v>1.259245569478176</v>
+        <v>1.2809753645942317</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.2462944065276</v>
+        <v>2.2689842490177776</v>
       </c>
       <c r="C450" t="n">
-        <v>2.452701640293684</v>
+        <v>2.48922118505936</v>
       </c>
       <c r="D450" t="n">
-        <v>2.480026595845542</v>
+        <v>2.4553842556217993</v>
       </c>
       <c r="E450" t="n">
-        <v>2.317533519687704</v>
+        <v>2.3119143908854585</v>
       </c>
       <c r="F450" t="n">
-        <v>2.547127211819678</v>
+        <v>2.5440968534503523</v>
       </c>
       <c r="G450" t="n">
-        <v>2.227912263405555</v>
+        <v>2.2300108205206715</v>
       </c>
       <c r="H450" t="n">
-        <v>2.2894433911047596</v>
+        <v>2.3029435474665596</v>
       </c>
       <c r="I450" t="n">
-        <v>2.4222648164431235</v>
+        <v>2.4350918232904304</v>
       </c>
       <c r="J450" t="n">
-        <v>2.2462944065276</v>
+        <v>2.3196594984198127</v>
       </c>
       <c r="K450" t="n">
-        <v>2.452701640293684</v>
+        <v>2.4366628494793177</v>
       </c>
       <c r="L450" t="n">
-        <v>2.480026595845542</v>
+        <v>2.574045948552479</v>
       </c>
     </row>
     <row r="451">
@@ -17244,34 +17244,34 @@
         <v>1.6121031684300346</v>
       </c>
       <c r="C452" t="n">
-        <v>1.7602359129955876</v>
+        <v>1.7685805272092565</v>
       </c>
       <c r="D452" t="n">
-        <v>1.7798462754192979</v>
+        <v>1.744539540067169</v>
       </c>
       <c r="E452" t="n">
-        <v>1.6632295032986153</v>
+        <v>1.6426048423645268</v>
       </c>
       <c r="F452" t="n">
-        <v>1.8280025256869241</v>
+        <v>1.8075694443518633</v>
       </c>
       <c r="G452" t="n">
-        <v>1.5989108143541537</v>
+        <v>1.584412721662075</v>
       </c>
       <c r="H452" t="n">
-        <v>1.6430699974214789</v>
+        <v>1.6362310982077057</v>
       </c>
       <c r="I452" t="n">
-        <v>1.738392249037805</v>
+        <v>1.730121857586247</v>
       </c>
       <c r="J452" t="n">
-        <v>1.6121031684300346</v>
+        <v>1.6481077066534124</v>
       </c>
       <c r="K452" t="n">
-        <v>1.7602359129955876</v>
+        <v>1.7312380646722538</v>
       </c>
       <c r="L452" t="n">
-        <v>1.7798462754192979</v>
+        <v>1.8288481425740533</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>1.1668878328855354</v>
+        <v>1.1435500762278248</v>
       </c>
       <c r="C456" t="n">
-        <v>1.2833267373571886</v>
+        <v>1.2739176190232737</v>
       </c>
       <c r="D456" t="n">
-        <v>1.2592786100106803</v>
+        <v>1.2552521590587988</v>
       </c>
       <c r="E456" t="n">
-        <v>1.1592179884054046</v>
+        <v>1.1397466942590586</v>
       </c>
       <c r="F456" t="n">
-        <v>1.2834107556754393</v>
+        <v>1.252957365795518</v>
       </c>
       <c r="G456" t="n">
-        <v>1.2207040066895818</v>
+        <v>1.2051480197444278</v>
       </c>
       <c r="H456" t="n">
-        <v>1.2700036270882222</v>
+        <v>1.231937109388574</v>
       </c>
       <c r="I456" t="n">
-        <v>1.2730362617876794</v>
+        <v>1.2151909201418765</v>
       </c>
       <c r="J456" t="n">
-        <v>1.1668878328855354</v>
+        <v>1.2818597486267658</v>
       </c>
       <c r="K456" t="n">
-        <v>1.2833267373571886</v>
+        <v>1.275498161667119</v>
       </c>
       <c r="L456" t="n">
-        <v>1.2592786100106803</v>
+        <v>1.2590955526394711</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>3.655859601564497</v>
+        <v>3.729715351091053</v>
       </c>
       <c r="C458" t="n">
-        <v>4.020662691383071</v>
+        <v>4.154912144616809</v>
       </c>
       <c r="D458" t="n">
-        <v>3.9453199079709123</v>
+        <v>4.094034309870543</v>
       </c>
       <c r="E458" t="n">
-        <v>3.6318299786693338</v>
+        <v>3.717310531739579</v>
       </c>
       <c r="F458" t="n">
-        <v>4.020925920775673</v>
+        <v>4.086549787907262</v>
       </c>
       <c r="G458" t="n">
-        <v>3.824465675067266</v>
+        <v>3.930618486253577</v>
       </c>
       <c r="H458" t="n">
-        <v>3.978921386669098</v>
+        <v>4.017991729423753</v>
       </c>
       <c r="I458" t="n">
-        <v>3.988422631237423</v>
+        <v>3.9633736410653366</v>
       </c>
       <c r="J458" t="n">
-        <v>3.655859601564497</v>
+        <v>4.180815586292237</v>
       </c>
       <c r="K458" t="n">
-        <v>4.020662691383071</v>
+        <v>4.160067121459843</v>
       </c>
       <c r="L458" t="n">
-        <v>3.9453199079709123</v>
+        <v>4.106569628031164</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.0961859243643066</v>
       </c>
       <c r="C460" t="n">
-        <v>1.9976602275926874</v>
+        <v>1.9871644342881927</v>
       </c>
       <c r="D460" t="n">
-        <v>2.060198899610932</v>
+        <v>2.025471217210263</v>
       </c>
       <c r="E460" t="n">
-        <v>2.0881536875617877</v>
+        <v>2.0489227443351705</v>
       </c>
       <c r="F460" t="n">
-        <v>1.8486409878415324</v>
+        <v>1.870012359903228</v>
       </c>
       <c r="G460" t="n">
-        <v>1.8590054875572644</v>
+        <v>1.8773211746245895</v>
       </c>
       <c r="H460" t="n">
-        <v>1.8187145019387423</v>
+        <v>1.8047676979562228</v>
       </c>
       <c r="I460" t="n">
-        <v>1.8784672785132484</v>
+        <v>1.8710529898397568</v>
       </c>
       <c r="J460" t="n">
-        <v>2.0961859243643066</v>
+        <v>2.058960332984941</v>
       </c>
       <c r="K460" t="n">
-        <v>1.9976602275926874</v>
+        <v>1.9707415873461018</v>
       </c>
       <c r="L460" t="n">
-        <v>2.060198899610932</v>
+        <v>2.0857830163584063</v>
       </c>
     </row>
     <row r="461">
@@ -17586,34 +17586,34 @@
         <v>2.3976115211054863</v>
       </c>
       <c r="C461" t="n">
-        <v>2.6368592456925004</v>
+        <v>2.6709451766071703</v>
       </c>
       <c r="D461" t="n">
-        <v>2.587447412299379</v>
+        <v>2.631810448021273</v>
       </c>
       <c r="E461" t="n">
-        <v>2.3818522450445</v>
+        <v>2.3896372026938613</v>
       </c>
       <c r="F461" t="n">
-        <v>2.637031878641568</v>
+        <v>2.626999095303999</v>
       </c>
       <c r="G461" t="n">
-        <v>2.5081879404476304</v>
+        <v>2.5267601627976664</v>
       </c>
       <c r="H461" t="n">
-        <v>2.60948417006176</v>
+        <v>2.5829272090039894</v>
       </c>
       <c r="I461" t="n">
-        <v>2.6157153430072713</v>
+        <v>2.5478164979759783</v>
       </c>
       <c r="J461" t="n">
-        <v>2.3976115211054863</v>
+        <v>2.6875969541159077</v>
       </c>
       <c r="K461" t="n">
-        <v>2.6368592456925004</v>
+        <v>2.674259003724372</v>
       </c>
       <c r="L461" t="n">
-        <v>2.587447412299379</v>
+        <v>2.6398686563330243</v>
       </c>
     </row>
     <row r="462">
@@ -17735,37 +17735,37 @@
         <v>464.0</v>
       </c>
       <c r="B465" t="n">
-        <v>0.7859464679817606</v>
+        <v>0.794049008888789</v>
       </c>
       <c r="C465" t="n">
-        <v>0.8643728112223609</v>
+        <v>0.8845725638252406</v>
       </c>
       <c r="D465" t="n">
-        <v>0.8481754182794371</v>
+        <v>0.8716117934196849</v>
       </c>
       <c r="E465" t="n">
-        <v>0.7807805154289589</v>
+        <v>0.7914080474254428</v>
       </c>
       <c r="F465" t="n">
-        <v>0.8644294009807028</v>
+        <v>0.8700183535221304</v>
       </c>
       <c r="G465" t="n">
-        <v>0.8221938522886049</v>
+        <v>0.8368208883330974</v>
       </c>
       <c r="H465" t="n">
-        <v>0.8553991539750042</v>
+        <v>0.8554224786990704</v>
       </c>
       <c r="I465" t="n">
-        <v>0.8574417569258151</v>
+        <v>0.8437943958976005</v>
       </c>
       <c r="J465" t="n">
-        <v>0.7859464679817606</v>
+        <v>0.890087355237718</v>
       </c>
       <c r="K465" t="n">
-        <v>0.8643728112223609</v>
+        <v>0.8856700481820182</v>
       </c>
       <c r="L465" t="n">
-        <v>0.8481754182794371</v>
+        <v>0.8742805378209526</v>
       </c>
     </row>
     <row r="466">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.9765255119204597</v>
+        <v>1.956760256801255</v>
       </c>
       <c r="C466" t="n">
-        <v>2.173754807472526</v>
+        <v>2.1798357755930957</v>
       </c>
       <c r="D466" t="n">
-        <v>2.1330210403744947</v>
+        <v>2.1478967892796335</v>
       </c>
       <c r="E466" t="n">
-        <v>1.9635339947752737</v>
+        <v>1.9502521844110492</v>
       </c>
       <c r="F466" t="n">
-        <v>2.1738971213649254</v>
+        <v>2.1439701048706956</v>
       </c>
       <c r="G466" t="n">
-        <v>2.0676816946142225</v>
+        <v>2.0621622066411534</v>
       </c>
       <c r="H466" t="n">
-        <v>2.1511875421342435</v>
+        <v>2.108001761043936</v>
       </c>
       <c r="I466" t="n">
-        <v>2.156324351074131</v>
+        <v>2.079346892095038</v>
       </c>
       <c r="J466" t="n">
-        <v>1.9765255119204597</v>
+        <v>2.193425773867366</v>
       </c>
       <c r="K466" t="n">
-        <v>2.173754807472526</v>
+        <v>2.182540285954249</v>
       </c>
       <c r="L466" t="n">
-        <v>2.1330210403744947</v>
+        <v>2.154473326648869</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>3.598603972526564</v>
+        <v>3.562974230224321</v>
       </c>
       <c r="C468" t="n">
-        <v>3.7187326847116418</v>
+        <v>3.6645413415853407</v>
       </c>
       <c r="D468" t="n">
-        <v>3.4437324189679694</v>
+        <v>3.4501371496393225</v>
       </c>
       <c r="E468" t="n">
-        <v>3.556647922273602</v>
+        <v>3.5888361331553127</v>
       </c>
       <c r="F468" t="n">
-        <v>3.4565708847070336</v>
+        <v>3.510434468499543</v>
       </c>
       <c r="G468" t="n">
-        <v>3.9204412221189497</v>
+        <v>3.987348332405413</v>
       </c>
       <c r="H468" t="n">
-        <v>3.870971738611651</v>
+        <v>3.8720515110814078</v>
       </c>
       <c r="I468" t="n">
-        <v>3.6293415535979268</v>
+        <v>3.562974230224321</v>
       </c>
       <c r="J468" t="n">
-        <v>3.598603972526564</v>
+        <v>3.769856603732419</v>
       </c>
       <c r="K468" t="n">
-        <v>3.7187326847116418</v>
+        <v>3.9824073812816607</v>
       </c>
       <c r="L468" t="n">
-        <v>3.4437324189679694</v>
+        <v>3.5748640229393795</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.5977041548531774</v>
       </c>
       <c r="C471" t="n">
-        <v>1.4194531163453283</v>
+        <v>1.4249322139743235</v>
       </c>
       <c r="D471" t="n">
-        <v>1.4405554706921464</v>
+        <v>1.456756496295984</v>
       </c>
       <c r="E471" t="n">
-        <v>1.4642896603019775</v>
+        <v>1.4462588046479188</v>
       </c>
       <c r="F471" t="n">
-        <v>1.6116433648752102</v>
+        <v>1.6265903267045103</v>
       </c>
       <c r="G471" t="n">
-        <v>1.5833553965438494</v>
+        <v>1.5717173990335584</v>
       </c>
       <c r="H471" t="n">
-        <v>1.5891270447167616</v>
+        <v>1.6185179179857436</v>
       </c>
       <c r="I471" t="n">
-        <v>1.480409543476525</v>
+        <v>1.4874862510387625</v>
       </c>
       <c r="J471" t="n">
-        <v>1.5977041548531774</v>
+        <v>1.5899152252494706</v>
       </c>
       <c r="K471" t="n">
-        <v>1.4194531163453283</v>
+        <v>1.5928271573292776</v>
       </c>
       <c r="L471" t="n">
-        <v>1.4405554706921464</v>
+        <v>1.6265903267045103</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>6.6738037898805125</v>
+        <v>6.60772652463417</v>
       </c>
       <c r="C473" t="n">
-        <v>6.896588920107375</v>
+        <v>6.796088172068378</v>
       </c>
       <c r="D473" t="n">
-        <v>6.3865861996775095</v>
+        <v>6.398464115712163</v>
       </c>
       <c r="E473" t="n">
-        <v>6.595994047734853</v>
+        <v>6.65568880865099</v>
       </c>
       <c r="F473" t="n">
-        <v>6.410395821953189</v>
+        <v>6.510288722754556</v>
       </c>
       <c r="G473" t="n">
-        <v>7.270668205207206</v>
+        <v>7.394751024436199</v>
       </c>
       <c r="H473" t="n">
-        <v>7.178924398710308</v>
+        <v>7.180926894582566</v>
       </c>
       <c r="I473" t="n">
-        <v>6.730808280125043</v>
+        <v>6.60772652463417</v>
       </c>
       <c r="J473" t="n">
-        <v>6.6738037898805125</v>
+        <v>6.9914009658671254</v>
       </c>
       <c r="K473" t="n">
-        <v>6.896588920107375</v>
+        <v>7.385587765965121</v>
       </c>
       <c r="L473" t="n">
-        <v>6.3865861996775095</v>
+        <v>6.6297767819807545</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.772015704007488</v>
+        <v>0.7799746287910703</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7977871567755908</v>
+        <v>0.8022087974553227</v>
       </c>
       <c r="D475" t="n">
-        <v>0.7387908000269238</v>
+        <v>0.7552733387012985</v>
       </c>
       <c r="E475" t="n">
-        <v>0.7630147886745698</v>
+        <v>0.7856360865606262</v>
       </c>
       <c r="F475" t="n">
-        <v>0.741545061746632</v>
+        <v>0.7684730914517237</v>
       </c>
       <c r="G475" t="n">
-        <v>0.8410600925305891</v>
+        <v>0.8728748327862031</v>
       </c>
       <c r="H475" t="n">
-        <v>0.8304473053419059</v>
+        <v>0.8476350781311942</v>
       </c>
       <c r="I475" t="n">
-        <v>0.7786098987206214</v>
+        <v>0.7799746287910703</v>
       </c>
       <c r="J475" t="n">
-        <v>0.772015704007488</v>
+        <v>0.8252634779529782</v>
       </c>
       <c r="K475" t="n">
-        <v>0.7977871567755908</v>
+        <v>0.8717932037118383</v>
       </c>
       <c r="L475" t="n">
-        <v>0.7387908000269238</v>
+        <v>0.7825774364624428</v>
       </c>
     </row>
     <row r="476">
@@ -18229,37 +18229,37 @@
         <v>477.0</v>
       </c>
       <c r="B478" t="n">
-        <v>1.13173870301659</v>
+        <v>1.1434061123260395</v>
       </c>
       <c r="C478" t="n">
-        <v>1.1695184403706673</v>
+        <v>1.1760003575934765</v>
       </c>
       <c r="D478" t="n">
-        <v>1.083032556828598</v>
+        <v>1.1071951831131752</v>
       </c>
       <c r="E478" t="n">
-        <v>1.1185437845816926</v>
+        <v>1.1517055430760108</v>
       </c>
       <c r="F478" t="n">
-        <v>1.0870701749369474</v>
+        <v>1.1265453996701182</v>
       </c>
       <c r="G478" t="n">
-        <v>1.232954528435797</v>
+        <v>1.2795934409433969</v>
       </c>
       <c r="H478" t="n">
-        <v>1.2173966816899815</v>
+        <v>1.242593148009667</v>
       </c>
       <c r="I478" t="n">
-        <v>1.1414054822457442</v>
+        <v>1.1434061123260395</v>
       </c>
       <c r="J478" t="n">
-        <v>1.13173870301659</v>
+        <v>1.2097974346081501</v>
       </c>
       <c r="K478" t="n">
-        <v>1.1695184403706673</v>
+        <v>1.278007823605029</v>
       </c>
       <c r="L478" t="n">
-        <v>1.083032556828598</v>
+        <v>1.1472217059246022</v>
       </c>
     </row>
     <row r="479">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>1.870269079395978</v>
+        <v>1.8893534577571611</v>
       </c>
       <c r="C480" t="n">
-        <v>1.932702461247015</v>
+        <v>1.9432118807051901</v>
       </c>
       <c r="D480" t="n">
-        <v>1.7897791227044406</v>
+        <v>1.8295188604260804</v>
       </c>
       <c r="E480" t="n">
-        <v>1.8484636503794012</v>
+        <v>1.9030673587201141</v>
       </c>
       <c r="F480" t="n">
-        <v>1.7964515394754914</v>
+        <v>1.861492975454937</v>
       </c>
       <c r="G480" t="n">
-        <v>2.037534569320916</v>
+        <v>2.1143881129440882</v>
       </c>
       <c r="H480" t="n">
-        <v>2.01182425329733</v>
+        <v>2.0532491784581084</v>
       </c>
       <c r="I480" t="n">
-        <v>1.8862440374330625</v>
+        <v>1.8893534577571611</v>
       </c>
       <c r="J480" t="n">
-        <v>1.870269079395978</v>
+        <v>1.9990578514686825</v>
       </c>
       <c r="K480" t="n">
-        <v>1.932702461247015</v>
+        <v>2.1117680538341794</v>
       </c>
       <c r="L480" t="n">
-        <v>1.7897791227044406</v>
+        <v>1.8956583085718686</v>
       </c>
     </row>
     <row r="481">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>1.0149514171618692</v>
+        <v>1.0253080642757657</v>
       </c>
       <c r="C482" t="n">
-        <v>1.0352958683889297</v>
+        <v>1.0371793955869397</v>
       </c>
       <c r="D482" t="n">
-        <v>1.062581517856344</v>
+        <v>1.0611043564629252</v>
       </c>
       <c r="E482" t="n">
-        <v>0.9037808670558094</v>
+        <v>0.9135863591325629</v>
       </c>
       <c r="F482" t="n">
-        <v>1.0404742682513999</v>
+        <v>1.0390789911795602</v>
       </c>
       <c r="G482" t="n">
-        <v>1.046384185829105</v>
+        <v>1.0611043564629252</v>
       </c>
       <c r="H482" t="n">
-        <v>0.9548407346400481</v>
+        <v>0.9471404495257443</v>
       </c>
       <c r="I482" t="n">
-        <v>0.9065013238163017</v>
+        <v>0.9295529151312782</v>
       </c>
       <c r="J482" t="n">
-        <v>1.0149514171618692</v>
+        <v>1.005916895883575</v>
       </c>
       <c r="K482" t="n">
-        <v>1.0352958683889297</v>
+        <v>0.9434652923910779</v>
       </c>
       <c r="L482" t="n">
-        <v>1.062581517856344</v>
+        <v>1.0197791412523523</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>1.2978863380196757</v>
       </c>
       <c r="C484" t="n">
-        <v>1.3239021500631187</v>
+        <v>1.3129136642055486</v>
       </c>
       <c r="D484" t="n">
-        <v>1.3587941370774124</v>
+        <v>1.3431990788438608</v>
       </c>
       <c r="E484" t="n">
-        <v>1.1557251116466352</v>
+        <v>1.1564634039593171</v>
       </c>
       <c r="F484" t="n">
-        <v>1.330524116711628</v>
+        <v>1.3153182675177892</v>
       </c>
       <c r="G484" t="n">
-        <v>1.3380815240448525</v>
+        <v>1.3431990788438608</v>
       </c>
       <c r="H484" t="n">
-        <v>1.221018783282652</v>
+        <v>1.1989378533695525</v>
       </c>
       <c r="I484" t="n">
-        <v>1.1592039418673856</v>
+        <v>1.1766746708146074</v>
       </c>
       <c r="J484" t="n">
-        <v>1.2978863380196757</v>
+        <v>1.2733400251490743</v>
       </c>
       <c r="K484" t="n">
-        <v>1.3239021500631187</v>
+        <v>1.1942856552630952</v>
       </c>
       <c r="L484" t="n">
-        <v>1.3587941370774124</v>
+        <v>1.2908875501372068</v>
       </c>
     </row>
     <row r="485">
@@ -18498,34 +18498,34 @@
         <v>1.8030199633098924</v>
       </c>
       <c r="C485" t="n">
-        <v>1.8391610544840373</v>
+        <v>1.8238958815737671</v>
       </c>
       <c r="D485" t="n">
-        <v>1.887632902367351</v>
+        <v>1.8659682923777146</v>
       </c>
       <c r="E485" t="n">
-        <v>1.6055299970079873</v>
+        <v>1.6065556305627366</v>
       </c>
       <c r="F485" t="n">
-        <v>1.8483602714831557</v>
+        <v>1.8272363495707</v>
       </c>
       <c r="G485" t="n">
-        <v>1.858858999987733</v>
+        <v>1.8659682923777146</v>
       </c>
       <c r="H485" t="n">
-        <v>1.6962357776213854</v>
+        <v>1.6655610133716046</v>
       </c>
       <c r="I485" t="n">
-        <v>1.6103627779328171</v>
+        <v>1.634633064276597</v>
       </c>
       <c r="J485" t="n">
-        <v>1.8030199633098924</v>
+        <v>1.7689202961550066</v>
       </c>
       <c r="K485" t="n">
-        <v>1.8391610544840373</v>
+        <v>1.6590981931588473</v>
       </c>
       <c r="L485" t="n">
-        <v>1.887632902367351</v>
+        <v>1.793297267337673</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>3.9493443642291415</v>
+        <v>3.910241944781328</v>
       </c>
       <c r="C486" t="n">
-        <v>4.0285079994912145</v>
+        <v>3.955515925598144</v>
       </c>
       <c r="D486" t="n">
-        <v>4.134680988785418</v>
+        <v>4.046759122451973</v>
       </c>
       <c r="E486" t="n">
-        <v>3.5167613084240195</v>
+        <v>3.484166199534925</v>
       </c>
       <c r="F486" t="n">
-        <v>4.0486580125526865</v>
+        <v>3.962760458849361</v>
       </c>
       <c r="G486" t="n">
-        <v>4.0716544824170615</v>
+        <v>4.046759122451973</v>
       </c>
       <c r="H486" t="n">
-        <v>3.7154437250129693</v>
+        <v>3.612132238470822</v>
       </c>
       <c r="I486" t="n">
-        <v>3.5273470570554393</v>
+        <v>3.5450582369188077</v>
       </c>
       <c r="J486" t="n">
-        <v>3.9493443642291415</v>
+        <v>3.83628938101307</v>
       </c>
       <c r="K486" t="n">
-        <v>4.0285079994912145</v>
+        <v>3.5981162036005747</v>
       </c>
       <c r="L486" t="n">
-        <v>4.134680988785418</v>
+        <v>3.889156158500217</v>
       </c>
     </row>
     <row r="487">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>3.039616281828229</v>
+        <v>3.070012444646511</v>
       </c>
       <c r="C491" t="n">
-        <v>3.100544641697469</v>
+        <v>3.1055579905459956</v>
       </c>
       <c r="D491" t="n">
-        <v>3.182260774094556</v>
+        <v>3.177194926005816</v>
       </c>
       <c r="E491" t="n">
-        <v>2.7066783614033265</v>
+        <v>2.7354914971603206</v>
       </c>
       <c r="F491" t="n">
-        <v>3.1160531165560945</v>
+        <v>3.1112458245856702</v>
       </c>
       <c r="G491" t="n">
-        <v>3.1337523693377576</v>
+        <v>3.177194926005816</v>
       </c>
       <c r="H491" t="n">
-        <v>2.85959445396965</v>
+        <v>2.835960301283717</v>
       </c>
       <c r="I491" t="n">
-        <v>2.7148256919290823</v>
+        <v>2.7832991047683087</v>
       </c>
       <c r="J491" t="n">
-        <v>3.039616281828229</v>
+        <v>3.011950745578229</v>
       </c>
       <c r="K491" t="n">
-        <v>3.100544641697469</v>
+        <v>2.8249560201973036</v>
       </c>
       <c r="L491" t="n">
-        <v>3.182260774094556</v>
+        <v>3.053457554385932</v>
       </c>
     </row>
     <row r="492">
@@ -18799,37 +18799,37 @@
         <v>492.0</v>
       </c>
       <c r="B493" t="n">
-        <v>1.3199643678931448</v>
+        <v>1.3332973413062068</v>
       </c>
       <c r="C493" t="n">
-        <v>1.2560887525321227</v>
+        <v>1.2505205659705898</v>
       </c>
       <c r="D493" t="n">
-        <v>1.4016606783658314</v>
+        <v>1.3814691378608048</v>
       </c>
       <c r="E493" t="n">
-        <v>1.3991296587552795</v>
+        <v>1.4064458238150495</v>
       </c>
       <c r="F493" t="n">
-        <v>1.4228694417964485</v>
+        <v>1.4064458238150495</v>
       </c>
       <c r="G493" t="n">
-        <v>1.3746015625419523</v>
+        <v>1.3516711204626755</v>
       </c>
       <c r="H493" t="n">
-        <v>1.3332665281179832</v>
+        <v>1.3222783547609833</v>
       </c>
       <c r="I493" t="n">
-        <v>1.2478316696485738</v>
+        <v>1.2595974886202113</v>
       </c>
       <c r="J493" t="n">
-        <v>1.3199643678931448</v>
+        <v>1.2553918205012429</v>
       </c>
       <c r="K493" t="n">
-        <v>1.2560887525321227</v>
+        <v>1.3589994578209308</v>
       </c>
       <c r="L493" t="n">
-        <v>1.4016606783658314</v>
+        <v>1.3772521984829944</v>
       </c>
     </row>
     <row r="494">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.0455946550724133</v>
+        <v>1.0562639882874378</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9949963179994592</v>
+        <v>0.9906866229505248</v>
       </c>
       <c r="D494" t="n">
-        <v>1.11030945165872</v>
+        <v>1.0944266189140635</v>
       </c>
       <c r="E494" t="n">
-        <v>1.1083045334646775</v>
+        <v>1.1142136334853123</v>
       </c>
       <c r="F494" t="n">
-        <v>1.127109730683785</v>
+        <v>1.1142136334853123</v>
       </c>
       <c r="G494" t="n">
-        <v>1.0888748829956332</v>
+        <v>1.070820052152915</v>
       </c>
       <c r="H494" t="n">
-        <v>1.0561318089307465</v>
+        <v>1.0475345336380038</v>
       </c>
       <c r="I494" t="n">
-        <v>0.9884555643703979</v>
+        <v>0.9978775369516528</v>
       </c>
       <c r="J494" t="n">
-        <v>1.0455946550724133</v>
+        <v>0.9945457251770919</v>
       </c>
       <c r="K494" t="n">
-        <v>0.9949963179994592</v>
+        <v>1.0766257030049322</v>
       </c>
       <c r="L494" t="n">
-        <v>1.11030945165872</v>
+        <v>1.0910858778298513</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4.258414385076791</v>
+        <v>4.343582672778328</v>
       </c>
       <c r="C496" t="n">
-        <v>4.05234151983485</v>
+        <v>4.073914568059835</v>
       </c>
       <c r="D496" t="n">
-        <v>4.521979638947911</v>
+        <v>4.500515544650829</v>
       </c>
       <c r="E496" t="n">
-        <v>4.5138141682877535</v>
+        <v>4.581883966362373</v>
       </c>
       <c r="F496" t="n">
-        <v>4.590402473290619</v>
+        <v>4.581883966362373</v>
       </c>
       <c r="G496" t="n">
-        <v>4.434682639972259</v>
+        <v>4.403440310159728</v>
       </c>
       <c r="H496" t="n">
-        <v>4.30132926356284</v>
+        <v>4.3076852944917094</v>
       </c>
       <c r="I496" t="n">
-        <v>4.025702860954838</v>
+        <v>4.103485139245718</v>
       </c>
       <c r="J496" t="n">
-        <v>4.258414385076791</v>
+        <v>4.089784019020645</v>
       </c>
       <c r="K496" t="n">
-        <v>4.05234151983485</v>
+        <v>4.427314383994156</v>
       </c>
       <c r="L496" t="n">
-        <v>4.521979638947911</v>
+        <v>4.486777705201102</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>0.5222947793496884</v>
+        <v>0.5276792616110253</v>
       </c>
       <c r="C508" t="n">
-        <v>0.4970199300868548</v>
+        <v>0.49491868650566434</v>
       </c>
       <c r="D508" t="n">
-        <v>0.5546210735208881</v>
+        <v>0.5467442197781991</v>
       </c>
       <c r="E508" t="n">
-        <v>0.5536195780554212</v>
+        <v>0.5566292460161681</v>
       </c>
       <c r="F508" t="n">
-        <v>0.5630131382506011</v>
+        <v>0.5566292460161681</v>
       </c>
       <c r="G508" t="n">
-        <v>0.5439140913686437</v>
+        <v>0.5349510545696694</v>
       </c>
       <c r="H508" t="n">
-        <v>0.5275582917660088</v>
+        <v>0.5233182758775736</v>
       </c>
       <c r="I508" t="n">
-        <v>0.49375269697993474</v>
+        <v>0.4985110613593937</v>
       </c>
       <c r="J508" t="n">
-        <v>0.5222947793496884</v>
+        <v>0.49684658354274697</v>
       </c>
       <c r="K508" t="n">
-        <v>0.4970199300868548</v>
+        <v>0.5378513915959566</v>
       </c>
       <c r="L508" t="n">
-        <v>0.5546210735208881</v>
+        <v>0.5450752811339793</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.8206042479345177</v>
+        <v>2.848810290413863</v>
       </c>
       <c r="C510" t="n">
-        <v>2.9236841163999556</v>
+        <v>2.914524741579456</v>
       </c>
       <c r="D510" t="n">
-        <v>2.91032351565763</v>
+        <v>2.914524741579456</v>
       </c>
       <c r="E510" t="n">
-        <v>2.829898478047536</v>
+        <v>2.8964669678994523</v>
       </c>
       <c r="F510" t="n">
-        <v>2.4845192416818493</v>
+        <v>2.509338531166781</v>
       </c>
       <c r="G510" t="n">
-        <v>2.8663796760090303</v>
+        <v>2.8627664954076653</v>
       </c>
       <c r="H510" t="n">
-        <v>2.7863826865809225</v>
+        <v>2.762941894610834</v>
       </c>
       <c r="I510" t="n">
-        <v>2.5499743225127056</v>
+        <v>2.591406698829596</v>
       </c>
       <c r="J510" t="n">
-        <v>2.8206042479345177</v>
+        <v>2.8010171855613137</v>
       </c>
       <c r="K510" t="n">
-        <v>2.9236841163999556</v>
+        <v>2.665278042194644</v>
       </c>
       <c r="L510" t="n">
-        <v>2.91032351565763</v>
+        <v>2.591406698829596</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.5022812376679465</v>
+        <v>0.5074593947573068</v>
       </c>
       <c r="C517" t="n">
-        <v>0.4786728313995219</v>
+        <v>0.4810667075788819</v>
       </c>
       <c r="D517" t="n">
-        <v>0.49365814411359316</v>
+        <v>0.49034028233710786</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5003565792702738</v>
+        <v>0.4960175925521114</v>
       </c>
       <c r="F517" t="n">
-        <v>0.4429653269703785</v>
+        <v>0.45270571150932476</v>
       </c>
       <c r="G517" t="n">
-        <v>0.4454488346041804</v>
+        <v>0.45447508065343833</v>
       </c>
       <c r="H517" t="n">
-        <v>0.4357944399781551</v>
+        <v>0.4369108260089782</v>
       </c>
       <c r="I517" t="n">
-        <v>0.45011220550796655</v>
+        <v>0.45295763450509496</v>
       </c>
       <c r="J517" t="n">
-        <v>0.5022812376679465</v>
+        <v>0.49844756243304167</v>
       </c>
       <c r="K517" t="n">
-        <v>0.4786728313995219</v>
+        <v>0.4770909495735644</v>
       </c>
       <c r="L517" t="n">
-        <v>0.49365814411359316</v>
+        <v>0.5049409858036779</v>
       </c>
     </row>
     <row r="518">
@@ -19752,34 +19752,34 @@
         <v>1.8497668976568655</v>
       </c>
       <c r="C518" t="n">
-        <v>1.6433939784257212</v>
+        <v>1.6497374891391152</v>
       </c>
       <c r="D518" t="n">
-        <v>1.6678255582115025</v>
+        <v>1.686582548220597</v>
       </c>
       <c r="E518" t="n">
-        <v>1.6953041863102143</v>
+        <v>1.6744286820286522</v>
       </c>
       <c r="F518" t="n">
-        <v>1.8659052354085204</v>
+        <v>1.8832103135285188</v>
       </c>
       <c r="G518" t="n">
-        <v>1.8331543989896681</v>
+        <v>1.8196803259053884</v>
       </c>
       <c r="H518" t="n">
-        <v>1.8398366146569085</v>
+        <v>1.8738643564644568</v>
       </c>
       <c r="I518" t="n">
-        <v>1.713967232406576</v>
+        <v>1.722160400931088</v>
       </c>
       <c r="J518" t="n">
-        <v>1.8497668976568655</v>
+        <v>1.840749142958443</v>
       </c>
       <c r="K518" t="n">
-        <v>1.6433939784257212</v>
+        <v>1.844120477728457</v>
       </c>
       <c r="L518" t="n">
-        <v>1.6678255582115025</v>
+        <v>1.8832103135285188</v>
       </c>
     </row>
     <row r="519">
@@ -19787,37 +19787,37 @@
         <v>518.0</v>
       </c>
       <c r="B519" t="n">
-        <v>2.0508112608082074</v>
+        <v>2.0303031482001255</v>
       </c>
       <c r="C519" t="n">
-        <v>1.9544182805531338</v>
+        <v>1.9247081854870118</v>
       </c>
       <c r="D519" t="n">
-        <v>2.015603221888861</v>
+        <v>1.9618109925711134</v>
       </c>
       <c r="E519" t="n">
-        <v>2.0429528921908915</v>
+        <v>1.9845254420855283</v>
       </c>
       <c r="F519" t="n">
-        <v>1.8086247555577657</v>
+        <v>1.8112381813822465</v>
       </c>
       <c r="G519" t="n">
-        <v>1.81876490223207</v>
+        <v>1.8183172812683368</v>
       </c>
       <c r="H519" t="n">
-        <v>1.779346067263705</v>
+        <v>1.7480441483460645</v>
       </c>
       <c r="I519" t="n">
-        <v>1.8378054174765046</v>
+        <v>1.8122461044923523</v>
       </c>
       <c r="J519" t="n">
-        <v>2.0508112608082074</v>
+        <v>1.9942475509877462</v>
       </c>
       <c r="K519" t="n">
-        <v>1.9544182805531338</v>
+        <v>1.9088015059022572</v>
       </c>
       <c r="L519" t="n">
-        <v>2.015603221888861</v>
+        <v>2.0202272018685896</v>
       </c>
     </row>
     <row r="520">
@@ -19866,34 +19866,34 @@
         <v>2.059102505403645</v>
       </c>
       <c r="C521" t="n">
-        <v>1.9623198170404428</v>
+        <v>1.9520097037826996</v>
       </c>
       <c r="D521" t="n">
-        <v>2.0237521235647016</v>
+        <v>1.9896388051767988</v>
       </c>
       <c r="E521" t="n">
-        <v>2.051212366112171</v>
+        <v>2.0126754536425513</v>
       </c>
       <c r="F521" t="n">
-        <v>1.8159368619988931</v>
+        <v>1.8369301552200068</v>
       </c>
       <c r="G521" t="n">
-        <v>1.8261180043698357</v>
+        <v>1.8441096704191895</v>
       </c>
       <c r="H521" t="n">
-        <v>1.7865398026139774</v>
+        <v>1.7728397301685963</v>
       </c>
       <c r="I521" t="n">
-        <v>1.8452354986967103</v>
+        <v>1.8379523754747078</v>
       </c>
       <c r="J521" t="n">
-        <v>2.059102505403645</v>
+        <v>2.0225354682990377</v>
       </c>
       <c r="K521" t="n">
-        <v>1.9623198170404428</v>
+        <v>1.9358773918101462</v>
       </c>
       <c r="L521" t="n">
-        <v>2.0237521235647016</v>
+        <v>2.0488836342198167</v>
       </c>
     </row>
     <row r="522">
@@ -19904,34 +19904,34 @@
         <v>1.806551352658554</v>
       </c>
       <c r="C522" t="n">
-        <v>1.7216391658598693</v>
+        <v>1.7125935991612906</v>
       </c>
       <c r="D522" t="n">
-        <v>1.7755367334443344</v>
+        <v>1.7456074505088757</v>
       </c>
       <c r="E522" t="n">
-        <v>1.7996289474979215</v>
+        <v>1.7658186290865863</v>
       </c>
       <c r="F522" t="n">
-        <v>1.5932102388188485</v>
+        <v>1.6116286818860748</v>
       </c>
       <c r="G522" t="n">
-        <v>1.6021426530495961</v>
+        <v>1.6179276217690963</v>
       </c>
       <c r="H522" t="n">
-        <v>1.5674187606109227</v>
+        <v>1.5553990168911356</v>
       </c>
       <c r="I522" t="n">
-        <v>1.6189153659888615</v>
+        <v>1.6125255257192492</v>
       </c>
       <c r="J522" t="n">
-        <v>1.806551352658554</v>
+        <v>1.7744693022649074</v>
       </c>
       <c r="K522" t="n">
-        <v>1.7216391658598693</v>
+        <v>1.698439932726985</v>
       </c>
       <c r="L522" t="n">
-        <v>1.7755367334443344</v>
+        <v>1.7975858370946896</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6.713626827426878</v>
+        <v>6.647806956569751</v>
       </c>
       <c r="C523" t="n">
-        <v>6.572347535835156</v>
+        <v>6.542286211007557</v>
       </c>
       <c r="D523" t="n">
-        <v>6.047710160839528</v>
+        <v>6.109615060526283</v>
       </c>
       <c r="E523" t="n">
-        <v>6.669745738956316</v>
+        <v>6.68096310160871</v>
       </c>
       <c r="F523" t="n">
-        <v>6.400067106677861</v>
+        <v>6.639569279167552</v>
       </c>
       <c r="G523" t="n">
-        <v>6.602782934417521</v>
+        <v>6.530325909473614</v>
       </c>
       <c r="H523" t="n">
-        <v>6.231713326440326</v>
+        <v>6.2851993019742745</v>
       </c>
       <c r="I523" t="n">
-        <v>6.35026446550949</v>
+        <v>6.455581209789879</v>
       </c>
       <c r="J523" t="n">
-        <v>6.713626827426878</v>
+        <v>5.960102789953849</v>
       </c>
       <c r="K523" t="n">
-        <v>6.572347535835156</v>
+        <v>5.940279829897672</v>
       </c>
       <c r="L523" t="n">
-        <v>6.047710160839528</v>
+        <v>5.8526842239026</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.6062148524858093</v>
+        <v>1.574090555436093</v>
       </c>
       <c r="C524" t="n">
-        <v>1.7664923808811983</v>
+        <v>1.753540779886818</v>
       </c>
       <c r="D524" t="n">
-        <v>1.7333902623828723</v>
+        <v>1.7278478742120018</v>
       </c>
       <c r="E524" t="n">
-        <v>1.5956573526361635</v>
+        <v>1.568855220525794</v>
       </c>
       <c r="F524" t="n">
-        <v>1.766608031646295</v>
+        <v>1.7246891035752805</v>
       </c>
       <c r="G524" t="n">
-        <v>1.680292527504721</v>
+        <v>1.6588797947876486</v>
       </c>
       <c r="H524" t="n">
-        <v>1.748153190950319</v>
+        <v>1.6957548332089485</v>
       </c>
       <c r="I524" t="n">
-        <v>1.7523275963722924</v>
+        <v>1.6727037933981475</v>
       </c>
       <c r="J524" t="n">
-        <v>1.6062148524858093</v>
+        <v>1.7644730787504974</v>
       </c>
       <c r="K524" t="n">
-        <v>1.7664923808811983</v>
+        <v>1.755716388371186</v>
       </c>
       <c r="L524" t="n">
-        <v>1.7333902623828723</v>
+        <v>1.7331382848918002</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>3.073611134590784</v>
       </c>
       <c r="C531" t="n">
-        <v>3.0089311017433453</v>
+        <v>3.024823656162314</v>
       </c>
       <c r="D531" t="n">
-        <v>2.7687432988077636</v>
+        <v>2.8247783067074534</v>
       </c>
       <c r="E531" t="n">
-        <v>3.0535216351908336</v>
+        <v>3.0889408662207223</v>
       </c>
       <c r="F531" t="n">
-        <v>2.9300582273728635</v>
+        <v>3.069802447432451</v>
       </c>
       <c r="G531" t="n">
-        <v>3.022864938456805</v>
+        <v>3.0192938150872117</v>
       </c>
       <c r="H531" t="n">
-        <v>2.8529830388362285</v>
+        <v>2.905959617040161</v>
       </c>
       <c r="I531" t="n">
-        <v>2.907257741679826</v>
+        <v>2.9847356303053063</v>
       </c>
       <c r="J531" t="n">
-        <v>3.073611134590784</v>
+        <v>2.7556513626503256</v>
       </c>
       <c r="K531" t="n">
-        <v>3.0089311017433453</v>
+        <v>2.746486224259987</v>
       </c>
       <c r="L531" t="n">
-        <v>2.7687432988077636</v>
+        <v>2.705986427607257</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>2.5723412427023757</v>
+        <v>2.5983244875781573</v>
       </c>
       <c r="C534" t="n">
-        <v>2.518209763869429</v>
+        <v>2.557081241657667</v>
       </c>
       <c r="D534" t="n">
-        <v>2.3171937717902855</v>
+        <v>2.387969826012078</v>
       </c>
       <c r="E534" t="n">
-        <v>2.55552810480404</v>
+        <v>2.6112837121963275</v>
       </c>
       <c r="F534" t="n">
-        <v>2.4522001293420326</v>
+        <v>2.5951047552582005</v>
       </c>
       <c r="G534" t="n">
-        <v>2.529871155398024</v>
+        <v>2.552406505378848</v>
       </c>
       <c r="H534" t="n">
-        <v>2.387694999193796</v>
+        <v>2.4565976964011664</v>
       </c>
       <c r="I534" t="n">
-        <v>2.4331181351880606</v>
+        <v>2.5231922118872188</v>
       </c>
       <c r="J534" t="n">
-        <v>2.5723412427023757</v>
+        <v>2.32953229971811</v>
       </c>
       <c r="K534" t="n">
-        <v>2.518209763869429</v>
+        <v>2.3217844088923467</v>
       </c>
       <c r="L534" t="n">
-        <v>2.3171937717902855</v>
+        <v>2.287547282340964</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>2.9752442265497607</v>
+        <v>3.005297198535112</v>
       </c>
       <c r="C537" t="n">
-        <v>2.6433051929145175</v>
+        <v>2.6803114817918208</v>
       </c>
       <c r="D537" t="n">
-        <v>2.682601991227436</v>
+        <v>2.74017326922985</v>
       </c>
       <c r="E537" t="n">
-        <v>2.7267997924248526</v>
+        <v>2.720427008193235</v>
       </c>
       <c r="F537" t="n">
-        <v>3.0012018195213637</v>
+        <v>3.059632371337609</v>
       </c>
       <c r="G537" t="n">
-        <v>2.948523972873066</v>
+        <v>2.9564158557492854</v>
       </c>
       <c r="H537" t="n">
-        <v>2.9592719344728224</v>
+        <v>3.0444480912978733</v>
       </c>
       <c r="I537" t="n">
-        <v>2.7568182343260297</v>
+        <v>2.797976239547988</v>
       </c>
       <c r="J537" t="n">
-        <v>2.9752442265497607</v>
+        <v>2.990646145493469</v>
       </c>
       <c r="K537" t="n">
-        <v>2.6433051929145175</v>
+        <v>2.996123518319462</v>
       </c>
       <c r="L537" t="n">
-        <v>2.682601991227436</v>
+        <v>3.059632371337609</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>0.7137501679012442</v>
+        <v>0.7211084170548653</v>
       </c>
       <c r="C547" t="n">
-        <v>0.7832002964192436</v>
+        <v>0.7908788578994389</v>
       </c>
       <c r="D547" t="n">
-        <v>0.7242206398009903</v>
+        <v>0.7159119591524539</v>
       </c>
       <c r="E547" t="n">
-        <v>0.7197690014082677</v>
+        <v>0.7363199399520639</v>
       </c>
       <c r="F547" t="n">
-        <v>0.7117633334544062</v>
+        <v>0.7159119591524539</v>
       </c>
       <c r="G547" t="n">
-        <v>0.7732815051681305</v>
+        <v>0.800189079755721</v>
       </c>
       <c r="H547" t="n">
-        <v>0.6981141633253999</v>
+        <v>0.7183009870394219</v>
       </c>
       <c r="I547" t="n">
-        <v>0.7773388339432474</v>
+        <v>0.788464697417998</v>
       </c>
       <c r="J547" t="n">
-        <v>0.7137501679012442</v>
+        <v>0.8011818699839172</v>
       </c>
       <c r="K547" t="n">
-        <v>0.7832002964192436</v>
+        <v>0.805177789609339</v>
       </c>
       <c r="L547" t="n">
-        <v>0.7242206398009903</v>
+        <v>0.7870232631508575</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>5.980914686429635</v>
+        <v>5.921697709336272</v>
       </c>
       <c r="C549" t="n">
-        <v>5.671074252813498</v>
+        <v>5.615403003623464</v>
       </c>
       <c r="D549" t="n">
-        <v>6.231941020601539</v>
+        <v>6.25557286291236</v>
       </c>
       <c r="E549" t="n">
-        <v>6.209358644773106</v>
+        <v>6.163916115973677</v>
       </c>
       <c r="F549" t="n">
-        <v>6.222466949407369</v>
+        <v>6.08222565837157</v>
       </c>
       <c r="G549" t="n">
-        <v>6.151299486538588</v>
+        <v>5.967195389859935</v>
       </c>
       <c r="H549" t="n">
-        <v>5.484688703661061</v>
+        <v>5.514196940623033</v>
       </c>
       <c r="I549" t="n">
-        <v>6.276645728288306</v>
+        <v>6.294572692791022</v>
       </c>
       <c r="J549" t="n">
-        <v>5.980914686429635</v>
+        <v>5.917879724346666</v>
       </c>
       <c r="K549" t="n">
-        <v>5.671074252813498</v>
+        <v>5.637350420132189</v>
       </c>
       <c r="L549" t="n">
-        <v>6.231941020601539</v>
+        <v>5.618527879478052</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>4.661318158502569</v>
+        <v>4.6151664935669</v>
       </c>
       <c r="C550" t="n">
-        <v>4.084803670672232</v>
+        <v>4.057779234725925</v>
       </c>
       <c r="D550" t="n">
-        <v>4.440208510172709</v>
+        <v>4.433808043288651</v>
       </c>
       <c r="E550" t="n">
-        <v>4.713655582116217</v>
+        <v>4.689604662975546</v>
       </c>
       <c r="F550" t="n">
-        <v>4.516764026149109</v>
+        <v>4.43094936772178</v>
       </c>
       <c r="G550" t="n">
-        <v>4.262758882928461</v>
+        <v>4.204473147036677</v>
       </c>
       <c r="H550" t="n">
-        <v>4.906727601739757</v>
+        <v>4.712994212852192</v>
       </c>
       <c r="I550" t="n">
-        <v>4.849488190827804</v>
+        <v>4.606729262129435</v>
       </c>
       <c r="J550" t="n">
-        <v>4.661318158502569</v>
+        <v>4.554001634137298</v>
       </c>
       <c r="K550" t="n">
-        <v>4.084803670672232</v>
+        <v>4.128696186072693</v>
       </c>
       <c r="L550" t="n">
-        <v>4.440208510172709</v>
+        <v>4.220906041220447</v>
       </c>
     </row>
     <row r="551">
@@ -21044,34 +21044,34 @@
         <v>2.5737117982770505</v>
       </c>
       <c r="C552" t="n">
-        <v>2.255393655478738</v>
+        <v>2.2628770393820132</v>
       </c>
       <c r="D552" t="n">
-        <v>2.4516277672650455</v>
+        <v>2.472574735540745</v>
       </c>
       <c r="E552" t="n">
-        <v>2.6026095134866774</v>
+        <v>2.615223278982292</v>
       </c>
       <c r="F552" t="n">
-        <v>2.493897320209473</v>
+        <v>2.4709805553428787</v>
       </c>
       <c r="G552" t="n">
-        <v>2.3536502888547113</v>
+        <v>2.344682940290652</v>
       </c>
       <c r="H552" t="n">
-        <v>2.70921277846997</v>
+        <v>2.6282667868509297</v>
       </c>
       <c r="I552" t="n">
-        <v>2.6776084678047987</v>
+        <v>2.5690066587927727</v>
       </c>
       <c r="J552" t="n">
-        <v>2.5737117982770505</v>
+        <v>2.5396023635311202</v>
       </c>
       <c r="K552" t="n">
-        <v>2.255393655478738</v>
+        <v>2.302424863850195</v>
       </c>
       <c r="L552" t="n">
-        <v>2.4516277672650455</v>
+        <v>2.353846972335771</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>4.322689092962782</v>
+        <v>4.36591598389241</v>
       </c>
       <c r="C554" t="n">
-        <v>4.10197668492323</v>
+        <v>4.145069149350864</v>
       </c>
       <c r="D554" t="n">
-        <v>4.464028283687307</v>
+        <v>4.620774975532717</v>
       </c>
       <c r="E554" t="n">
-        <v>3.9734727490476414</v>
+        <v>4.068098995380402</v>
       </c>
       <c r="F554" t="n">
-        <v>4.1576420300003685</v>
+        <v>4.246687150552406</v>
       </c>
       <c r="G554" t="n">
-        <v>4.277252964147657</v>
+        <v>4.368732702458657</v>
       </c>
       <c r="H554" t="n">
-        <v>4.160585390575881</v>
+        <v>4.128985177363868</v>
       </c>
       <c r="I554" t="n">
-        <v>4.549418624474089</v>
+        <v>4.615049109266553</v>
       </c>
       <c r="J554" t="n">
-        <v>4.322689092962782</v>
+        <v>4.5474293408476605</v>
       </c>
       <c r="K554" t="n">
-        <v>4.10197668492323</v>
+        <v>3.9982228975695686</v>
       </c>
       <c r="L554" t="n">
-        <v>4.464028283687307</v>
+        <v>4.4871622027527085</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>2.5110081904572</v>
+        <v>2.5617356286482544</v>
       </c>
       <c r="C557" t="n">
-        <v>2.3218138267617516</v>
+        <v>2.387234376399005</v>
       </c>
       <c r="D557" t="n">
-        <v>2.2564383711548737</v>
+        <v>2.335082887144854</v>
       </c>
       <c r="E557" t="n">
-        <v>2.4261575705727503</v>
+        <v>2.5060294039737485</v>
       </c>
       <c r="F557" t="n">
-        <v>2.3218066645185576</v>
+        <v>2.3792636432084175</v>
       </c>
       <c r="G557" t="n">
-        <v>2.3412595050584226</v>
+        <v>2.370031466757746</v>
       </c>
       <c r="H557" t="n">
-        <v>2.3793780693771516</v>
+        <v>2.43759222761628</v>
       </c>
       <c r="I557" t="n">
-        <v>2.4731956774078236</v>
+        <v>2.507646196320595</v>
       </c>
       <c r="J557" t="n">
-        <v>2.5110081904572</v>
+        <v>2.665546612697677</v>
       </c>
       <c r="K557" t="n">
-        <v>2.3218138267617516</v>
+        <v>2.3779403600157645</v>
       </c>
       <c r="L557" t="n">
-        <v>2.2564383711548737</v>
+        <v>2.294974108965212</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>3.9102482836503527</v>
+        <v>3.8722847080809317</v>
       </c>
       <c r="C558" t="n">
-        <v>3.61562680900604</v>
+        <v>3.6085109903447665</v>
       </c>
       <c r="D558" t="n">
-        <v>3.513821381189769</v>
+        <v>3.5296795090302577</v>
       </c>
       <c r="E558" t="n">
-        <v>3.77811530533879</v>
+        <v>3.788079937089073</v>
       </c>
       <c r="F558" t="n">
-        <v>3.6156156556576504</v>
+        <v>3.5964625385447686</v>
       </c>
       <c r="G558" t="n">
-        <v>3.6459084426832797</v>
+        <v>3.5825073062825292</v>
       </c>
       <c r="H558" t="n">
-        <v>3.705268285183589</v>
+        <v>3.684631232816221</v>
       </c>
       <c r="I558" t="n">
-        <v>3.8513650371465213</v>
+        <v>3.7905238583941534</v>
       </c>
       <c r="J558" t="n">
-        <v>3.9102482836503527</v>
+        <v>4.02920397858252</v>
       </c>
       <c r="K558" t="n">
-        <v>3.61562680900604</v>
+        <v>3.594462281682169</v>
       </c>
       <c r="L558" t="n">
-        <v>3.513821381189769</v>
+        <v>3.4690516258607555</v>
       </c>
     </row>
     <row r="559">
@@ -21538,34 +21538,34 @@
         <v>1.5843027693723735</v>
       </c>
       <c r="C565" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.530856409926236</v>
       </c>
       <c r="D565" t="n">
-        <v>1.586106597195836</v>
+        <v>1.5485811350749703</v>
       </c>
       <c r="E565" t="n">
-        <v>1.5104088180322999</v>
+        <v>1.4904525752847584</v>
       </c>
       <c r="F565" t="n">
-        <v>1.573534841906346</v>
+        <v>1.501904043838964</v>
       </c>
       <c r="G565" t="n">
-        <v>1.4484220373727497</v>
+        <v>1.414146712365006</v>
       </c>
       <c r="H565" t="n">
-        <v>1.412381886758694</v>
+        <v>1.418884222715649</v>
       </c>
       <c r="I565" t="n">
-        <v>1.5629871679184466</v>
+        <v>1.556167570662965</v>
       </c>
       <c r="J565" t="n">
-        <v>1.5843027693723735</v>
+        <v>1.3640481164918437</v>
       </c>
       <c r="K565" t="n">
-        <v>1.5506453561562126</v>
+        <v>1.522601342454042</v>
       </c>
       <c r="L565" t="n">
-        <v>1.586106597195836</v>
+        <v>1.4488150754582414</v>
       </c>
     </row>
     <row r="566">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>3.493768792113938</v>
+        <v>3.528706480035077</v>
       </c>
       <c r="C568" t="n">
-        <v>3.9796757164337975</v>
+        <v>4.078151472960122</v>
       </c>
       <c r="D568" t="n">
-        <v>3.5439967688801985</v>
+        <v>3.6583083890593358</v>
       </c>
       <c r="E568" t="n">
-        <v>3.933834472250054</v>
+        <v>3.9602290186089966</v>
       </c>
       <c r="F568" t="n">
-        <v>3.5211398854882847</v>
+        <v>3.670564029656928</v>
       </c>
       <c r="G568" t="n">
-        <v>3.580048106105756</v>
+        <v>3.6441131784297043</v>
       </c>
       <c r="H568" t="n">
-        <v>3.9164117235776876</v>
+        <v>4.025707395675792</v>
       </c>
       <c r="I568" t="n">
-        <v>3.8668461507216025</v>
+        <v>3.938873679504702</v>
       </c>
       <c r="J568" t="n">
-        <v>3.493768792113938</v>
+        <v>3.590376938501647</v>
       </c>
       <c r="K568" t="n">
-        <v>3.9796757164337975</v>
+        <v>3.885331072862582</v>
       </c>
       <c r="L568" t="n">
-        <v>3.5439967688801985</v>
+        <v>3.855706845678376</v>
       </c>
     </row>
     <row r="569">
@@ -21956,34 +21956,34 @@
         <v>1.4898273846605201</v>
       </c>
       <c r="C576" t="n">
-        <v>1.6347922589085417</v>
+        <v>1.6339747984913229</v>
       </c>
       <c r="D576" t="n">
-        <v>1.5116826450416545</v>
+        <v>1.4790913772819527</v>
       </c>
       <c r="E576" t="n">
-        <v>1.5023906363215924</v>
+        <v>1.5212547579079367</v>
       </c>
       <c r="F576" t="n">
-        <v>1.485680218746164</v>
+        <v>1.4790913772819527</v>
       </c>
       <c r="G576" t="n">
-        <v>1.6140885344217348</v>
+        <v>1.6532099414333563</v>
       </c>
       <c r="H576" t="n">
-        <v>1.4571899873590692</v>
+        <v>1.4840271665260434</v>
       </c>
       <c r="I576" t="n">
-        <v>1.6225574914736323</v>
+        <v>1.6289870847007872</v>
       </c>
       <c r="J576" t="n">
-        <v>1.4898273846605201</v>
+        <v>1.6552610699935122</v>
       </c>
       <c r="K576" t="n">
-        <v>1.6347922589085417</v>
+        <v>1.6635167363316892</v>
       </c>
       <c r="L576" t="n">
-        <v>1.5116826450416545</v>
+        <v>1.626009046733702</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>2.444534732634741</v>
+        <v>2.4203314184502385</v>
       </c>
       <c r="C577" t="n">
-        <v>2.682395624278953</v>
+        <v>2.6545092286953755</v>
       </c>
       <c r="D577" t="n">
-        <v>2.480395224690761</v>
+        <v>2.4028900046095463</v>
       </c>
       <c r="E577" t="n">
-        <v>2.465148734871866</v>
+        <v>2.4713874398747726</v>
       </c>
       <c r="F577" t="n">
-        <v>2.437729990539097</v>
+        <v>2.4028900046095463</v>
       </c>
       <c r="G577" t="n">
-        <v>2.6484245923835825</v>
+        <v>2.6857580977122337</v>
       </c>
       <c r="H577" t="n">
-        <v>2.390982722443724</v>
+        <v>2.41090854817058</v>
       </c>
       <c r="I577" t="n">
-        <v>2.6623206046838748</v>
+        <v>2.646406329985253</v>
       </c>
       <c r="J577" t="n">
-        <v>2.444534732634741</v>
+        <v>2.689090303139883</v>
       </c>
       <c r="K577" t="n">
-        <v>2.682395624278953</v>
+        <v>2.7025022251009525</v>
       </c>
       <c r="L577" t="n">
-        <v>2.480395224690761</v>
+        <v>2.641568293759522</v>
       </c>
     </row>
     <row r="578">
@@ -22032,34 +22032,34 @@
         <v>1.5701245575368716</v>
       </c>
       <c r="C578" t="n">
-        <v>1.576257396288164</v>
+        <v>1.5640320561841565</v>
       </c>
       <c r="D578" t="n">
-        <v>1.6723788929203056</v>
+        <v>1.6537798660188225</v>
       </c>
       <c r="E578" t="n">
-        <v>1.7228996117505315</v>
+        <v>1.6905415387400355</v>
       </c>
       <c r="F578" t="n">
-        <v>1.6142611760357157</v>
+        <v>1.5640320561841565</v>
       </c>
       <c r="G578" t="n">
-        <v>1.7395070481213224</v>
+        <v>1.7225359154374498</v>
       </c>
       <c r="H578" t="n">
-        <v>1.7561979802101821</v>
+        <v>1.7481498328762182</v>
       </c>
       <c r="I578" t="n">
-        <v>1.7491543029403365</v>
+        <v>1.7503187528420243</v>
       </c>
       <c r="J578" t="n">
-        <v>1.5701245575368716</v>
+        <v>1.6086167788787857</v>
       </c>
       <c r="K578" t="n">
-        <v>1.576257396288164</v>
+        <v>1.7193868558752108</v>
       </c>
       <c r="L578" t="n">
-        <v>1.6723788929203056</v>
+        <v>1.7590485223453778</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>1.1699849495741796</v>
+        <v>1.1820466500852538</v>
       </c>
       <c r="C580" t="n">
-        <v>1.1745548602877818</v>
+        <v>1.1774599943450785</v>
       </c>
       <c r="D580" t="n">
-        <v>1.2461801997236372</v>
+        <v>1.2450253970122258</v>
       </c>
       <c r="E580" t="n">
-        <v>1.283825926866304</v>
+        <v>1.2727009160550007</v>
       </c>
       <c r="F580" t="n">
-        <v>1.2028735373749806</v>
+        <v>1.1774599943450785</v>
       </c>
       <c r="G580" t="n">
-        <v>1.2962010282629202</v>
+        <v>1.2967874419393373</v>
       </c>
       <c r="H580" t="n">
-        <v>1.308638346846718</v>
+        <v>1.3160705269396464</v>
       </c>
       <c r="I580" t="n">
-        <v>1.3033897209617085</v>
+        <v>1.3177033684665036</v>
       </c>
       <c r="J580" t="n">
-        <v>1.1699849495741796</v>
+        <v>1.2110249888247784</v>
       </c>
       <c r="K580" t="n">
-        <v>1.1745548602877818</v>
+        <v>1.2944167158153521</v>
       </c>
       <c r="L580" t="n">
-        <v>1.2461801997236372</v>
+        <v>1.324275455214604</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>4.303236196222576</v>
+        <v>4.389300920147027</v>
       </c>
       <c r="C582" t="n">
-        <v>4.855857741637395</v>
+        <v>4.9365953000676415</v>
       </c>
       <c r="D582" t="n">
-        <v>4.706561250118185</v>
+        <v>4.744337241809517</v>
       </c>
       <c r="E582" t="n">
-        <v>4.320354410760152</v>
+        <v>4.403948199283053</v>
       </c>
       <c r="F582" t="n">
-        <v>4.553054522933893</v>
+        <v>4.644163552803263</v>
       </c>
       <c r="G582" t="n">
-        <v>4.385773605065695</v>
+        <v>4.514423524619396</v>
       </c>
       <c r="H582" t="n">
-        <v>4.702995894739826</v>
+        <v>4.834126288346141</v>
       </c>
       <c r="I582" t="n">
-        <v>4.898319954003653</v>
+        <v>4.9365953000676415</v>
       </c>
       <c r="J582" t="n">
-        <v>4.303236196222576</v>
+        <v>4.906009208480687</v>
       </c>
       <c r="K582" t="n">
-        <v>4.855857741637395</v>
+        <v>4.848927656988057</v>
       </c>
       <c r="L582" t="n">
-        <v>4.706561250118185</v>
+        <v>4.389300920147027</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>4.710288721868673</v>
+        <v>4.757391609087359</v>
       </c>
       <c r="C584" t="n">
-        <v>5.365386995878067</v>
+        <v>5.498151718715601</v>
       </c>
       <c r="D584" t="n">
-        <v>4.778005931152361</v>
+        <v>4.932120518392273</v>
       </c>
       <c r="E584" t="n">
-        <v>5.303583966449646</v>
+        <v>5.339169015555928</v>
       </c>
       <c r="F584" t="n">
-        <v>4.747190348764364</v>
+        <v>4.948643536691714</v>
       </c>
       <c r="G584" t="n">
-        <v>4.826610237059816</v>
+        <v>4.912982577529035</v>
       </c>
       <c r="H584" t="n">
-        <v>5.280094668371126</v>
+        <v>5.427446769287129</v>
       </c>
       <c r="I584" t="n">
-        <v>5.213270510074229</v>
+        <v>5.310377810722429</v>
       </c>
       <c r="J584" t="n">
-        <v>4.710288721868673</v>
+        <v>4.840535538257266</v>
       </c>
       <c r="K584" t="n">
-        <v>5.365386995878067</v>
+        <v>5.238191827272382</v>
       </c>
       <c r="L584" t="n">
-        <v>4.778005931152361</v>
+        <v>5.198252532057768</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>0.7729049910725381</v>
+        <v>0.7574468912510873</v>
       </c>
       <c r="C585" t="n">
-        <v>0.8011510468155156</v>
+        <v>0.7749191697362997</v>
       </c>
       <c r="D585" t="n">
-        <v>0.797489960718438</v>
+        <v>0.7749191697362997</v>
       </c>
       <c r="E585" t="n">
-        <v>0.7754518059430711</v>
+        <v>0.7701179358377632</v>
       </c>
       <c r="F585" t="n">
-        <v>0.6808106184048546</v>
+        <v>0.6671875189178439</v>
       </c>
       <c r="G585" t="n">
-        <v>0.7854484228046503</v>
+        <v>0.7611575925644706</v>
       </c>
       <c r="H585" t="n">
-        <v>0.7635275622496687</v>
+        <v>0.7346160450987191</v>
       </c>
       <c r="I585" t="n">
-        <v>0.698746689621606</v>
+        <v>0.6890079534606585</v>
       </c>
       <c r="J585" t="n">
-        <v>0.7729049910725381</v>
+        <v>0.7447395731065218</v>
       </c>
       <c r="K585" t="n">
-        <v>0.8011510468155156</v>
+        <v>0.7086490013649992</v>
       </c>
       <c r="L585" t="n">
-        <v>0.797489960718438</v>
+        <v>0.6890079534606585</v>
       </c>
     </row>
     <row r="586">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>0.9189066469384203</v>
+        <v>0.900528513999652</v>
       </c>
       <c r="C593" t="n">
-        <v>1.0033430318275338</v>
+        <v>0.987937512465471</v>
       </c>
       <c r="D593" t="n">
-        <v>1.014521033789758</v>
+        <v>0.9745081024561648</v>
       </c>
       <c r="E593" t="n">
-        <v>0.948048906481332</v>
+        <v>0.9175668944461589</v>
       </c>
       <c r="F593" t="n">
-        <v>1.041970330664254</v>
+        <v>1.0097169074226067</v>
       </c>
       <c r="G593" t="n">
-        <v>0.9113869409503117</v>
+        <v>0.8850604984481277</v>
       </c>
       <c r="H593" t="n">
-        <v>0.9365578900797357</v>
+        <v>0.9140064905796087</v>
       </c>
       <c r="I593" t="n">
-        <v>0.9908920371285759</v>
+        <v>0.9664543163002156</v>
       </c>
       <c r="J593" t="n">
-        <v>0.9189066469384203</v>
+        <v>0.9206408206674179</v>
       </c>
       <c r="K593" t="n">
-        <v>1.0033430318275338</v>
+        <v>0.9670778348988773</v>
       </c>
       <c r="L593" t="n">
-        <v>1.014521033789758</v>
+        <v>1.0216032896747653</v>
       </c>
     </row>
     <row r="594">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.149076088361059</v>
+        <v>1.160682917536423</v>
       </c>
       <c r="C596" t="n">
-        <v>1.2546622555598617</v>
+        <v>1.2733435715646229</v>
       </c>
       <c r="D596" t="n">
-        <v>1.2686401441878734</v>
+        <v>1.2560345285436925</v>
       </c>
       <c r="E596" t="n">
-        <v>1.1855179551308133</v>
+        <v>1.182643529354157</v>
       </c>
       <c r="F596" t="n">
-        <v>1.3029649918597186</v>
+        <v>1.3014148333714821</v>
       </c>
       <c r="G596" t="n">
-        <v>1.1396728324686025</v>
+        <v>1.1407463345857038</v>
       </c>
       <c r="H596" t="n">
-        <v>1.1711486476260393</v>
+        <v>1.1780545575634904</v>
       </c>
       <c r="I596" t="n">
-        <v>1.239092512613121</v>
+        <v>1.2456540776558207</v>
       </c>
       <c r="J596" t="n">
-        <v>1.149076088361059</v>
+        <v>1.1866054845830218</v>
       </c>
       <c r="K596" t="n">
-        <v>1.2546622555598617</v>
+        <v>1.2464577250417526</v>
       </c>
       <c r="L596" t="n">
-        <v>1.2686401441878734</v>
+        <v>1.316735082110873</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>1.0353549192054523</v>
+        <v>1.0459197653197934</v>
       </c>
       <c r="C598" t="n">
-        <v>0.9866907889701648</v>
+        <v>0.9915220470688212</v>
       </c>
       <c r="D598" t="n">
-        <v>1.0175800917567495</v>
+        <v>1.0106357244093265</v>
       </c>
       <c r="E598" t="n">
-        <v>1.0313876108722313</v>
+        <v>1.0223371748683607</v>
       </c>
       <c r="F598" t="n">
-        <v>0.9130867249702577</v>
+        <v>0.9330674659540241</v>
       </c>
       <c r="G598" t="n">
-        <v>0.9182059921311804</v>
+        <v>0.9367142959843567</v>
       </c>
       <c r="H598" t="n">
-        <v>0.898305338436817</v>
+        <v>0.9005127766400618</v>
       </c>
       <c r="I598" t="n">
-        <v>0.9278186227516904</v>
+        <v>0.9335867020610641</v>
       </c>
       <c r="J598" t="n">
-        <v>1.0353549192054523</v>
+        <v>1.0273455628376331</v>
       </c>
       <c r="K598" t="n">
-        <v>0.9866907889701648</v>
+        <v>0.9833276497971366</v>
       </c>
       <c r="L598" t="n">
-        <v>1.0175800917567495</v>
+        <v>1.0407290964131342</v>
       </c>
     </row>
     <row r="599">
@@ -22868,34 +22868,34 @@
         <v>2.3976115211054863</v>
       </c>
       <c r="C600" t="n">
-        <v>2.6368592456925004</v>
+        <v>2.6709451766071703</v>
       </c>
       <c r="D600" t="n">
-        <v>2.587447412299379</v>
+        <v>2.631810448021273</v>
       </c>
       <c r="E600" t="n">
-        <v>2.3818522450445</v>
+        <v>2.3896372026938613</v>
       </c>
       <c r="F600" t="n">
-        <v>2.637031878641568</v>
+        <v>2.626999095303999</v>
       </c>
       <c r="G600" t="n">
-        <v>2.5081879404476304</v>
+        <v>2.5267601627976664</v>
       </c>
       <c r="H600" t="n">
-        <v>2.60948417006176</v>
+        <v>2.5829272090039894</v>
       </c>
       <c r="I600" t="n">
-        <v>2.6157153430072713</v>
+        <v>2.5478164979759783</v>
       </c>
       <c r="J600" t="n">
-        <v>2.3976115211054863</v>
+        <v>2.6875969541159077</v>
       </c>
       <c r="K600" t="n">
-        <v>2.6368592456925004</v>
+        <v>2.674259003724372</v>
       </c>
       <c r="L600" t="n">
-        <v>2.587447412299379</v>
+        <v>2.6398686563330243</v>
       </c>
     </row>
     <row r="601">
@@ -23096,34 +23096,34 @@
         <v>1.2978863380196757</v>
       </c>
       <c r="C606" t="n">
-        <v>1.3239021500631187</v>
+        <v>1.3129136642055486</v>
       </c>
       <c r="D606" t="n">
-        <v>1.3587941370774124</v>
+        <v>1.3431990788438608</v>
       </c>
       <c r="E606" t="n">
-        <v>1.1557251116466352</v>
+        <v>1.1564634039593171</v>
       </c>
       <c r="F606" t="n">
-        <v>1.330524116711628</v>
+        <v>1.3153182675177892</v>
       </c>
       <c r="G606" t="n">
-        <v>1.3380815240448525</v>
+        <v>1.3431990788438608</v>
       </c>
       <c r="H606" t="n">
-        <v>1.221018783282652</v>
+        <v>1.1989378533695525</v>
       </c>
       <c r="I606" t="n">
-        <v>1.1592039418673856</v>
+        <v>1.1766746708146074</v>
       </c>
       <c r="J606" t="n">
-        <v>1.2978863380196757</v>
+        <v>1.2733400251490743</v>
       </c>
       <c r="K606" t="n">
-        <v>1.3239021500631187</v>
+        <v>1.1942856552630952</v>
       </c>
       <c r="L606" t="n">
-        <v>1.3587941370774124</v>
+        <v>1.2908875501372068</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.297658490717227</v>
+        <v>2.320635075624399</v>
       </c>
       <c r="C607" t="n">
-        <v>2.3437144893694097</v>
+        <v>2.3475041004521007</v>
       </c>
       <c r="D607" t="n">
-        <v>2.4054840510582327</v>
+        <v>2.401654755583221</v>
       </c>
       <c r="E607" t="n">
-        <v>2.0459893427661227</v>
+        <v>2.0677693109851463</v>
       </c>
       <c r="F607" t="n">
-        <v>2.355437409512331</v>
+        <v>2.351803557674112</v>
       </c>
       <c r="G607" t="n">
-        <v>2.3688163477277424</v>
+        <v>2.401654755583221</v>
       </c>
       <c r="H607" t="n">
-        <v>2.1615792481606912</v>
+        <v>2.143714094616679</v>
       </c>
       <c r="I607" t="n">
-        <v>2.052147943531323</v>
+        <v>2.103907278858941</v>
       </c>
       <c r="J607" t="n">
-        <v>2.297658490717227</v>
+        <v>2.276745997701225</v>
       </c>
       <c r="K607" t="n">
-        <v>2.3437144893694097</v>
+        <v>2.1353959131331828</v>
       </c>
       <c r="L607" t="n">
-        <v>2.4054840510582327</v>
+        <v>2.3081211657610026</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>2.3597606774779734</v>
       </c>
       <c r="C608" t="n">
-        <v>2.438534283413663</v>
+        <v>2.4270286564270296</v>
       </c>
       <c r="D608" t="n">
-        <v>2.2582046838377763</v>
+        <v>2.285028588913547</v>
       </c>
       <c r="E608" t="n">
-        <v>2.332248275911952</v>
+        <v>2.3768890364381963</v>
       </c>
       <c r="F608" t="n">
-        <v>2.266623422560204</v>
+        <v>2.3249635513381115</v>
       </c>
       <c r="G608" t="n">
-        <v>2.570803318439258</v>
+        <v>2.6408239841872985</v>
       </c>
       <c r="H608" t="n">
-        <v>2.53836403286994</v>
+        <v>2.564462807367487</v>
       </c>
       <c r="I608" t="n">
-        <v>2.379916642315101</v>
+        <v>2.3597606774779734</v>
       </c>
       <c r="J608" t="n">
-        <v>2.3597606774779734</v>
+        <v>2.4967790386343447</v>
       </c>
       <c r="K608" t="n">
-        <v>2.438534283413663</v>
+        <v>2.637551588313013</v>
       </c>
       <c r="L608" t="n">
-        <v>2.2582046838377763</v>
+        <v>2.367635296686373</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>1.822467745264495</v>
+        <v>1.8410643549100512</v>
       </c>
       <c r="C609" t="n">
-        <v>1.7342750246608372</v>
+        <v>1.7267632415998717</v>
       </c>
       <c r="D609" t="n">
-        <v>1.9352654043264845</v>
+        <v>1.9075816836416633</v>
       </c>
       <c r="E609" t="n">
-        <v>1.9317708390828596</v>
+        <v>1.942070379290822</v>
       </c>
       <c r="F609" t="n">
-        <v>1.9645482305977267</v>
+        <v>1.942070379290822</v>
       </c>
       <c r="G609" t="n">
-        <v>1.8979050277860872</v>
+        <v>1.8664355221823294</v>
       </c>
       <c r="H609" t="n">
-        <v>1.840833966763946</v>
+        <v>1.8258489466682781</v>
       </c>
       <c r="I609" t="n">
-        <v>1.722874514471867</v>
+        <v>1.7392969789927042</v>
       </c>
       <c r="J609" t="n">
-        <v>1.822467745264495</v>
+        <v>1.733489642982547</v>
       </c>
       <c r="K609" t="n">
-        <v>1.7342750246608372</v>
+        <v>1.8765547508592737</v>
       </c>
       <c r="L609" t="n">
-        <v>1.9352654043264845</v>
+        <v>1.901758783876711</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>5.685583157801897</v>
+        <v>5.742438989379917</v>
       </c>
       <c r="C611" t="n">
-        <v>5.395282670563413</v>
+        <v>5.451961692512226</v>
       </c>
       <c r="D611" t="n">
-        <v>5.87148496684686</v>
+        <v>6.077652084590365</v>
       </c>
       <c r="E611" t="n">
-        <v>5.22626292433301</v>
+        <v>5.350723735847633</v>
       </c>
       <c r="F611" t="n">
-        <v>5.468498657565357</v>
+        <v>5.585618678646518</v>
       </c>
       <c r="G611" t="n">
-        <v>5.625821541087998</v>
+        <v>5.7461437868557725</v>
       </c>
       <c r="H611" t="n">
-        <v>5.4723700258168275</v>
+        <v>5.430806629477807</v>
       </c>
       <c r="I611" t="n">
-        <v>5.983797898213277</v>
+        <v>6.070120918664108</v>
       </c>
       <c r="J611" t="n">
-        <v>5.685583157801897</v>
+        <v>5.981181416380031</v>
       </c>
       <c r="K611" t="n">
-        <v>5.395282670563413</v>
+        <v>5.25881650951184</v>
       </c>
       <c r="L611" t="n">
-        <v>5.87148496684686</v>
+        <v>5.901912744043773</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.6160877512536662</v>
+        <v>1.568085144780785</v>
       </c>
       <c r="C616" t="n">
-        <v>1.7645866306927012</v>
+        <v>1.7202899332839845</v>
       </c>
       <c r="D616" t="n">
-        <v>1.784245463409634</v>
+        <v>1.69690537853487</v>
       </c>
       <c r="E616" t="n">
-        <v>1.667340453416687</v>
+        <v>1.5977539790863484</v>
       </c>
       <c r="F616" t="n">
-        <v>1.8325207399104595</v>
+        <v>1.7582142690086953</v>
       </c>
       <c r="G616" t="n">
-        <v>1.6028627900664765</v>
+        <v>1.541150777874561</v>
       </c>
       <c r="H616" t="n">
-        <v>1.647131119946364</v>
+        <v>1.591554268221269</v>
       </c>
       <c r="I616" t="n">
-        <v>1.7426889764631324</v>
+        <v>1.6828813668194675</v>
       </c>
       <c r="J616" t="n">
-        <v>1.6160877512536662</v>
+        <v>1.6031065892133727</v>
       </c>
       <c r="K616" t="n">
-        <v>1.7645866306927012</v>
+        <v>1.6839670961848971</v>
       </c>
       <c r="L616" t="n">
-        <v>1.784245463409634</v>
+        <v>1.7789119583600437</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>2.577471287445053</v>
       </c>
       <c r="C617" t="n">
-        <v>2.4563240401743323</v>
+        <v>2.4434184073452707</v>
       </c>
       <c r="D617" t="n">
-        <v>2.5332216233554865</v>
+        <v>2.4905204472685516</v>
       </c>
       <c r="E617" t="n">
-        <v>2.5675948449540416</v>
+        <v>2.5193564570464146</v>
       </c>
       <c r="F617" t="n">
-        <v>2.2730899065647514</v>
+        <v>2.2993681566102624</v>
       </c>
       <c r="G617" t="n">
-        <v>2.285834100729748</v>
+        <v>2.308355078939339</v>
       </c>
       <c r="H617" t="n">
-        <v>2.2362922841534845</v>
+        <v>2.219143286825173</v>
       </c>
       <c r="I617" t="n">
-        <v>2.3097643288685132</v>
+        <v>2.300647715713815</v>
       </c>
       <c r="J617" t="n">
-        <v>2.577471287445053</v>
+        <v>2.5316986811970765</v>
       </c>
       <c r="K617" t="n">
-        <v>2.4563240401743323</v>
+        <v>2.423224866324247</v>
       </c>
       <c r="L617" t="n">
-        <v>2.5332216233554865</v>
+        <v>2.564679866426771</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.1440819476046513</v>
+        <v>1.1556383309137892</v>
       </c>
       <c r="C618" t="n">
-        <v>1.1485506823105978</v>
+        <v>1.1511541464836146</v>
       </c>
       <c r="D618" t="n">
-        <v>1.2185902651868066</v>
+        <v>1.2172100582026222</v>
       </c>
       <c r="E618" t="n">
-        <v>1.2554025308865069</v>
+        <v>1.244267273441512</v>
       </c>
       <c r="F618" t="n">
-        <v>1.1762423951375887</v>
+        <v>1.1511541464836146</v>
       </c>
       <c r="G618" t="n">
-        <v>1.267503652454608</v>
+        <v>1.2678156778707947</v>
       </c>
       <c r="H618" t="n">
-        <v>1.2796656137460845</v>
+        <v>1.2866679559623733</v>
       </c>
       <c r="I618" t="n">
-        <v>1.274533190352984</v>
+        <v>1.2882643178797373</v>
       </c>
       <c r="J618" t="n">
-        <v>1.1440819476046513</v>
+        <v>1.1839692593176583</v>
       </c>
       <c r="K618" t="n">
-        <v>1.1485506823105978</v>
+        <v>1.2654979165702753</v>
       </c>
       <c r="L618" t="n">
-        <v>1.2185902651868066</v>
+        <v>1.2946895764426272</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>0.8556944400929369</v>
+        <v>0.8645160322588434</v>
       </c>
       <c r="C622" t="n">
-        <v>0.8376874957954924</v>
+        <v>0.850793555527736</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7708191254811458</v>
+        <v>0.794526707117332</v>
       </c>
       <c r="E622" t="n">
-        <v>0.8501015162687993</v>
+        <v>0.868827832998748</v>
       </c>
       <c r="F622" t="n">
-        <v>0.8157292593375951</v>
+        <v>0.8634447610517668</v>
       </c>
       <c r="G622" t="n">
-        <v>0.8415666809242439</v>
+        <v>0.8492381745585993</v>
       </c>
       <c r="H622" t="n">
-        <v>0.7942714992593365</v>
+        <v>0.8173606120028796</v>
       </c>
       <c r="I622" t="n">
-        <v>0.8093815959590435</v>
+        <v>0.8395179778643944</v>
       </c>
       <c r="J622" t="n">
-        <v>0.8556944400929369</v>
+        <v>0.7750833394362724</v>
       </c>
       <c r="K622" t="n">
-        <v>0.8376874957954924</v>
+        <v>0.7725054567018081</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7708191254811458</v>
+        <v>0.7611140600753868</v>
       </c>
     </row>
     <row r="623">
@@ -23856,34 +23856,34 @@
         <v>1.6623171942457597</v>
       </c>
       <c r="C626" t="n">
-        <v>1.692616796784372</v>
+        <v>1.6706080532242535</v>
       </c>
       <c r="D626" t="n">
-        <v>1.6848819060330973</v>
+        <v>1.6706080532242535</v>
       </c>
       <c r="E626" t="n">
-        <v>1.6383212092816026</v>
+        <v>1.6602573220389123</v>
       </c>
       <c r="F626" t="n">
-        <v>1.4383698214234115</v>
+        <v>1.4383549738408894</v>
       </c>
       <c r="G626" t="n">
-        <v>1.6594413734231634</v>
+        <v>1.6409401826305396</v>
       </c>
       <c r="H626" t="n">
-        <v>1.6131284878283525</v>
+        <v>1.5837206368082224</v>
       </c>
       <c r="I626" t="n">
-        <v>1.4762639183361812</v>
+        <v>1.4853965171343448</v>
       </c>
       <c r="J626" t="n">
-        <v>1.6623171942457597</v>
+        <v>1.6055454258667146</v>
       </c>
       <c r="K626" t="n">
-        <v>1.692616796784372</v>
+        <v>1.5277396337898803</v>
       </c>
       <c r="L626" t="n">
-        <v>1.6848819060330973</v>
+        <v>1.4853965171343448</v>
       </c>
     </row>
   </sheetData>
